--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="444">
   <si>
     <t>description</t>
   </si>
@@ -1391,6 +1391,9 @@
   </si>
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1401,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="101" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1851,8 +1854,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2483,8 +2674,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -3650,6 +4147,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3657,7 +4718,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="127">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3921,49 +4982,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="58" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="59" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="99" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="102" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="73" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="74" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="76" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4288,7 +5439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5500,7 +6651,7 @@
         <v>337</v>
       </c>
       <c r="U59" t="s">
-        <v>214</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60">
@@ -5508,7 +6659,7 @@
         <v>309</v>
       </c>
       <c r="U60" t="s">
-        <v>389</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61">
@@ -5516,7 +6667,7 @@
         <v>310</v>
       </c>
       <c r="U61" t="s">
-        <v>138</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62">
@@ -5524,7 +6675,7 @@
         <v>369</v>
       </c>
       <c r="U62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -5532,7 +6683,7 @@
         <v>370</v>
       </c>
       <c r="U63" t="s">
-        <v>439</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -5540,7 +6691,7 @@
         <v>345</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65">
@@ -5548,7 +6699,7 @@
         <v>313</v>
       </c>
       <c r="U65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -5556,7 +6707,7 @@
         <v>269</v>
       </c>
       <c r="U66" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
@@ -5564,7 +6715,7 @@
         <v>353</v>
       </c>
       <c r="U67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68">
@@ -5572,7 +6723,7 @@
         <v>314</v>
       </c>
       <c r="U68" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69">
@@ -5580,7 +6731,7 @@
         <v>410</v>
       </c>
       <c r="U69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70">
@@ -5588,7 +6739,7 @@
         <v>304</v>
       </c>
       <c r="U70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -5596,7 +6747,7 @@
         <v>411</v>
       </c>
       <c r="U71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -5604,7 +6755,7 @@
         <v>262</v>
       </c>
       <c r="U72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -5612,7 +6763,7 @@
         <v>344</v>
       </c>
       <c r="U73" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -5620,7 +6771,7 @@
         <v>280</v>
       </c>
       <c r="U74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
@@ -5628,7 +6779,7 @@
         <v>286</v>
       </c>
       <c r="U75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76">
@@ -5636,7 +6787,7 @@
         <v>291</v>
       </c>
       <c r="U76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
@@ -5644,7 +6795,7 @@
         <v>429</v>
       </c>
       <c r="U77" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -5652,7 +6803,7 @@
         <v>332</v>
       </c>
       <c r="U78" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79">
@@ -5660,7 +6811,7 @@
         <v>270</v>
       </c>
       <c r="U79" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80">
@@ -5668,7 +6819,7 @@
         <v>281</v>
       </c>
       <c r="U80" t="s">
-        <v>440</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81">
@@ -5676,7 +6827,7 @@
         <v>287</v>
       </c>
       <c r="U81" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="82">
@@ -5684,7 +6835,7 @@
         <v>276</v>
       </c>
       <c r="U82" t="s">
-        <v>204</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83">
@@ -5692,7 +6843,7 @@
         <v>271</v>
       </c>
       <c r="U83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
@@ -5700,7 +6851,7 @@
         <v>288</v>
       </c>
       <c r="U84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -5708,7 +6859,7 @@
         <v>272</v>
       </c>
       <c r="U85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
@@ -5716,7 +6867,7 @@
         <v>273</v>
       </c>
       <c r="U86" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87">
@@ -5724,7 +6875,7 @@
         <v>305</v>
       </c>
       <c r="U87" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88">
@@ -5732,7 +6883,7 @@
         <v>311</v>
       </c>
       <c r="U88" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
@@ -5740,7 +6891,7 @@
         <v>295</v>
       </c>
       <c r="U89" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
@@ -5748,7 +6899,7 @@
         <v>340</v>
       </c>
       <c r="U90" t="s">
-        <v>150</v>
+        <v>383</v>
       </c>
     </row>
     <row r="91">
@@ -5756,7 +6907,7 @@
         <v>277</v>
       </c>
       <c r="U91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92">
@@ -5764,101 +6915,106 @@
         <v>278</v>
       </c>
       <c r="U92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
+    <definedName name="web">'#system'!$U$2:$U$113</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3602" uniqueCount="446">
   <si>
     <t>description</t>
   </si>
@@ -1394,6 +1394,12 @@
   </si>
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1407,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="101" x14ac:knownFonts="1">
+  <fonts count="116" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2042,8 +2048,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2980,8 +3080,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4711,6 +4964,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4718,7 +5253,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="142">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5072,49 +5607,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="88" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="89" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="91" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5439,7 +6019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6539,7 +7119,7 @@
         <v>342</v>
       </c>
       <c r="U45" t="s">
-        <v>213</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46">
@@ -6547,7 +7127,7 @@
         <v>211</v>
       </c>
       <c r="U46" t="s">
-        <v>76</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47">
@@ -6555,7 +7135,7 @@
         <v>320</v>
       </c>
       <c r="U47" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
@@ -6563,7 +7143,7 @@
         <v>339</v>
       </c>
       <c r="U48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
@@ -6571,7 +7151,7 @@
         <v>368</v>
       </c>
       <c r="U49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
@@ -6579,7 +7159,7 @@
         <v>302</v>
       </c>
       <c r="U50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
@@ -6587,7 +7167,7 @@
         <v>356</v>
       </c>
       <c r="U51" t="s">
-        <v>346</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -6595,7 +7175,7 @@
         <v>331</v>
       </c>
       <c r="U52" t="s">
-        <v>131</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53">
@@ -6603,7 +7183,7 @@
         <v>268</v>
       </c>
       <c r="U53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
@@ -6611,7 +7191,7 @@
         <v>292</v>
       </c>
       <c r="U54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -6619,7 +7199,7 @@
         <v>293</v>
       </c>
       <c r="U55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -6627,7 +7207,7 @@
         <v>294</v>
       </c>
       <c r="U56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -6635,7 +7215,7 @@
         <v>303</v>
       </c>
       <c r="U57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -6643,7 +7223,7 @@
         <v>312</v>
       </c>
       <c r="U58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -6651,7 +7231,7 @@
         <v>337</v>
       </c>
       <c r="U59" t="s">
-        <v>443</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
@@ -6659,7 +7239,7 @@
         <v>309</v>
       </c>
       <c r="U60" t="s">
-        <v>214</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61">
@@ -6667,7 +7247,7 @@
         <v>310</v>
       </c>
       <c r="U61" t="s">
-        <v>389</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62">
@@ -6675,7 +7255,7 @@
         <v>369</v>
       </c>
       <c r="U62" t="s">
-        <v>138</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63">
@@ -6683,7 +7263,7 @@
         <v>370</v>
       </c>
       <c r="U63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64">
@@ -6691,7 +7271,7 @@
         <v>345</v>
       </c>
       <c r="U64" t="s">
-        <v>439</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
@@ -6975,46 +7555,51 @@
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>163</v>
+        <v>445</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -19,16 +19,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,8 +42,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$113</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3602" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4967" uniqueCount="452">
   <si>
     <t>description</t>
   </si>
@@ -1400,6 +1400,24 @@
   </si>
   <si>
     <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1425,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="116" x14ac:knownFonts="1">
+  <fonts count="161" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2142,8 +2160,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3233,8 +3533,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -5246,6 +6005,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5253,7 +6858,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="187">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5652,49 +7257,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="104" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="118" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="119" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="121" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="133" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="134" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="136" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="142" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6019,7 +7759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA113"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6345,6 +8085,9 @@
       <c r="C5" t="s">
         <v>224</v>
       </c>
+      <c r="D5" t="s">
+        <v>446</v>
+      </c>
       <c r="E5" t="s">
         <v>336</v>
       </c>
@@ -6438,7 +8181,7 @@
         <v>98</v>
       </c>
       <c r="V6" t="s">
-        <v>175</v>
+        <v>450</v>
       </c>
       <c r="W6" t="s">
         <v>180</v>
@@ -6493,6 +8236,9 @@
       <c r="U7" t="s">
         <v>99</v>
       </c>
+      <c r="V7" t="s">
+        <v>451</v>
+      </c>
       <c r="W7" t="s">
         <v>181</v>
       </c>
@@ -6543,6 +8289,9 @@
       <c r="U8" t="s">
         <v>100</v>
       </c>
+      <c r="V8" t="s">
+        <v>175</v>
+      </c>
       <c r="W8" t="s">
         <v>182</v>
       </c>
@@ -6611,7 +8360,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>448</v>
       </c>
       <c r="M10" t="s">
         <v>434</v>
@@ -6646,7 +8395,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>92</v>
@@ -6678,7 +8427,7 @@
         <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -6706,6 +8455,9 @@
       <c r="I13" t="s">
         <v>81</v>
       </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" t="s">
         <v>93</v>
       </c>
@@ -6856,7 +8608,7 @@
         <v>297</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>447</v>
       </c>
       <c r="U20" t="s">
         <v>107</v>
@@ -6873,7 +8625,7 @@
         <v>298</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
         <v>108</v>
@@ -6889,6 +8641,9 @@
       <c r="E22" t="s">
         <v>299</v>
       </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
       <c r="U22" t="s">
         <v>109</v>
       </c>
@@ -7263,7 +9018,7 @@
         <v>370</v>
       </c>
       <c r="U63" t="s">
-        <v>138</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64">
@@ -7271,7 +9026,7 @@
         <v>345</v>
       </c>
       <c r="U64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
@@ -7279,7 +9034,7 @@
         <v>313</v>
       </c>
       <c r="U65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
@@ -7287,7 +9042,7 @@
         <v>269</v>
       </c>
       <c r="U66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -7295,7 +9050,7 @@
         <v>353</v>
       </c>
       <c r="U67" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
@@ -7303,7 +9058,7 @@
         <v>314</v>
       </c>
       <c r="U68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69">
@@ -7311,7 +9066,7 @@
         <v>410</v>
       </c>
       <c r="U69" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70">
@@ -7319,7 +9074,7 @@
         <v>304</v>
       </c>
       <c r="U70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71">
@@ -7327,7 +9082,7 @@
         <v>411</v>
       </c>
       <c r="U71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72">
@@ -7335,7 +9090,7 @@
         <v>262</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -7343,7 +9098,7 @@
         <v>344</v>
       </c>
       <c r="U73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
@@ -7351,7 +9106,7 @@
         <v>280</v>
       </c>
       <c r="U74" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -7359,7 +9114,7 @@
         <v>286</v>
       </c>
       <c r="U75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76">
@@ -7367,7 +9122,7 @@
         <v>291</v>
       </c>
       <c r="U76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
@@ -7375,7 +9130,7 @@
         <v>429</v>
       </c>
       <c r="U77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78">
@@ -7383,7 +9138,7 @@
         <v>332</v>
       </c>
       <c r="U78" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -7391,7 +9146,7 @@
         <v>270</v>
       </c>
       <c r="U79" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80">
@@ -7399,7 +9154,7 @@
         <v>281</v>
       </c>
       <c r="U80" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
@@ -7407,7 +9162,7 @@
         <v>287</v>
       </c>
       <c r="U81" t="s">
-        <v>440</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
@@ -7415,7 +9170,7 @@
         <v>276</v>
       </c>
       <c r="U82" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="83">
@@ -7423,7 +9178,7 @@
         <v>271</v>
       </c>
       <c r="U83" t="s">
-        <v>204</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84">
@@ -7431,7 +9186,7 @@
         <v>288</v>
       </c>
       <c r="U84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
@@ -7439,7 +9194,7 @@
         <v>272</v>
       </c>
       <c r="U85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
@@ -7447,7 +9202,7 @@
         <v>273</v>
       </c>
       <c r="U86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -7455,7 +9210,7 @@
         <v>305</v>
       </c>
       <c r="U87" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -7463,7 +9218,7 @@
         <v>311</v>
       </c>
       <c r="U88" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89">
@@ -7471,7 +9226,7 @@
         <v>295</v>
       </c>
       <c r="U89" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -7479,7 +9234,7 @@
         <v>340</v>
       </c>
       <c r="U90" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
@@ -7487,7 +9242,7 @@
         <v>277</v>
       </c>
       <c r="U91" t="s">
-        <v>150</v>
+        <v>383</v>
       </c>
     </row>
     <row r="92">
@@ -7495,111 +9250,116 @@
         <v>278</v>
       </c>
       <c r="U92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>445</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>163</v>
+        <v>445</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10904"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9B7E84-CE96-A049-A63F-158F4D573676}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{41F31281-8030-104C-A437-9F019414E251}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11180" windowWidth="31260" windowHeight="20820" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="20560" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="level1" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="level1" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -23,12 +23,12 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="504">
   <si>
     <t>description</t>
   </si>
@@ -1565,13 +1565,23 @@
   </si>
   <si>
     <t>alert('All done - You are AWESOME');</t>
+  </si>
+  <si>
+    <t>PauseAfter()</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1654,8 +1664,196 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1674,8 +1872,314 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1713,152 +2217,806 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="68">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="15" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="17" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1892,7 +3050,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1917,10 +3075,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1955,7 +3113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1990,7 +3148,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2084,21 +3242,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2115,7 +3273,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2167,26 +3325,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA114"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2266,7 +3424,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>370</v>
       </c>
@@ -2346,7 +3504,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2363,7 +3521,7 @@
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>327</v>
+        <v>502</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -2420,7 +3578,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -2437,7 +3595,7 @@
         <v>386</v>
       </c>
       <c r="F4" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="H4" t="s">
         <v>350</v>
@@ -2491,7 +3649,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2508,7 +3666,7 @@
         <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H5" t="s">
         <v>347</v>
@@ -2556,7 +3714,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2570,7 +3728,7 @@
         <v>387</v>
       </c>
       <c r="F6" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -2612,7 +3770,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2626,13 +3784,13 @@
         <v>365</v>
       </c>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>314</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -2668,7 +3826,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>346</v>
       </c>
@@ -2682,13 +3840,13 @@
         <v>366</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>90</v>
@@ -2721,7 +3879,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2734,11 +3892,14 @@
       <c r="E9" t="s">
         <v>305</v>
       </c>
+      <c r="F9" t="s">
+        <v>323</v>
+      </c>
       <c r="I9" t="s">
         <v>389</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>91</v>
@@ -2762,7 +3923,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>332</v>
       </c>
@@ -2772,11 +3933,14 @@
       <c r="E10" t="s">
         <v>351</v>
       </c>
+      <c r="F10" t="s">
+        <v>324</v>
+      </c>
       <c r="I10" t="s">
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>444</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>433</v>
@@ -2797,7 +3961,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2811,7 +3975,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="M11" t="s">
         <v>92</v>
@@ -2829,7 +3993,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>195</v>
       </c>
@@ -2843,7 +4007,7 @@
         <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -2858,7 +4022,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2872,7 +4036,7 @@
         <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -2887,7 +4051,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>238</v>
       </c>
@@ -2900,6 +4064,9 @@
       <c r="I14" t="s">
         <v>82</v>
       </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
       <c r="M14" t="s">
         <v>94</v>
       </c>
@@ -2913,7 +4080,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2939,7 +4106,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>395</v>
       </c>
@@ -2962,7 +4129,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>411</v>
       </c>
@@ -2979,7 +4146,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>412</v>
       </c>
@@ -2996,7 +4163,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>356</v>
       </c>
@@ -3013,7 +4180,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>396</v>
       </c>
@@ -3030,7 +4197,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -3047,7 +4214,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -3064,7 +4231,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -3078,7 +4245,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3092,7 +4259,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>413</v>
       </c>
@@ -3106,7 +4273,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>226</v>
       </c>
@@ -3120,7 +4287,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
         <v>64</v>
       </c>
@@ -3131,7 +4298,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
         <v>65</v>
       </c>
@@ -3142,7 +4309,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
         <v>66</v>
       </c>
@@ -3153,7 +4320,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
         <v>67</v>
       </c>
@@ -3164,7 +4331,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
         <v>68</v>
       </c>
@@ -3175,7 +4342,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="C32" t="s">
         <v>69</v>
       </c>
@@ -3186,7 +4353,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="C33" t="s">
         <v>70</v>
       </c>
@@ -3197,7 +4364,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>329</v>
       </c>
@@ -3205,7 +4372,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>306</v>
       </c>
@@ -3213,7 +4380,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>260</v>
       </c>
@@ -3221,7 +4388,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>307</v>
       </c>
@@ -3229,7 +4396,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>266</v>
       </c>
@@ -3237,7 +4404,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>77</v>
       </c>
@@ -3245,7 +4412,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>211</v>
       </c>
@@ -3253,7 +4420,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>288</v>
       </c>
@@ -3261,7 +4428,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>299</v>
       </c>
@@ -3269,7 +4436,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>300</v>
       </c>
@@ -3277,7 +4444,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>342</v>
       </c>
@@ -3285,7 +4452,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>341</v>
       </c>
@@ -3293,7 +4460,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>210</v>
       </c>
@@ -3301,7 +4468,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>319</v>
       </c>
@@ -3309,7 +4476,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>338</v>
       </c>
@@ -3317,7 +4484,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>367</v>
       </c>
@@ -3325,7 +4492,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>301</v>
       </c>
@@ -3333,7 +4500,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>355</v>
       </c>
@@ -3341,7 +4508,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
         <v>330</v>
       </c>
@@ -3349,7 +4516,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="53" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
         <v>267</v>
       </c>
@@ -3357,7 +4524,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="E54" t="s">
         <v>291</v>
       </c>
@@ -3365,7 +4532,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="E55" t="s">
         <v>292</v>
       </c>
@@ -3373,7 +4540,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="E56" t="s">
         <v>293</v>
       </c>
@@ -3381,7 +4548,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="E57" t="s">
         <v>302</v>
       </c>
@@ -3389,7 +4556,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="E58" t="s">
         <v>311</v>
       </c>
@@ -3397,7 +4564,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="E59" t="s">
         <v>336</v>
       </c>
@@ -3405,7 +4572,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="E60" t="s">
         <v>308</v>
       </c>
@@ -3413,7 +4580,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="61" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="E61" t="s">
         <v>309</v>
       </c>
@@ -3421,7 +4588,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="62" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="E62" t="s">
         <v>368</v>
       </c>
@@ -3429,7 +4596,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="63" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="E63" t="s">
         <v>369</v>
       </c>
@@ -3437,7 +4604,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="64" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="E64" t="s">
         <v>344</v>
       </c>
@@ -3445,7 +4612,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="E65" t="s">
         <v>312</v>
       </c>
@@ -3453,7 +4620,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="E66" t="s">
         <v>268</v>
       </c>
@@ -3461,7 +4628,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="E67" t="s">
         <v>352</v>
       </c>
@@ -3469,7 +4636,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="E68" t="s">
         <v>313</v>
       </c>
@@ -3477,7 +4644,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="E69" t="s">
         <v>409</v>
       </c>
@@ -3485,7 +4652,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="E70" t="s">
         <v>303</v>
       </c>
@@ -3493,7 +4660,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="E71" t="s">
         <v>410</v>
       </c>
@@ -3501,7 +4668,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="E72" t="s">
         <v>261</v>
       </c>
@@ -3509,7 +4676,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="E73" t="s">
         <v>343</v>
       </c>
@@ -3517,7 +4684,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="E74" t="s">
         <v>279</v>
       </c>
@@ -3525,7 +4692,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="E75" t="s">
         <v>285</v>
       </c>
@@ -3533,7 +4700,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="76" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="E76" t="s">
         <v>290</v>
       </c>
@@ -3541,7 +4708,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="77" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="E77" t="s">
         <v>428</v>
       </c>
@@ -3549,7 +4716,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="E78" t="s">
         <v>331</v>
       </c>
@@ -3557,7 +4724,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="E79" t="s">
         <v>269</v>
       </c>
@@ -3565,7 +4732,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="E80" t="s">
         <v>280</v>
       </c>
@@ -3573,7 +4740,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="E81" t="s">
         <v>286</v>
       </c>
@@ -3581,7 +4748,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="82" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="E82" t="s">
         <v>275</v>
       </c>
@@ -3589,7 +4756,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="83" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="E83" t="s">
         <v>270</v>
       </c>
@@ -3597,7 +4764,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="84" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="E84" t="s">
         <v>287</v>
       </c>
@@ -3605,7 +4772,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="E85" t="s">
         <v>271</v>
       </c>
@@ -3613,7 +4780,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="E86" t="s">
         <v>272</v>
       </c>
@@ -3621,7 +4788,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="87" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="E87" t="s">
         <v>304</v>
       </c>
@@ -3629,7 +4796,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="88" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="E88" t="s">
         <v>310</v>
       </c>
@@ -3637,7 +4804,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="89" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="E89" t="s">
         <v>294</v>
       </c>
@@ -3645,7 +4812,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="90" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="E90" t="s">
         <v>339</v>
       </c>
@@ -3653,7 +4820,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="E91" t="s">
         <v>276</v>
       </c>
@@ -3661,7 +4828,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="92" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="E92" t="s">
         <v>277</v>
       </c>
@@ -3669,154 +4836,154 @@
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="U93" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="U94" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="U95" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="U96" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="U97" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="U98" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="U99" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="U100" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="U101" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="U102" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="U103" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="104" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="U104" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="U105" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="106" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="U106" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="107" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="U107" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="108" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="U108" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="109" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="U109" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="110" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="U110" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="U111" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="U112" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="113" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="U113" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="114" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="U114" t="s">
         <v>169</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O986"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P986"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="true" topLeftCell="C1" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A37" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="47.83203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="18.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.33203125" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="20.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="47.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="35.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="24.5" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="10" width="18.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="18.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="24" t="s">
         <v>11</v>
       </c>
@@ -3834,20 +5001,20 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34"/>
-    </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
+    </row>
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>448</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="25" t="s">
         <v>435</v>
       </c>
@@ -3859,12 +5026,12 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-    </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+    </row>
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -3881,7 +5048,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>220</v>
       </c>
@@ -3926,7 +5093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>453</v>
       </c>
@@ -3951,7 +5118,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>454</v>
       </c>
@@ -3978,7 +5145,8 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
         <v>53</v>
@@ -4000,7 +5168,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -4023,7 +5191,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
         <v>461</v>
@@ -4050,7 +5218,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -4073,7 +5241,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -4094,7 +5262,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5" t="s">
         <v>469</v>
@@ -4121,7 +5289,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13" t="s">
@@ -4144,7 +5312,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>458</v>
       </c>
@@ -4171,7 +5339,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13" t="s">
@@ -4194,7 +5362,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13" t="s">
@@ -4217,7 +5385,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="8" t="s">
         <v>461</v>
@@ -4237,14 +5405,16 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="22"/>
+      <c r="J17" s="22" t="s">
+        <v>501</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="15"/>
       <c r="M17" s="12"/>
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
@@ -4267,7 +5437,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13" t="s">
@@ -4288,7 +5458,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5" t="s">
         <v>469</v>
@@ -4315,7 +5485,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13" t="s">
@@ -4338,7 +5508,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>468</v>
       </c>
@@ -4365,7 +5535,8 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13" t="s">
         <v>53</v>
@@ -4387,7 +5558,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5" t="s">
         <v>461</v>
@@ -4407,14 +5578,16 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="22"/>
+      <c r="J24" s="22" t="s">
+        <v>501</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="15"/>
       <c r="M24" s="12"/>
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13" t="s">
@@ -4437,7 +5610,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13" t="s">
@@ -4458,7 +5631,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5" t="s">
         <v>469</v>
@@ -4485,7 +5658,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>477</v>
       </c>
@@ -4512,7 +5685,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13" t="s">
@@ -4535,7 +5708,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5" t="s">
         <v>461</v>
@@ -4555,14 +5728,16 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="22"/>
+      <c r="J30" s="22" t="s">
+        <v>501</v>
+      </c>
       <c r="K30" s="3"/>
       <c r="L30" s="15"/>
       <c r="M30" s="12"/>
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13" t="s">
@@ -4585,7 +5760,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13" t="s">
@@ -4606,7 +5781,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5" t="s">
         <v>469</v>
@@ -4620,7 +5795,7 @@
       <c r="E33" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="29" t="s">
         <v>455</v>
       </c>
       <c r="G33" s="7"/>
@@ -4633,7 +5808,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
         <v>483</v>
       </c>
@@ -4660,7 +5835,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13" t="s">
@@ -4683,7 +5858,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5" t="s">
         <v>461</v>
@@ -4703,14 +5878,16 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="22"/>
+      <c r="J36" s="22" t="s">
+        <v>501</v>
+      </c>
       <c r="K36" s="3"/>
       <c r="L36" s="15"/>
       <c r="M36" s="12"/>
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13" t="s">
@@ -4733,7 +5910,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13" t="s">
@@ -4756,7 +5933,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13" t="s">
@@ -4781,7 +5958,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13" t="s">
@@ -4804,7 +5981,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13" t="s">
@@ -4825,7 +6002,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5" t="s">
         <v>469</v>
@@ -4839,7 +6016,7 @@
       <c r="E42" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F42" s="37" t="s">
+      <c r="F42" s="29" t="s">
         <v>455</v>
       </c>
       <c r="G42" s="7"/>
@@ -4852,7 +6029,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13" t="s">
@@ -4875,7 +6052,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
         <v>492</v>
       </c>
@@ -4902,7 +6079,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13" t="s">
@@ -4925,7 +6102,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5" t="s">
         <v>461</v>
@@ -4945,14 +6122,16 @@
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="22"/>
+      <c r="J46" s="22" t="s">
+        <v>501</v>
+      </c>
       <c r="K46" s="3"/>
       <c r="L46" s="15"/>
       <c r="M46" s="12"/>
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13" t="s">
@@ -4975,7 +6154,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13" t="s">
@@ -4996,7 +6175,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5" t="s">
         <v>469</v>
@@ -5023,7 +6202,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27" t="s">
         <v>498</v>
       </c>
@@ -5050,7 +6229,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -5067,7 +6246,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -5084,7 +6263,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -5101,7 +6280,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -5118,7 +6297,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -5135,7 +6314,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -5152,7 +6331,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -5169,7 +6348,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -5186,7 +6365,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5203,7 +6382,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5220,7 +6399,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5237,7 +6416,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5254,7 +6433,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5271,7 +6450,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5288,7 +6467,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5305,7 +6484,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -5322,7 +6501,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -5339,7 +6518,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -5356,7 +6535,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -5373,7 +6552,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -5390,7 +6569,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -5407,7 +6586,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -5424,7 +6603,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5441,7 +6620,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5458,7 +6637,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5475,7 +6654,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -5492,7 +6671,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -5509,7 +6688,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -5526,7 +6705,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -5543,7 +6722,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -5560,7 +6739,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -5577,7 +6756,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -5594,7 +6773,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -5611,7 +6790,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -5628,7 +6807,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -5645,7 +6824,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -5662,7 +6841,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -5679,7 +6858,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -5696,7 +6875,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -5713,7 +6892,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -5730,7 +6909,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -5747,7 +6926,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -5764,7 +6943,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -5781,7 +6960,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -5798,7 +6977,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -5815,7 +6994,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -5832,7 +7011,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -5849,7 +7028,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -5866,7 +7045,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -5883,7 +7062,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -5900,7 +7079,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -5917,7 +7096,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -5934,7 +7113,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -5951,7 +7130,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -5968,7 +7147,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -5985,7 +7164,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -6002,7 +7181,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -6019,7 +7198,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -6036,7 +7215,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -6053,7 +7232,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -6070,7 +7249,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -6087,7 +7266,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -6104,7 +7283,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -6121,7 +7300,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -6138,7 +7317,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -6155,7 +7334,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -6172,7 +7351,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -6189,7 +7368,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -6206,7 +7385,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -6223,7 +7402,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -6240,7 +7419,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -6257,7 +7436,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -6274,7 +7453,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -6291,7 +7470,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -6308,7 +7487,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -6325,7 +7504,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -6342,7 +7521,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -6359,7 +7538,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -6376,7 +7555,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -6393,7 +7572,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -6410,7 +7589,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -6427,7 +7606,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -6444,7 +7623,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -6461,7 +7640,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -6478,7 +7657,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -6495,7 +7674,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -6512,7 +7691,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -6529,7 +7708,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -6546,7 +7725,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -6563,7 +7742,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -6580,7 +7759,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -6597,7 +7776,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -6614,7 +7793,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -6631,7 +7810,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -6648,7 +7827,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -6665,7 +7844,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -6682,7 +7861,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -6699,7 +7878,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -6716,7 +7895,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -6733,7 +7912,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -6750,7 +7929,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -6767,7 +7946,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -6784,7 +7963,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -6801,7 +7980,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -6818,7 +7997,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -6835,7 +8014,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -6852,7 +8031,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -6869,7 +8048,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -6886,7 +8065,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -6903,7 +8082,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -6920,7 +8099,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -6937,7 +8116,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -6954,7 +8133,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -6971,7 +8150,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -6988,7 +8167,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -7005,7 +8184,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -7022,7 +8201,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -7039,7 +8218,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -7056,7 +8235,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -7073,7 +8252,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -7090,7 +8269,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -7107,7 +8286,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -7124,7 +8303,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -7141,7 +8320,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -7158,7 +8337,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -7175,7 +8354,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -7192,7 +8371,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -7209,7 +8388,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -7226,7 +8405,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -7243,7 +8422,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -7260,7 +8439,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -7277,7 +8456,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -7294,7 +8473,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -7311,7 +8490,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -7328,7 +8507,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -7345,7 +8524,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -7362,7 +8541,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -7379,7 +8558,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -7396,7 +8575,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -7413,7 +8592,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -7430,7 +8609,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -7447,7 +8626,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -7464,7 +8643,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -7481,7 +8660,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -7498,7 +8677,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -7515,7 +8694,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -7532,7 +8711,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -7549,7 +8728,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -7566,7 +8745,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -7583,7 +8762,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -7600,7 +8779,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -7617,7 +8796,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -7634,7 +8813,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -7651,7 +8830,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -7668,7 +8847,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -7685,7 +8864,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -7702,7 +8881,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -7719,7 +8898,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -7736,7 +8915,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -7753,7 +8932,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -7770,7 +8949,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -7787,7 +8966,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -7804,7 +8983,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -7821,7 +9000,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -7838,7 +9017,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -7855,7 +9034,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -7872,7 +9051,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -7889,7 +9068,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -7906,7 +9085,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -7923,7 +9102,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -7940,7 +9119,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -7957,7 +9136,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -7974,7 +9153,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -7991,7 +9170,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -8008,7 +9187,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -8025,7 +9204,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -8042,7 +9221,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -8059,7 +9238,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -8076,7 +9255,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -8093,7 +9272,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -8110,7 +9289,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -8127,7 +9306,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -8144,7 +9323,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -8161,7 +9340,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -8178,7 +9357,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -8195,7 +9374,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -8212,7 +9391,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -8229,7 +9408,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -8246,7 +9425,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -8263,7 +9442,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -8280,7 +9459,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -8297,7 +9476,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -8314,7 +9493,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -8331,7 +9510,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -8348,7 +9527,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -8365,7 +9544,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -8382,7 +9561,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -8399,7 +9578,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -8416,7 +9595,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -8433,7 +9612,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -8450,7 +9629,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -8467,7 +9646,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -8484,7 +9663,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -8501,7 +9680,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -8518,7 +9697,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -8535,7 +9714,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -8552,7 +9731,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -8569,7 +9748,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -8586,7 +9765,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -8603,7 +9782,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -8620,7 +9799,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -8637,7 +9816,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -8654,7 +9833,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -8671,7 +9850,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -8688,7 +9867,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -8705,7 +9884,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -8722,7 +9901,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -8739,7 +9918,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -8756,7 +9935,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -8773,7 +9952,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -8790,7 +9969,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -8807,7 +9986,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -8824,7 +10003,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -8841,7 +10020,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -8858,7 +10037,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -8875,7 +10054,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -8892,7 +10071,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -8909,7 +10088,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -8926,7 +10105,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -8943,7 +10122,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -8960,7 +10139,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -8977,7 +10156,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -8994,7 +10173,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -9011,7 +10190,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -9028,7 +10207,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -9045,7 +10224,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -9062,7 +10241,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -9079,7 +10258,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -9096,7 +10275,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -9113,7 +10292,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -9130,7 +10309,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -9147,7 +10326,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -9164,7 +10343,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -9181,7 +10360,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -9198,7 +10377,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -9215,7 +10394,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -9232,7 +10411,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -9249,7 +10428,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -9266,7 +10445,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -9283,7 +10462,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -9300,7 +10479,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -9317,7 +10496,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -9334,7 +10513,7 @@
       <c r="N302" s="15"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="27"/>
       <c r="B303" s="5"/>
       <c r="C303" s="13"/>
@@ -9351,7 +10530,7 @@
       <c r="N303" s="15"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="27"/>
       <c r="B304" s="5"/>
       <c r="C304" s="13"/>
@@ -9368,7 +10547,7 @@
       <c r="N304" s="15"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="27"/>
       <c r="B305" s="5"/>
       <c r="C305" s="13"/>
@@ -9385,7 +10564,7 @@
       <c r="N305" s="15"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="27"/>
       <c r="B306" s="5"/>
       <c r="C306" s="13"/>
@@ -9402,7 +10581,7 @@
       <c r="N306" s="15"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="27"/>
       <c r="B307" s="5"/>
       <c r="C307" s="13"/>
@@ -9419,7 +10598,7 @@
       <c r="N307" s="15"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="27"/>
       <c r="B308" s="5"/>
       <c r="C308" s="13"/>
@@ -9436,7 +10615,7 @@
       <c r="N308" s="15"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="27"/>
       <c r="B309" s="5"/>
       <c r="C309" s="13"/>
@@ -9453,7 +10632,7 @@
       <c r="N309" s="15"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="27"/>
       <c r="B310" s="5"/>
       <c r="C310" s="13"/>
@@ -9470,7 +10649,7 @@
       <c r="N310" s="15"/>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="27"/>
       <c r="B311" s="5"/>
       <c r="C311" s="13"/>
@@ -9487,7 +10666,7 @@
       <c r="N311" s="15"/>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="27"/>
       <c r="B312" s="5"/>
       <c r="C312" s="13"/>
@@ -9504,7 +10683,7 @@
       <c r="N312" s="15"/>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="27"/>
       <c r="B313" s="5"/>
       <c r="C313" s="13"/>
@@ -9521,7 +10700,7 @@
       <c r="N313" s="15"/>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="27"/>
       <c r="B314" s="5"/>
       <c r="C314" s="13"/>
@@ -9538,7 +10717,7 @@
       <c r="N314" s="15"/>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="27"/>
       <c r="B315" s="5"/>
       <c r="C315" s="13"/>
@@ -9555,7 +10734,7 @@
       <c r="N315" s="15"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="27"/>
       <c r="B316" s="5"/>
       <c r="C316" s="13"/>
@@ -9572,7 +10751,7 @@
       <c r="N316" s="15"/>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="27"/>
       <c r="B317" s="5"/>
       <c r="C317" s="13"/>
@@ -9589,7 +10768,7 @@
       <c r="N317" s="15"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="27"/>
       <c r="B318" s="5"/>
       <c r="C318" s="13"/>
@@ -9606,7 +10785,7 @@
       <c r="N318" s="15"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="27"/>
       <c r="B319" s="5"/>
       <c r="C319" s="13"/>
@@ -9623,7 +10802,7 @@
       <c r="N319" s="15"/>
       <c r="O319" s="3"/>
     </row>
-    <row r="320" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="27"/>
       <c r="B320" s="5"/>
       <c r="C320" s="13"/>
@@ -9640,7 +10819,7 @@
       <c r="N320" s="15"/>
       <c r="O320" s="3"/>
     </row>
-    <row r="321" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="27"/>
       <c r="B321" s="5"/>
       <c r="C321" s="13"/>
@@ -9657,7 +10836,7 @@
       <c r="N321" s="15"/>
       <c r="O321" s="3"/>
     </row>
-    <row r="322" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="27"/>
       <c r="B322" s="5"/>
       <c r="C322" s="13"/>
@@ -9674,7 +10853,7 @@
       <c r="N322" s="15"/>
       <c r="O322" s="3"/>
     </row>
-    <row r="323" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="27"/>
       <c r="B323" s="5"/>
       <c r="C323" s="13"/>
@@ -9691,7 +10870,7 @@
       <c r="N323" s="15"/>
       <c r="O323" s="3"/>
     </row>
-    <row r="324" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="27"/>
       <c r="B324" s="5"/>
       <c r="C324" s="13"/>
@@ -9708,7 +10887,7 @@
       <c r="N324" s="15"/>
       <c r="O324" s="3"/>
     </row>
-    <row r="325" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="27"/>
       <c r="B325" s="5"/>
       <c r="C325" s="13"/>
@@ -9725,7 +10904,7 @@
       <c r="N325" s="15"/>
       <c r="O325" s="3"/>
     </row>
-    <row r="326" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="27"/>
       <c r="B326" s="5"/>
       <c r="C326" s="13"/>
@@ -9742,7 +10921,7 @@
       <c r="N326" s="15"/>
       <c r="O326" s="3"/>
     </row>
-    <row r="327" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="27"/>
       <c r="B327" s="5"/>
       <c r="C327" s="13"/>
@@ -9759,7 +10938,7 @@
       <c r="N327" s="15"/>
       <c r="O327" s="3"/>
     </row>
-    <row r="328" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="27"/>
       <c r="B328" s="5"/>
       <c r="C328" s="13"/>
@@ -9776,7 +10955,7 @@
       <c r="N328" s="15"/>
       <c r="O328" s="3"/>
     </row>
-    <row r="329" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="27"/>
       <c r="B329" s="5"/>
       <c r="C329" s="13"/>
@@ -9793,7 +10972,7 @@
       <c r="N329" s="15"/>
       <c r="O329" s="3"/>
     </row>
-    <row r="330" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="27"/>
       <c r="B330" s="5"/>
       <c r="C330" s="13"/>
@@ -9810,7 +10989,7 @@
       <c r="N330" s="15"/>
       <c r="O330" s="3"/>
     </row>
-    <row r="331" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="27"/>
       <c r="B331" s="5"/>
       <c r="C331" s="13"/>
@@ -9827,7 +11006,7 @@
       <c r="N331" s="15"/>
       <c r="O331" s="3"/>
     </row>
-    <row r="332" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="27"/>
       <c r="B332" s="5"/>
       <c r="C332" s="13"/>
@@ -9844,7 +11023,7 @@
       <c r="N332" s="15"/>
       <c r="O332" s="3"/>
     </row>
-    <row r="333" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="27"/>
       <c r="B333" s="5"/>
       <c r="C333" s="13"/>
@@ -9861,7 +11040,7 @@
       <c r="N333" s="15"/>
       <c r="O333" s="3"/>
     </row>
-    <row r="334" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="27"/>
       <c r="B334" s="5"/>
       <c r="C334" s="13"/>
@@ -9878,7 +11057,7 @@
       <c r="N334" s="15"/>
       <c r="O334" s="3"/>
     </row>
-    <row r="335" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="27"/>
       <c r="B335" s="5"/>
       <c r="C335" s="13"/>
@@ -9895,7 +11074,7 @@
       <c r="N335" s="15"/>
       <c r="O335" s="3"/>
     </row>
-    <row r="336" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="27"/>
       <c r="B336" s="5"/>
       <c r="C336" s="13"/>
@@ -9912,7 +11091,7 @@
       <c r="N336" s="15"/>
       <c r="O336" s="3"/>
     </row>
-    <row r="337" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="27"/>
       <c r="B337" s="5"/>
       <c r="C337" s="13"/>
@@ -9929,7 +11108,7 @@
       <c r="N337" s="15"/>
       <c r="O337" s="3"/>
     </row>
-    <row r="338" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="27"/>
       <c r="B338" s="5"/>
       <c r="C338" s="13"/>
@@ -9946,7 +11125,7 @@
       <c r="N338" s="15"/>
       <c r="O338" s="3"/>
     </row>
-    <row r="339" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="27"/>
       <c r="B339" s="5"/>
       <c r="C339" s="13"/>
@@ -9963,7 +11142,7 @@
       <c r="N339" s="15"/>
       <c r="O339" s="3"/>
     </row>
-    <row r="340" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="27"/>
       <c r="B340" s="5"/>
       <c r="C340" s="13"/>
@@ -9980,7 +11159,7 @@
       <c r="N340" s="15"/>
       <c r="O340" s="3"/>
     </row>
-    <row r="341" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="27"/>
       <c r="B341" s="5"/>
       <c r="C341" s="13"/>
@@ -9997,7 +11176,7 @@
       <c r="N341" s="15"/>
       <c r="O341" s="3"/>
     </row>
-    <row r="342" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="27"/>
       <c r="B342" s="5"/>
       <c r="C342" s="13"/>
@@ -10014,7 +11193,7 @@
       <c r="N342" s="15"/>
       <c r="O342" s="3"/>
     </row>
-    <row r="343" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="27"/>
       <c r="B343" s="5"/>
       <c r="C343" s="13"/>
@@ -10031,7 +11210,7 @@
       <c r="N343" s="15"/>
       <c r="O343" s="3"/>
     </row>
-    <row r="344" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="27"/>
       <c r="B344" s="5"/>
       <c r="C344" s="13"/>
@@ -10048,7 +11227,7 @@
       <c r="N344" s="15"/>
       <c r="O344" s="3"/>
     </row>
-    <row r="345" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="27"/>
       <c r="B345" s="5"/>
       <c r="C345" s="13"/>
@@ -10065,7 +11244,7 @@
       <c r="N345" s="15"/>
       <c r="O345" s="3"/>
     </row>
-    <row r="346" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="27"/>
       <c r="B346" s="5"/>
       <c r="C346" s="13"/>
@@ -10082,7 +11261,7 @@
       <c r="N346" s="15"/>
       <c r="O346" s="3"/>
     </row>
-    <row r="347" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="27"/>
       <c r="B347" s="5"/>
       <c r="C347" s="13"/>
@@ -10099,7 +11278,7 @@
       <c r="N347" s="15"/>
       <c r="O347" s="3"/>
     </row>
-    <row r="348" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="27"/>
       <c r="B348" s="5"/>
       <c r="C348" s="13"/>
@@ -10116,7 +11295,7 @@
       <c r="N348" s="15"/>
       <c r="O348" s="3"/>
     </row>
-    <row r="349" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="27"/>
       <c r="B349" s="5"/>
       <c r="C349" s="13"/>
@@ -10133,7 +11312,7 @@
       <c r="N349" s="15"/>
       <c r="O349" s="3"/>
     </row>
-    <row r="350" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="27"/>
       <c r="B350" s="5"/>
       <c r="C350" s="13"/>
@@ -10150,7 +11329,7 @@
       <c r="N350" s="15"/>
       <c r="O350" s="3"/>
     </row>
-    <row r="351" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="27"/>
       <c r="B351" s="5"/>
       <c r="C351" s="13"/>
@@ -10167,7 +11346,7 @@
       <c r="N351" s="15"/>
       <c r="O351" s="3"/>
     </row>
-    <row r="352" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="27"/>
       <c r="B352" s="5"/>
       <c r="C352" s="13"/>
@@ -10184,7 +11363,7 @@
       <c r="N352" s="15"/>
       <c r="O352" s="3"/>
     </row>
-    <row r="353" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="27"/>
       <c r="B353" s="5"/>
       <c r="C353" s="13"/>
@@ -10201,7 +11380,7 @@
       <c r="N353" s="15"/>
       <c r="O353" s="3"/>
     </row>
-    <row r="354" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="27"/>
       <c r="B354" s="5"/>
       <c r="C354" s="13"/>
@@ -10218,7 +11397,7 @@
       <c r="N354" s="15"/>
       <c r="O354" s="3"/>
     </row>
-    <row r="355" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="27"/>
       <c r="B355" s="5"/>
       <c r="C355" s="13"/>
@@ -10235,7 +11414,7 @@
       <c r="N355" s="15"/>
       <c r="O355" s="3"/>
     </row>
-    <row r="356" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="27"/>
       <c r="B356" s="5"/>
       <c r="C356" s="13"/>
@@ -10252,7 +11431,7 @@
       <c r="N356" s="15"/>
       <c r="O356" s="3"/>
     </row>
-    <row r="357" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="27"/>
       <c r="B357" s="5"/>
       <c r="C357" s="13"/>
@@ -10269,7 +11448,7 @@
       <c r="N357" s="15"/>
       <c r="O357" s="3"/>
     </row>
-    <row r="358" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="27"/>
       <c r="B358" s="5"/>
       <c r="C358" s="13"/>
@@ -10286,7 +11465,7 @@
       <c r="N358" s="15"/>
       <c r="O358" s="3"/>
     </row>
-    <row r="359" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="27"/>
       <c r="B359" s="5"/>
       <c r="C359" s="13"/>
@@ -10303,7 +11482,7 @@
       <c r="N359" s="15"/>
       <c r="O359" s="3"/>
     </row>
-    <row r="360" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="27"/>
       <c r="B360" s="5"/>
       <c r="C360" s="13"/>
@@ -10320,7 +11499,7 @@
       <c r="N360" s="15"/>
       <c r="O360" s="3"/>
     </row>
-    <row r="361" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="27"/>
       <c r="B361" s="5"/>
       <c r="C361" s="13"/>
@@ -10337,7 +11516,7 @@
       <c r="N361" s="15"/>
       <c r="O361" s="3"/>
     </row>
-    <row r="362" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="27"/>
       <c r="B362" s="5"/>
       <c r="C362" s="13"/>
@@ -10354,7 +11533,7 @@
       <c r="N362" s="15"/>
       <c r="O362" s="3"/>
     </row>
-    <row r="363" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="27"/>
       <c r="B363" s="5"/>
       <c r="C363" s="13"/>
@@ -10371,7 +11550,7 @@
       <c r="N363" s="15"/>
       <c r="O363" s="3"/>
     </row>
-    <row r="364" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="27"/>
       <c r="B364" s="5"/>
       <c r="C364" s="13"/>
@@ -10388,7 +11567,7 @@
       <c r="N364" s="15"/>
       <c r="O364" s="3"/>
     </row>
-    <row r="365" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="27"/>
       <c r="B365" s="5"/>
       <c r="C365" s="13"/>
@@ -10405,7 +11584,7 @@
       <c r="N365" s="15"/>
       <c r="O365" s="3"/>
     </row>
-    <row r="366" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="27"/>
       <c r="B366" s="5"/>
       <c r="C366" s="13"/>
@@ -10422,7 +11601,7 @@
       <c r="N366" s="15"/>
       <c r="O366" s="3"/>
     </row>
-    <row r="367" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="27"/>
       <c r="B367" s="5"/>
       <c r="C367" s="13"/>
@@ -10439,7 +11618,7 @@
       <c r="N367" s="15"/>
       <c r="O367" s="3"/>
     </row>
-    <row r="368" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="27"/>
       <c r="B368" s="5"/>
       <c r="C368" s="13"/>
@@ -10456,7 +11635,7 @@
       <c r="N368" s="15"/>
       <c r="O368" s="3"/>
     </row>
-    <row r="369" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="27"/>
       <c r="B369" s="5"/>
       <c r="C369" s="13"/>
@@ -10473,7 +11652,7 @@
       <c r="N369" s="15"/>
       <c r="O369" s="3"/>
     </row>
-    <row r="370" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="27"/>
       <c r="B370" s="5"/>
       <c r="C370" s="13"/>
@@ -10490,7 +11669,7 @@
       <c r="N370" s="15"/>
       <c r="O370" s="3"/>
     </row>
-    <row r="371" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="27"/>
       <c r="B371" s="5"/>
       <c r="C371" s="13"/>
@@ -10507,7 +11686,7 @@
       <c r="N371" s="15"/>
       <c r="O371" s="3"/>
     </row>
-    <row r="372" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="27"/>
       <c r="B372" s="5"/>
       <c r="C372" s="13"/>
@@ -10524,7 +11703,7 @@
       <c r="N372" s="15"/>
       <c r="O372" s="3"/>
     </row>
-    <row r="373" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="27"/>
       <c r="B373" s="5"/>
       <c r="C373" s="13"/>
@@ -10541,7 +11720,7 @@
       <c r="N373" s="15"/>
       <c r="O373" s="3"/>
     </row>
-    <row r="374" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="27"/>
       <c r="B374" s="5"/>
       <c r="C374" s="13"/>
@@ -10558,7 +11737,7 @@
       <c r="N374" s="15"/>
       <c r="O374" s="3"/>
     </row>
-    <row r="375" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="27"/>
       <c r="B375" s="5"/>
       <c r="C375" s="13"/>
@@ -10575,7 +11754,7 @@
       <c r="N375" s="15"/>
       <c r="O375" s="3"/>
     </row>
-    <row r="376" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="27"/>
       <c r="B376" s="5"/>
       <c r="C376" s="13"/>
@@ -10592,7 +11771,7 @@
       <c r="N376" s="15"/>
       <c r="O376" s="3"/>
     </row>
-    <row r="377" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="27"/>
       <c r="B377" s="5"/>
       <c r="C377" s="13"/>
@@ -10609,7 +11788,7 @@
       <c r="N377" s="15"/>
       <c r="O377" s="3"/>
     </row>
-    <row r="378" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="27"/>
       <c r="B378" s="5"/>
       <c r="C378" s="13"/>
@@ -10626,7 +11805,7 @@
       <c r="N378" s="15"/>
       <c r="O378" s="3"/>
     </row>
-    <row r="379" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="27"/>
       <c r="B379" s="5"/>
       <c r="C379" s="13"/>
@@ -10643,7 +11822,7 @@
       <c r="N379" s="15"/>
       <c r="O379" s="3"/>
     </row>
-    <row r="380" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="27"/>
       <c r="B380" s="5"/>
       <c r="C380" s="13"/>
@@ -10660,7 +11839,7 @@
       <c r="N380" s="15"/>
       <c r="O380" s="3"/>
     </row>
-    <row r="381" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="27"/>
       <c r="B381" s="5"/>
       <c r="C381" s="13"/>
@@ -10677,7 +11856,7 @@
       <c r="N381" s="15"/>
       <c r="O381" s="3"/>
     </row>
-    <row r="382" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="27"/>
       <c r="B382" s="5"/>
       <c r="C382" s="13"/>
@@ -10694,7 +11873,7 @@
       <c r="N382" s="15"/>
       <c r="O382" s="3"/>
     </row>
-    <row r="383" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="27"/>
       <c r="B383" s="5"/>
       <c r="C383" s="13"/>
@@ -10711,7 +11890,7 @@
       <c r="N383" s="15"/>
       <c r="O383" s="3"/>
     </row>
-    <row r="384" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="27"/>
       <c r="B384" s="5"/>
       <c r="C384" s="13"/>
@@ -10728,7 +11907,7 @@
       <c r="N384" s="15"/>
       <c r="O384" s="3"/>
     </row>
-    <row r="385" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="27"/>
       <c r="B385" s="5"/>
       <c r="C385" s="13"/>
@@ -10745,7 +11924,7 @@
       <c r="N385" s="15"/>
       <c r="O385" s="3"/>
     </row>
-    <row r="386" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="27"/>
       <c r="B386" s="5"/>
       <c r="C386" s="13"/>
@@ -10762,7 +11941,7 @@
       <c r="N386" s="15"/>
       <c r="O386" s="3"/>
     </row>
-    <row r="387" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="27"/>
       <c r="B387" s="5"/>
       <c r="C387" s="13"/>
@@ -10779,7 +11958,7 @@
       <c r="N387" s="15"/>
       <c r="O387" s="3"/>
     </row>
-    <row r="388" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="27"/>
       <c r="B388" s="5"/>
       <c r="C388" s="13"/>
@@ -10796,7 +11975,7 @@
       <c r="N388" s="15"/>
       <c r="O388" s="3"/>
     </row>
-    <row r="389" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="27"/>
       <c r="B389" s="5"/>
       <c r="C389" s="13"/>
@@ -10813,7 +11992,7 @@
       <c r="N389" s="15"/>
       <c r="O389" s="3"/>
     </row>
-    <row r="390" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="27"/>
       <c r="B390" s="5"/>
       <c r="C390" s="13"/>
@@ -10830,7 +12009,7 @@
       <c r="N390" s="15"/>
       <c r="O390" s="3"/>
     </row>
-    <row r="391" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="27"/>
       <c r="B391" s="5"/>
       <c r="C391" s="13"/>
@@ -10847,7 +12026,7 @@
       <c r="N391" s="15"/>
       <c r="O391" s="3"/>
     </row>
-    <row r="392" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="27"/>
       <c r="B392" s="5"/>
       <c r="C392" s="13"/>
@@ -10864,7 +12043,7 @@
       <c r="N392" s="15"/>
       <c r="O392" s="3"/>
     </row>
-    <row r="393" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="27"/>
       <c r="B393" s="5"/>
       <c r="C393" s="13"/>
@@ -10881,7 +12060,7 @@
       <c r="N393" s="15"/>
       <c r="O393" s="3"/>
     </row>
-    <row r="394" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="27"/>
       <c r="B394" s="5"/>
       <c r="C394" s="13"/>
@@ -10898,7 +12077,7 @@
       <c r="N394" s="15"/>
       <c r="O394" s="3"/>
     </row>
-    <row r="395" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="27"/>
       <c r="B395" s="5"/>
       <c r="C395" s="13"/>
@@ -10915,7 +12094,7 @@
       <c r="N395" s="15"/>
       <c r="O395" s="3"/>
     </row>
-    <row r="396" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="27"/>
       <c r="B396" s="5"/>
       <c r="C396" s="13"/>
@@ -10932,7 +12111,7 @@
       <c r="N396" s="15"/>
       <c r="O396" s="3"/>
     </row>
-    <row r="397" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="27"/>
       <c r="B397" s="5"/>
       <c r="C397" s="13"/>
@@ -10949,7 +12128,7 @@
       <c r="N397" s="15"/>
       <c r="O397" s="3"/>
     </row>
-    <row r="398" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="27"/>
       <c r="B398" s="5"/>
       <c r="C398" s="13"/>
@@ -10966,7 +12145,7 @@
       <c r="N398" s="15"/>
       <c r="O398" s="3"/>
     </row>
-    <row r="399" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="27"/>
       <c r="B399" s="5"/>
       <c r="C399" s="13"/>
@@ -10983,7 +12162,7 @@
       <c r="N399" s="15"/>
       <c r="O399" s="3"/>
     </row>
-    <row r="400" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="27"/>
       <c r="B400" s="5"/>
       <c r="C400" s="13"/>
@@ -11000,7 +12179,7 @@
       <c r="N400" s="15"/>
       <c r="O400" s="3"/>
     </row>
-    <row r="401" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="27"/>
       <c r="B401" s="5"/>
       <c r="C401" s="13"/>
@@ -11017,7 +12196,7 @@
       <c r="N401" s="15"/>
       <c r="O401" s="3"/>
     </row>
-    <row r="402" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="27"/>
       <c r="B402" s="5"/>
       <c r="C402" s="13"/>
@@ -11034,7 +12213,7 @@
       <c r="N402" s="15"/>
       <c r="O402" s="3"/>
     </row>
-    <row r="403" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="27"/>
       <c r="B403" s="5"/>
       <c r="C403" s="13"/>
@@ -11051,7 +12230,7 @@
       <c r="N403" s="15"/>
       <c r="O403" s="3"/>
     </row>
-    <row r="404" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="27"/>
       <c r="B404" s="5"/>
       <c r="C404" s="13"/>
@@ -11068,7 +12247,7 @@
       <c r="N404" s="15"/>
       <c r="O404" s="3"/>
     </row>
-    <row r="405" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="27"/>
       <c r="B405" s="5"/>
       <c r="C405" s="13"/>
@@ -11085,7 +12264,7 @@
       <c r="N405" s="15"/>
       <c r="O405" s="3"/>
     </row>
-    <row r="406" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="27"/>
       <c r="B406" s="5"/>
       <c r="C406" s="13"/>
@@ -11102,7 +12281,7 @@
       <c r="N406" s="15"/>
       <c r="O406" s="3"/>
     </row>
-    <row r="407" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="27"/>
       <c r="B407" s="5"/>
       <c r="C407" s="13"/>
@@ -11119,7 +12298,7 @@
       <c r="N407" s="15"/>
       <c r="O407" s="3"/>
     </row>
-    <row r="408" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="27"/>
       <c r="B408" s="5"/>
       <c r="C408" s="13"/>
@@ -11136,7 +12315,7 @@
       <c r="N408" s="15"/>
       <c r="O408" s="3"/>
     </row>
-    <row r="409" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="27"/>
       <c r="B409" s="5"/>
       <c r="C409" s="13"/>
@@ -11153,7 +12332,7 @@
       <c r="N409" s="15"/>
       <c r="O409" s="3"/>
     </row>
-    <row r="410" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="27"/>
       <c r="B410" s="5"/>
       <c r="C410" s="13"/>
@@ -11170,7 +12349,7 @@
       <c r="N410" s="15"/>
       <c r="O410" s="3"/>
     </row>
-    <row r="411" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="27"/>
       <c r="B411" s="5"/>
       <c r="C411" s="13"/>
@@ -11187,7 +12366,7 @@
       <c r="N411" s="15"/>
       <c r="O411" s="3"/>
     </row>
-    <row r="412" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="27"/>
       <c r="B412" s="5"/>
       <c r="C412" s="13"/>
@@ -11204,7 +12383,7 @@
       <c r="N412" s="15"/>
       <c r="O412" s="3"/>
     </row>
-    <row r="413" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="27"/>
       <c r="B413" s="5"/>
       <c r="C413" s="13"/>
@@ -11221,7 +12400,7 @@
       <c r="N413" s="15"/>
       <c r="O413" s="3"/>
     </row>
-    <row r="414" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="27"/>
       <c r="B414" s="5"/>
       <c r="C414" s="13"/>
@@ -11238,7 +12417,7 @@
       <c r="N414" s="15"/>
       <c r="O414" s="3"/>
     </row>
-    <row r="415" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="27"/>
       <c r="B415" s="5"/>
       <c r="C415" s="13"/>
@@ -11255,7 +12434,7 @@
       <c r="N415" s="15"/>
       <c r="O415" s="3"/>
     </row>
-    <row r="416" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="27"/>
       <c r="B416" s="5"/>
       <c r="C416" s="13"/>
@@ -11272,7 +12451,7 @@
       <c r="N416" s="15"/>
       <c r="O416" s="3"/>
     </row>
-    <row r="417" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="27"/>
       <c r="B417" s="5"/>
       <c r="C417" s="13"/>
@@ -11289,7 +12468,7 @@
       <c r="N417" s="15"/>
       <c r="O417" s="3"/>
     </row>
-    <row r="418" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="27"/>
       <c r="B418" s="5"/>
       <c r="C418" s="13"/>
@@ -11306,7 +12485,7 @@
       <c r="N418" s="15"/>
       <c r="O418" s="3"/>
     </row>
-    <row r="419" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="27"/>
       <c r="B419" s="5"/>
       <c r="C419" s="13"/>
@@ -11323,7 +12502,7 @@
       <c r="N419" s="15"/>
       <c r="O419" s="3"/>
     </row>
-    <row r="420" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="27"/>
       <c r="B420" s="5"/>
       <c r="C420" s="13"/>
@@ -11340,7 +12519,7 @@
       <c r="N420" s="15"/>
       <c r="O420" s="3"/>
     </row>
-    <row r="421" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="27"/>
       <c r="B421" s="5"/>
       <c r="C421" s="13"/>
@@ -11357,7 +12536,7 @@
       <c r="N421" s="15"/>
       <c r="O421" s="3"/>
     </row>
-    <row r="422" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="27"/>
       <c r="B422" s="5"/>
       <c r="C422" s="13"/>
@@ -11374,7 +12553,7 @@
       <c r="N422" s="15"/>
       <c r="O422" s="3"/>
     </row>
-    <row r="423" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="27"/>
       <c r="B423" s="5"/>
       <c r="C423" s="13"/>
@@ -11391,7 +12570,7 @@
       <c r="N423" s="15"/>
       <c r="O423" s="3"/>
     </row>
-    <row r="424" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="27"/>
       <c r="B424" s="5"/>
       <c r="C424" s="13"/>
@@ -11408,7 +12587,7 @@
       <c r="N424" s="15"/>
       <c r="O424" s="3"/>
     </row>
-    <row r="425" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="27"/>
       <c r="B425" s="5"/>
       <c r="C425" s="13"/>
@@ -11425,7 +12604,7 @@
       <c r="N425" s="15"/>
       <c r="O425" s="3"/>
     </row>
-    <row r="426" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="27"/>
       <c r="B426" s="5"/>
       <c r="C426" s="13"/>
@@ -11442,7 +12621,7 @@
       <c r="N426" s="15"/>
       <c r="O426" s="3"/>
     </row>
-    <row r="427" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="27"/>
       <c r="B427" s="5"/>
       <c r="C427" s="13"/>
@@ -11459,7 +12638,7 @@
       <c r="N427" s="15"/>
       <c r="O427" s="3"/>
     </row>
-    <row r="428" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="27"/>
       <c r="B428" s="5"/>
       <c r="C428" s="13"/>
@@ -11476,7 +12655,7 @@
       <c r="N428" s="15"/>
       <c r="O428" s="3"/>
     </row>
-    <row r="429" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="27"/>
       <c r="B429" s="5"/>
       <c r="C429" s="13"/>
@@ -11493,7 +12672,7 @@
       <c r="N429" s="15"/>
       <c r="O429" s="3"/>
     </row>
-    <row r="430" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="27"/>
       <c r="B430" s="5"/>
       <c r="C430" s="13"/>
@@ -11510,7 +12689,7 @@
       <c r="N430" s="15"/>
       <c r="O430" s="3"/>
     </row>
-    <row r="431" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="27"/>
       <c r="B431" s="5"/>
       <c r="C431" s="13"/>
@@ -11527,7 +12706,7 @@
       <c r="N431" s="15"/>
       <c r="O431" s="3"/>
     </row>
-    <row r="432" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="27"/>
       <c r="B432" s="5"/>
       <c r="C432" s="13"/>
@@ -11544,7 +12723,7 @@
       <c r="N432" s="15"/>
       <c r="O432" s="3"/>
     </row>
-    <row r="433" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="27"/>
       <c r="B433" s="5"/>
       <c r="C433" s="13"/>
@@ -11561,7 +12740,7 @@
       <c r="N433" s="15"/>
       <c r="O433" s="3"/>
     </row>
-    <row r="434" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="27"/>
       <c r="B434" s="5"/>
       <c r="C434" s="13"/>
@@ -11578,7 +12757,7 @@
       <c r="N434" s="15"/>
       <c r="O434" s="3"/>
     </row>
-    <row r="435" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="27"/>
       <c r="B435" s="5"/>
       <c r="C435" s="13"/>
@@ -11595,7 +12774,7 @@
       <c r="N435" s="15"/>
       <c r="O435" s="3"/>
     </row>
-    <row r="436" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="27"/>
       <c r="B436" s="5"/>
       <c r="C436" s="13"/>
@@ -11612,7 +12791,7 @@
       <c r="N436" s="15"/>
       <c r="O436" s="3"/>
     </row>
-    <row r="437" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="27"/>
       <c r="B437" s="5"/>
       <c r="C437" s="13"/>
@@ -11629,7 +12808,7 @@
       <c r="N437" s="15"/>
       <c r="O437" s="3"/>
     </row>
-    <row r="438" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="27"/>
       <c r="B438" s="5"/>
       <c r="C438" s="13"/>
@@ -11646,7 +12825,7 @@
       <c r="N438" s="15"/>
       <c r="O438" s="3"/>
     </row>
-    <row r="439" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="27"/>
       <c r="B439" s="5"/>
       <c r="C439" s="13"/>
@@ -11663,7 +12842,7 @@
       <c r="N439" s="15"/>
       <c r="O439" s="3"/>
     </row>
-    <row r="440" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="27"/>
       <c r="B440" s="5"/>
       <c r="C440" s="13"/>
@@ -11680,7 +12859,7 @@
       <c r="N440" s="15"/>
       <c r="O440" s="3"/>
     </row>
-    <row r="441" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="27"/>
       <c r="B441" s="5"/>
       <c r="C441" s="13"/>
@@ -11697,7 +12876,7 @@
       <c r="N441" s="15"/>
       <c r="O441" s="3"/>
     </row>
-    <row r="442" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="27"/>
       <c r="B442" s="5"/>
       <c r="C442" s="13"/>
@@ -11714,7 +12893,7 @@
       <c r="N442" s="15"/>
       <c r="O442" s="3"/>
     </row>
-    <row r="443" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="27"/>
       <c r="B443" s="5"/>
       <c r="C443" s="13"/>
@@ -11731,7 +12910,7 @@
       <c r="N443" s="15"/>
       <c r="O443" s="3"/>
     </row>
-    <row r="444" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="27"/>
       <c r="B444" s="5"/>
       <c r="C444" s="13"/>
@@ -11748,7 +12927,7 @@
       <c r="N444" s="15"/>
       <c r="O444" s="3"/>
     </row>
-    <row r="445" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="27"/>
       <c r="B445" s="5"/>
       <c r="C445" s="13"/>
@@ -11765,7 +12944,7 @@
       <c r="N445" s="15"/>
       <c r="O445" s="3"/>
     </row>
-    <row r="446" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="27"/>
       <c r="B446" s="5"/>
       <c r="C446" s="13"/>
@@ -11782,7 +12961,7 @@
       <c r="N446" s="15"/>
       <c r="O446" s="3"/>
     </row>
-    <row r="447" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="27"/>
       <c r="B447" s="5"/>
       <c r="C447" s="13"/>
@@ -11799,7 +12978,7 @@
       <c r="N447" s="15"/>
       <c r="O447" s="3"/>
     </row>
-    <row r="448" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="27"/>
       <c r="B448" s="5"/>
       <c r="C448" s="13"/>
@@ -11816,7 +12995,7 @@
       <c r="N448" s="15"/>
       <c r="O448" s="3"/>
     </row>
-    <row r="449" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="27"/>
       <c r="B449" s="5"/>
       <c r="C449" s="13"/>
@@ -11833,7 +13012,7 @@
       <c r="N449" s="15"/>
       <c r="O449" s="3"/>
     </row>
-    <row r="450" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="27"/>
       <c r="B450" s="5"/>
       <c r="C450" s="13"/>
@@ -11850,7 +13029,7 @@
       <c r="N450" s="15"/>
       <c r="O450" s="3"/>
     </row>
-    <row r="451" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="27"/>
       <c r="B451" s="5"/>
       <c r="C451" s="13"/>
@@ -11867,7 +13046,7 @@
       <c r="N451" s="15"/>
       <c r="O451" s="3"/>
     </row>
-    <row r="452" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="27"/>
       <c r="B452" s="5"/>
       <c r="C452" s="13"/>
@@ -11884,7 +13063,7 @@
       <c r="N452" s="15"/>
       <c r="O452" s="3"/>
     </row>
-    <row r="453" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="27"/>
       <c r="B453" s="5"/>
       <c r="C453" s="13"/>
@@ -11901,7 +13080,7 @@
       <c r="N453" s="15"/>
       <c r="O453" s="3"/>
     </row>
-    <row r="454" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="27"/>
       <c r="B454" s="5"/>
       <c r="C454" s="13"/>
@@ -11918,7 +13097,7 @@
       <c r="N454" s="15"/>
       <c r="O454" s="3"/>
     </row>
-    <row r="455" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="27"/>
       <c r="B455" s="5"/>
       <c r="C455" s="13"/>
@@ -11935,7 +13114,7 @@
       <c r="N455" s="15"/>
       <c r="O455" s="3"/>
     </row>
-    <row r="456" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="27"/>
       <c r="B456" s="5"/>
       <c r="C456" s="13"/>
@@ -11952,7 +13131,7 @@
       <c r="N456" s="15"/>
       <c r="O456" s="3"/>
     </row>
-    <row r="457" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="27"/>
       <c r="B457" s="5"/>
       <c r="C457" s="13"/>
@@ -11969,7 +13148,7 @@
       <c r="N457" s="15"/>
       <c r="O457" s="3"/>
     </row>
-    <row r="458" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="27"/>
       <c r="B458" s="5"/>
       <c r="C458" s="13"/>
@@ -11986,7 +13165,7 @@
       <c r="N458" s="15"/>
       <c r="O458" s="3"/>
     </row>
-    <row r="459" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="27"/>
       <c r="B459" s="5"/>
       <c r="C459" s="13"/>
@@ -12003,7 +13182,7 @@
       <c r="N459" s="15"/>
       <c r="O459" s="3"/>
     </row>
-    <row r="460" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="27"/>
       <c r="B460" s="5"/>
       <c r="C460" s="13"/>
@@ -12020,7 +13199,7 @@
       <c r="N460" s="15"/>
       <c r="O460" s="3"/>
     </row>
-    <row r="461" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="27"/>
       <c r="B461" s="5"/>
       <c r="C461" s="13"/>
@@ -12037,7 +13216,7 @@
       <c r="N461" s="15"/>
       <c r="O461" s="3"/>
     </row>
-    <row r="462" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="27"/>
       <c r="B462" s="5"/>
       <c r="C462" s="13"/>
@@ -12054,7 +13233,7 @@
       <c r="N462" s="15"/>
       <c r="O462" s="3"/>
     </row>
-    <row r="463" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="27"/>
       <c r="B463" s="5"/>
       <c r="C463" s="13"/>
@@ -12071,7 +13250,7 @@
       <c r="N463" s="15"/>
       <c r="O463" s="3"/>
     </row>
-    <row r="464" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="27"/>
       <c r="B464" s="5"/>
       <c r="C464" s="13"/>
@@ -12088,7 +13267,7 @@
       <c r="N464" s="15"/>
       <c r="O464" s="3"/>
     </row>
-    <row r="465" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="27"/>
       <c r="B465" s="5"/>
       <c r="C465" s="13"/>
@@ -12105,7 +13284,7 @@
       <c r="N465" s="15"/>
       <c r="O465" s="3"/>
     </row>
-    <row r="466" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="27"/>
       <c r="B466" s="5"/>
       <c r="C466" s="13"/>
@@ -12122,7 +13301,7 @@
       <c r="N466" s="15"/>
       <c r="O466" s="3"/>
     </row>
-    <row r="467" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="27"/>
       <c r="B467" s="5"/>
       <c r="C467" s="13"/>
@@ -12139,7 +13318,7 @@
       <c r="N467" s="15"/>
       <c r="O467" s="3"/>
     </row>
-    <row r="468" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="27"/>
       <c r="B468" s="5"/>
       <c r="C468" s="13"/>
@@ -12156,7 +13335,7 @@
       <c r="N468" s="15"/>
       <c r="O468" s="3"/>
     </row>
-    <row r="469" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="27"/>
       <c r="B469" s="5"/>
       <c r="C469" s="13"/>
@@ -12173,7 +13352,7 @@
       <c r="N469" s="15"/>
       <c r="O469" s="3"/>
     </row>
-    <row r="470" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="27"/>
       <c r="B470" s="5"/>
       <c r="C470" s="13"/>
@@ -12190,7 +13369,7 @@
       <c r="N470" s="15"/>
       <c r="O470" s="3"/>
     </row>
-    <row r="471" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="27"/>
       <c r="B471" s="5"/>
       <c r="C471" s="13"/>
@@ -12207,7 +13386,7 @@
       <c r="N471" s="15"/>
       <c r="O471" s="3"/>
     </row>
-    <row r="472" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="27"/>
       <c r="B472" s="5"/>
       <c r="C472" s="13"/>
@@ -12224,7 +13403,7 @@
       <c r="N472" s="15"/>
       <c r="O472" s="3"/>
     </row>
-    <row r="473" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="27"/>
       <c r="B473" s="5"/>
       <c r="C473" s="13"/>
@@ -12241,7 +13420,7 @@
       <c r="N473" s="15"/>
       <c r="O473" s="3"/>
     </row>
-    <row r="474" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="27"/>
       <c r="B474" s="5"/>
       <c r="C474" s="13"/>
@@ -12258,7 +13437,7 @@
       <c r="N474" s="15"/>
       <c r="O474" s="3"/>
     </row>
-    <row r="475" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="27"/>
       <c r="B475" s="5"/>
       <c r="C475" s="13"/>
@@ -12275,7 +13454,7 @@
       <c r="N475" s="15"/>
       <c r="O475" s="3"/>
     </row>
-    <row r="476" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="27"/>
       <c r="B476" s="5"/>
       <c r="C476" s="13"/>
@@ -12292,7 +13471,7 @@
       <c r="N476" s="15"/>
       <c r="O476" s="3"/>
     </row>
-    <row r="477" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="27"/>
       <c r="B477" s="5"/>
       <c r="C477" s="13"/>
@@ -12309,7 +13488,7 @@
       <c r="N477" s="15"/>
       <c r="O477" s="3"/>
     </row>
-    <row r="478" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="27"/>
       <c r="B478" s="5"/>
       <c r="C478" s="13"/>
@@ -12326,7 +13505,7 @@
       <c r="N478" s="15"/>
       <c r="O478" s="3"/>
     </row>
-    <row r="479" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="27"/>
       <c r="B479" s="5"/>
       <c r="C479" s="13"/>
@@ -12343,7 +13522,7 @@
       <c r="N479" s="15"/>
       <c r="O479" s="3"/>
     </row>
-    <row r="480" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="27"/>
       <c r="B480" s="5"/>
       <c r="C480" s="13"/>
@@ -12360,7 +13539,7 @@
       <c r="N480" s="15"/>
       <c r="O480" s="3"/>
     </row>
-    <row r="481" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="27"/>
       <c r="B481" s="5"/>
       <c r="C481" s="13"/>
@@ -12377,7 +13556,7 @@
       <c r="N481" s="15"/>
       <c r="O481" s="3"/>
     </row>
-    <row r="482" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="27"/>
       <c r="B482" s="5"/>
       <c r="C482" s="13"/>
@@ -12394,7 +13573,7 @@
       <c r="N482" s="15"/>
       <c r="O482" s="3"/>
     </row>
-    <row r="483" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="27"/>
       <c r="B483" s="5"/>
       <c r="C483" s="13"/>
@@ -12411,7 +13590,7 @@
       <c r="N483" s="15"/>
       <c r="O483" s="3"/>
     </row>
-    <row r="484" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="27"/>
       <c r="B484" s="5"/>
       <c r="C484" s="13"/>
@@ -12428,7 +13607,7 @@
       <c r="N484" s="15"/>
       <c r="O484" s="3"/>
     </row>
-    <row r="485" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="27"/>
       <c r="B485" s="5"/>
       <c r="C485" s="13"/>
@@ -12445,7 +13624,7 @@
       <c r="N485" s="15"/>
       <c r="O485" s="3"/>
     </row>
-    <row r="486" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="27"/>
       <c r="B486" s="5"/>
       <c r="C486" s="13"/>
@@ -12462,7 +13641,7 @@
       <c r="N486" s="15"/>
       <c r="O486" s="3"/>
     </row>
-    <row r="487" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="27"/>
       <c r="B487" s="5"/>
       <c r="C487" s="13"/>
@@ -12479,7 +13658,7 @@
       <c r="N487" s="15"/>
       <c r="O487" s="3"/>
     </row>
-    <row r="488" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="27"/>
       <c r="B488" s="5"/>
       <c r="C488" s="13"/>
@@ -12496,7 +13675,7 @@
       <c r="N488" s="15"/>
       <c r="O488" s="3"/>
     </row>
-    <row r="489" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="27"/>
       <c r="B489" s="5"/>
       <c r="C489" s="13"/>
@@ -12513,7 +13692,7 @@
       <c r="N489" s="15"/>
       <c r="O489" s="3"/>
     </row>
-    <row r="490" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="27"/>
       <c r="B490" s="5"/>
       <c r="C490" s="13"/>
@@ -12530,7 +13709,7 @@
       <c r="N490" s="15"/>
       <c r="O490" s="3"/>
     </row>
-    <row r="491" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="27"/>
       <c r="B491" s="5"/>
       <c r="C491" s="13"/>
@@ -12547,7 +13726,7 @@
       <c r="N491" s="15"/>
       <c r="O491" s="3"/>
     </row>
-    <row r="492" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="27"/>
       <c r="B492" s="5"/>
       <c r="C492" s="13"/>
@@ -12564,7 +13743,7 @@
       <c r="N492" s="15"/>
       <c r="O492" s="3"/>
     </row>
-    <row r="493" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="27"/>
       <c r="B493" s="5"/>
       <c r="C493" s="13"/>
@@ -12581,7 +13760,7 @@
       <c r="N493" s="15"/>
       <c r="O493" s="3"/>
     </row>
-    <row r="494" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="27"/>
       <c r="B494" s="5"/>
       <c r="C494" s="13"/>
@@ -12598,7 +13777,7 @@
       <c r="N494" s="15"/>
       <c r="O494" s="3"/>
     </row>
-    <row r="495" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="27"/>
       <c r="B495" s="5"/>
       <c r="C495" s="13"/>
@@ -12615,7 +13794,7 @@
       <c r="N495" s="15"/>
       <c r="O495" s="3"/>
     </row>
-    <row r="496" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="27"/>
       <c r="B496" s="5"/>
       <c r="C496" s="13"/>
@@ -12632,7 +13811,7 @@
       <c r="N496" s="15"/>
       <c r="O496" s="3"/>
     </row>
-    <row r="497" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="27"/>
       <c r="B497" s="5"/>
       <c r="C497" s="13"/>
@@ -12649,7 +13828,7 @@
       <c r="N497" s="15"/>
       <c r="O497" s="3"/>
     </row>
-    <row r="498" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="27"/>
       <c r="B498" s="5"/>
       <c r="C498" s="13"/>
@@ -12666,7 +13845,7 @@
       <c r="N498" s="15"/>
       <c r="O498" s="3"/>
     </row>
-    <row r="499" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="27"/>
       <c r="B499" s="5"/>
       <c r="C499" s="13"/>
@@ -12683,7 +13862,7 @@
       <c r="N499" s="15"/>
       <c r="O499" s="3"/>
     </row>
-    <row r="500" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="27"/>
       <c r="B500" s="5"/>
       <c r="C500" s="13"/>
@@ -12700,7 +13879,7 @@
       <c r="N500" s="15"/>
       <c r="O500" s="3"/>
     </row>
-    <row r="501" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="27"/>
       <c r="B501" s="5"/>
       <c r="C501" s="13"/>
@@ -12717,7 +13896,7 @@
       <c r="N501" s="15"/>
       <c r="O501" s="3"/>
     </row>
-    <row r="502" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="27"/>
       <c r="B502" s="5"/>
       <c r="C502" s="13"/>
@@ -12734,7 +13913,7 @@
       <c r="N502" s="15"/>
       <c r="O502" s="3"/>
     </row>
-    <row r="503" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="27"/>
       <c r="B503" s="5"/>
       <c r="C503" s="13"/>
@@ -12751,7 +13930,7 @@
       <c r="N503" s="15"/>
       <c r="O503" s="3"/>
     </row>
-    <row r="504" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="27"/>
       <c r="B504" s="5"/>
       <c r="C504" s="13"/>
@@ -12768,7 +13947,7 @@
       <c r="N504" s="15"/>
       <c r="O504" s="3"/>
     </row>
-    <row r="505" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="27"/>
       <c r="B505" s="5"/>
       <c r="C505" s="13"/>
@@ -12785,7 +13964,7 @@
       <c r="N505" s="15"/>
       <c r="O505" s="3"/>
     </row>
-    <row r="506" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="27"/>
       <c r="B506" s="5"/>
       <c r="C506" s="13"/>
@@ -12802,7 +13981,7 @@
       <c r="N506" s="15"/>
       <c r="O506" s="3"/>
     </row>
-    <row r="507" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="27"/>
       <c r="B507" s="5"/>
       <c r="C507" s="13"/>
@@ -12819,7 +13998,7 @@
       <c r="N507" s="15"/>
       <c r="O507" s="3"/>
     </row>
-    <row r="508" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="27"/>
       <c r="B508" s="5"/>
       <c r="C508" s="13"/>
@@ -12836,7 +14015,7 @@
       <c r="N508" s="15"/>
       <c r="O508" s="3"/>
     </row>
-    <row r="509" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="27"/>
       <c r="B509" s="5"/>
       <c r="C509" s="13"/>
@@ -12853,7 +14032,7 @@
       <c r="N509" s="15"/>
       <c r="O509" s="3"/>
     </row>
-    <row r="510" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="27"/>
       <c r="B510" s="5"/>
       <c r="C510" s="13"/>
@@ -12870,7 +14049,7 @@
       <c r="N510" s="15"/>
       <c r="O510" s="3"/>
     </row>
-    <row r="511" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="27"/>
       <c r="B511" s="5"/>
       <c r="C511" s="13"/>
@@ -12887,7 +14066,7 @@
       <c r="N511" s="15"/>
       <c r="O511" s="3"/>
     </row>
-    <row r="512" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="27"/>
       <c r="B512" s="5"/>
       <c r="C512" s="13"/>
@@ -12904,7 +14083,7 @@
       <c r="N512" s="15"/>
       <c r="O512" s="3"/>
     </row>
-    <row r="513" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="27"/>
       <c r="B513" s="5"/>
       <c r="C513" s="13"/>
@@ -12921,7 +14100,7 @@
       <c r="N513" s="15"/>
       <c r="O513" s="3"/>
     </row>
-    <row r="514" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="27"/>
       <c r="B514" s="5"/>
       <c r="C514" s="13"/>
@@ -12938,7 +14117,7 @@
       <c r="N514" s="15"/>
       <c r="O514" s="3"/>
     </row>
-    <row r="515" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="27"/>
       <c r="B515" s="5"/>
       <c r="C515" s="13"/>
@@ -12955,7 +14134,7 @@
       <c r="N515" s="15"/>
       <c r="O515" s="3"/>
     </row>
-    <row r="516" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="27"/>
       <c r="B516" s="5"/>
       <c r="C516" s="13"/>
@@ -12972,7 +14151,7 @@
       <c r="N516" s="15"/>
       <c r="O516" s="3"/>
     </row>
-    <row r="517" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="27"/>
       <c r="B517" s="5"/>
       <c r="C517" s="13"/>
@@ -12989,7 +14168,7 @@
       <c r="N517" s="15"/>
       <c r="O517" s="3"/>
     </row>
-    <row r="518" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="27"/>
       <c r="B518" s="5"/>
       <c r="C518" s="13"/>
@@ -13006,7 +14185,7 @@
       <c r="N518" s="15"/>
       <c r="O518" s="3"/>
     </row>
-    <row r="519" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="27"/>
       <c r="B519" s="5"/>
       <c r="C519" s="13"/>
@@ -13023,7 +14202,7 @@
       <c r="N519" s="15"/>
       <c r="O519" s="3"/>
     </row>
-    <row r="520" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="27"/>
       <c r="B520" s="5"/>
       <c r="C520" s="13"/>
@@ -13040,7 +14219,7 @@
       <c r="N520" s="15"/>
       <c r="O520" s="3"/>
     </row>
-    <row r="521" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="27"/>
       <c r="B521" s="5"/>
       <c r="C521" s="13"/>
@@ -13057,7 +14236,7 @@
       <c r="N521" s="15"/>
       <c r="O521" s="3"/>
     </row>
-    <row r="522" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="27"/>
       <c r="B522" s="5"/>
       <c r="C522" s="13"/>
@@ -13074,7 +14253,7 @@
       <c r="N522" s="15"/>
       <c r="O522" s="3"/>
     </row>
-    <row r="523" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="27"/>
       <c r="B523" s="5"/>
       <c r="C523" s="13"/>
@@ -13091,7 +14270,7 @@
       <c r="N523" s="15"/>
       <c r="O523" s="3"/>
     </row>
-    <row r="524" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="27"/>
       <c r="B524" s="5"/>
       <c r="C524" s="13"/>
@@ -13108,7 +14287,7 @@
       <c r="N524" s="15"/>
       <c r="O524" s="3"/>
     </row>
-    <row r="525" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="27"/>
       <c r="B525" s="5"/>
       <c r="C525" s="13"/>
@@ -13125,7 +14304,7 @@
       <c r="N525" s="15"/>
       <c r="O525" s="3"/>
     </row>
-    <row r="526" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="27"/>
       <c r="B526" s="5"/>
       <c r="C526" s="13"/>
@@ -13142,7 +14321,7 @@
       <c r="N526" s="15"/>
       <c r="O526" s="3"/>
     </row>
-    <row r="527" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="27"/>
       <c r="B527" s="5"/>
       <c r="C527" s="13"/>
@@ -13159,7 +14338,7 @@
       <c r="N527" s="15"/>
       <c r="O527" s="3"/>
     </row>
-    <row r="528" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="27"/>
       <c r="B528" s="5"/>
       <c r="C528" s="13"/>
@@ -13176,7 +14355,7 @@
       <c r="N528" s="15"/>
       <c r="O528" s="3"/>
     </row>
-    <row r="529" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="27"/>
       <c r="B529" s="5"/>
       <c r="C529" s="13"/>
@@ -13193,7 +14372,7 @@
       <c r="N529" s="15"/>
       <c r="O529" s="3"/>
     </row>
-    <row r="530" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="27"/>
       <c r="B530" s="5"/>
       <c r="C530" s="13"/>
@@ -13210,7 +14389,7 @@
       <c r="N530" s="15"/>
       <c r="O530" s="3"/>
     </row>
-    <row r="531" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="27"/>
       <c r="B531" s="5"/>
       <c r="C531" s="13"/>
@@ -13227,7 +14406,7 @@
       <c r="N531" s="15"/>
       <c r="O531" s="3"/>
     </row>
-    <row r="532" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="27"/>
       <c r="B532" s="5"/>
       <c r="C532" s="13"/>
@@ -13244,7 +14423,7 @@
       <c r="N532" s="15"/>
       <c r="O532" s="3"/>
     </row>
-    <row r="533" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="27"/>
       <c r="B533" s="5"/>
       <c r="C533" s="13"/>
@@ -13261,7 +14440,7 @@
       <c r="N533" s="15"/>
       <c r="O533" s="3"/>
     </row>
-    <row r="534" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="27"/>
       <c r="B534" s="5"/>
       <c r="C534" s="13"/>
@@ -13278,7 +14457,7 @@
       <c r="N534" s="15"/>
       <c r="O534" s="3"/>
     </row>
-    <row r="535" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="27"/>
       <c r="B535" s="5"/>
       <c r="C535" s="13"/>
@@ -13295,7 +14474,7 @@
       <c r="N535" s="15"/>
       <c r="O535" s="3"/>
     </row>
-    <row r="536" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="27"/>
       <c r="B536" s="5"/>
       <c r="C536" s="13"/>
@@ -13312,7 +14491,7 @@
       <c r="N536" s="15"/>
       <c r="O536" s="3"/>
     </row>
-    <row r="537" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="27"/>
       <c r="B537" s="5"/>
       <c r="C537" s="13"/>
@@ -13329,7 +14508,7 @@
       <c r="N537" s="15"/>
       <c r="O537" s="3"/>
     </row>
-    <row r="538" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="27"/>
       <c r="B538" s="5"/>
       <c r="C538" s="13"/>
@@ -13346,7 +14525,7 @@
       <c r="N538" s="15"/>
       <c r="O538" s="3"/>
     </row>
-    <row r="539" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="27"/>
       <c r="B539" s="5"/>
       <c r="C539" s="13"/>
@@ -13363,7 +14542,7 @@
       <c r="N539" s="15"/>
       <c r="O539" s="3"/>
     </row>
-    <row r="540" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="27"/>
       <c r="B540" s="5"/>
       <c r="C540" s="13"/>
@@ -13380,7 +14559,7 @@
       <c r="N540" s="15"/>
       <c r="O540" s="3"/>
     </row>
-    <row r="541" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="27"/>
       <c r="B541" s="5"/>
       <c r="C541" s="13"/>
@@ -13397,7 +14576,7 @@
       <c r="N541" s="15"/>
       <c r="O541" s="3"/>
     </row>
-    <row r="542" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="27"/>
       <c r="B542" s="5"/>
       <c r="C542" s="13"/>
@@ -13414,7 +14593,7 @@
       <c r="N542" s="15"/>
       <c r="O542" s="3"/>
     </row>
-    <row r="543" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="27"/>
       <c r="B543" s="5"/>
       <c r="C543" s="13"/>
@@ -13431,7 +14610,7 @@
       <c r="N543" s="15"/>
       <c r="O543" s="3"/>
     </row>
-    <row r="544" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="27"/>
       <c r="B544" s="5"/>
       <c r="C544" s="13"/>
@@ -13448,7 +14627,7 @@
       <c r="N544" s="15"/>
       <c r="O544" s="3"/>
     </row>
-    <row r="545" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="27"/>
       <c r="B545" s="5"/>
       <c r="C545" s="13"/>
@@ -13465,7 +14644,7 @@
       <c r="N545" s="15"/>
       <c r="O545" s="3"/>
     </row>
-    <row r="546" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="27"/>
       <c r="B546" s="5"/>
       <c r="C546" s="13"/>
@@ -13482,7 +14661,7 @@
       <c r="N546" s="15"/>
       <c r="O546" s="3"/>
     </row>
-    <row r="547" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="27"/>
       <c r="B547" s="5"/>
       <c r="C547" s="13"/>
@@ -13499,7 +14678,7 @@
       <c r="N547" s="15"/>
       <c r="O547" s="3"/>
     </row>
-    <row r="548" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="27"/>
       <c r="B548" s="5"/>
       <c r="C548" s="13"/>
@@ -13516,7 +14695,7 @@
       <c r="N548" s="15"/>
       <c r="O548" s="3"/>
     </row>
-    <row r="549" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="27"/>
       <c r="B549" s="5"/>
       <c r="C549" s="13"/>
@@ -13533,7 +14712,7 @@
       <c r="N549" s="15"/>
       <c r="O549" s="3"/>
     </row>
-    <row r="550" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="27"/>
       <c r="B550" s="5"/>
       <c r="C550" s="13"/>
@@ -13550,7 +14729,7 @@
       <c r="N550" s="15"/>
       <c r="O550" s="3"/>
     </row>
-    <row r="551" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="27"/>
       <c r="B551" s="5"/>
       <c r="C551" s="13"/>
@@ -13567,7 +14746,7 @@
       <c r="N551" s="15"/>
       <c r="O551" s="3"/>
     </row>
-    <row r="552" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="27"/>
       <c r="B552" s="5"/>
       <c r="C552" s="13"/>
@@ -13584,7 +14763,7 @@
       <c r="N552" s="15"/>
       <c r="O552" s="3"/>
     </row>
-    <row r="553" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="27"/>
       <c r="B553" s="5"/>
       <c r="C553" s="13"/>
@@ -13601,7 +14780,7 @@
       <c r="N553" s="15"/>
       <c r="O553" s="3"/>
     </row>
-    <row r="554" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="27"/>
       <c r="B554" s="5"/>
       <c r="C554" s="13"/>
@@ -13618,7 +14797,7 @@
       <c r="N554" s="15"/>
       <c r="O554" s="3"/>
     </row>
-    <row r="555" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="27"/>
       <c r="B555" s="5"/>
       <c r="C555" s="13"/>
@@ -13635,7 +14814,7 @@
       <c r="N555" s="15"/>
       <c r="O555" s="3"/>
     </row>
-    <row r="556" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="27"/>
       <c r="B556" s="5"/>
       <c r="C556" s="13"/>
@@ -13652,7 +14831,7 @@
       <c r="N556" s="15"/>
       <c r="O556" s="3"/>
     </row>
-    <row r="557" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="27"/>
       <c r="B557" s="5"/>
       <c r="C557" s="13"/>
@@ -13669,7 +14848,7 @@
       <c r="N557" s="15"/>
       <c r="O557" s="3"/>
     </row>
-    <row r="558" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="27"/>
       <c r="B558" s="5"/>
       <c r="C558" s="13"/>
@@ -13686,7 +14865,7 @@
       <c r="N558" s="15"/>
       <c r="O558" s="3"/>
     </row>
-    <row r="559" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="27"/>
       <c r="B559" s="5"/>
       <c r="C559" s="13"/>
@@ -13703,7 +14882,7 @@
       <c r="N559" s="15"/>
       <c r="O559" s="3"/>
     </row>
-    <row r="560" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="27"/>
       <c r="B560" s="5"/>
       <c r="C560" s="13"/>
@@ -13720,7 +14899,7 @@
       <c r="N560" s="15"/>
       <c r="O560" s="3"/>
     </row>
-    <row r="561" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="27"/>
       <c r="B561" s="5"/>
       <c r="C561" s="13"/>
@@ -13737,7 +14916,7 @@
       <c r="N561" s="15"/>
       <c r="O561" s="3"/>
     </row>
-    <row r="562" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="27"/>
       <c r="B562" s="5"/>
       <c r="C562" s="13"/>
@@ -13754,7 +14933,7 @@
       <c r="N562" s="15"/>
       <c r="O562" s="3"/>
     </row>
-    <row r="563" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="27"/>
       <c r="B563" s="5"/>
       <c r="C563" s="13"/>
@@ -13771,7 +14950,7 @@
       <c r="N563" s="15"/>
       <c r="O563" s="3"/>
     </row>
-    <row r="564" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="27"/>
       <c r="B564" s="5"/>
       <c r="C564" s="13"/>
@@ -13788,7 +14967,7 @@
       <c r="N564" s="15"/>
       <c r="O564" s="3"/>
     </row>
-    <row r="565" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="27"/>
       <c r="B565" s="5"/>
       <c r="C565" s="13"/>
@@ -13805,7 +14984,7 @@
       <c r="N565" s="15"/>
       <c r="O565" s="3"/>
     </row>
-    <row r="566" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="27"/>
       <c r="B566" s="5"/>
       <c r="C566" s="13"/>
@@ -13822,7 +15001,7 @@
       <c r="N566" s="15"/>
       <c r="O566" s="3"/>
     </row>
-    <row r="567" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="27"/>
       <c r="B567" s="5"/>
       <c r="C567" s="13"/>
@@ -13839,7 +15018,7 @@
       <c r="N567" s="15"/>
       <c r="O567" s="3"/>
     </row>
-    <row r="568" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="27"/>
       <c r="B568" s="5"/>
       <c r="C568" s="13"/>
@@ -13856,7 +15035,7 @@
       <c r="N568" s="15"/>
       <c r="O568" s="3"/>
     </row>
-    <row r="569" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="27"/>
       <c r="B569" s="5"/>
       <c r="C569" s="13"/>
@@ -13873,7 +15052,7 @@
       <c r="N569" s="15"/>
       <c r="O569" s="3"/>
     </row>
-    <row r="570" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="27"/>
       <c r="B570" s="5"/>
       <c r="C570" s="13"/>
@@ -13890,7 +15069,7 @@
       <c r="N570" s="15"/>
       <c r="O570" s="3"/>
     </row>
-    <row r="571" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="27"/>
       <c r="B571" s="5"/>
       <c r="C571" s="13"/>
@@ -13907,7 +15086,7 @@
       <c r="N571" s="15"/>
       <c r="O571" s="3"/>
     </row>
-    <row r="572" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="27"/>
       <c r="B572" s="5"/>
       <c r="C572" s="13"/>
@@ -13924,7 +15103,7 @@
       <c r="N572" s="15"/>
       <c r="O572" s="3"/>
     </row>
-    <row r="573" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="27"/>
       <c r="B573" s="5"/>
       <c r="C573" s="13"/>
@@ -13941,7 +15120,7 @@
       <c r="N573" s="15"/>
       <c r="O573" s="3"/>
     </row>
-    <row r="574" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="27"/>
       <c r="B574" s="5"/>
       <c r="C574" s="13"/>
@@ -13958,7 +15137,7 @@
       <c r="N574" s="15"/>
       <c r="O574" s="3"/>
     </row>
-    <row r="575" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="27"/>
       <c r="B575" s="5"/>
       <c r="C575" s="13"/>
@@ -13975,7 +15154,7 @@
       <c r="N575" s="15"/>
       <c r="O575" s="3"/>
     </row>
-    <row r="576" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="27"/>
       <c r="B576" s="5"/>
       <c r="C576" s="13"/>
@@ -13992,7 +15171,7 @@
       <c r="N576" s="15"/>
       <c r="O576" s="3"/>
     </row>
-    <row r="577" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="27"/>
       <c r="B577" s="5"/>
       <c r="C577" s="13"/>
@@ -14009,7 +15188,7 @@
       <c r="N577" s="15"/>
       <c r="O577" s="3"/>
     </row>
-    <row r="578" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="27"/>
       <c r="B578" s="5"/>
       <c r="C578" s="13"/>
@@ -14026,7 +15205,7 @@
       <c r="N578" s="15"/>
       <c r="O578" s="3"/>
     </row>
-    <row r="579" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="27"/>
       <c r="B579" s="5"/>
       <c r="C579" s="13"/>
@@ -14043,7 +15222,7 @@
       <c r="N579" s="15"/>
       <c r="O579" s="3"/>
     </row>
-    <row r="580" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="27"/>
       <c r="B580" s="5"/>
       <c r="C580" s="13"/>
@@ -14060,7 +15239,7 @@
       <c r="N580" s="15"/>
       <c r="O580" s="3"/>
     </row>
-    <row r="581" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="27"/>
       <c r="B581" s="5"/>
       <c r="C581" s="13"/>
@@ -14077,7 +15256,7 @@
       <c r="N581" s="15"/>
       <c r="O581" s="3"/>
     </row>
-    <row r="582" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="27"/>
       <c r="B582" s="5"/>
       <c r="C582" s="13"/>
@@ -14094,7 +15273,7 @@
       <c r="N582" s="15"/>
       <c r="O582" s="3"/>
     </row>
-    <row r="583" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="27"/>
       <c r="B583" s="5"/>
       <c r="C583" s="13"/>
@@ -14111,7 +15290,7 @@
       <c r="N583" s="15"/>
       <c r="O583" s="3"/>
     </row>
-    <row r="584" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="27"/>
       <c r="B584" s="5"/>
       <c r="C584" s="13"/>
@@ -14128,7 +15307,7 @@
       <c r="N584" s="15"/>
       <c r="O584" s="3"/>
     </row>
-    <row r="585" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="27"/>
       <c r="B585" s="5"/>
       <c r="C585" s="13"/>
@@ -14145,7 +15324,7 @@
       <c r="N585" s="15"/>
       <c r="O585" s="3"/>
     </row>
-    <row r="586" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="27"/>
       <c r="B586" s="5"/>
       <c r="C586" s="13"/>
@@ -14162,7 +15341,7 @@
       <c r="N586" s="15"/>
       <c r="O586" s="3"/>
     </row>
-    <row r="587" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="27"/>
       <c r="B587" s="5"/>
       <c r="C587" s="13"/>
@@ -14179,7 +15358,7 @@
       <c r="N587" s="15"/>
       <c r="O587" s="3"/>
     </row>
-    <row r="588" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="27"/>
       <c r="B588" s="5"/>
       <c r="C588" s="13"/>
@@ -14196,7 +15375,7 @@
       <c r="N588" s="15"/>
       <c r="O588" s="3"/>
     </row>
-    <row r="589" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="27"/>
       <c r="B589" s="5"/>
       <c r="C589" s="13"/>
@@ -14213,7 +15392,7 @@
       <c r="N589" s="15"/>
       <c r="O589" s="3"/>
     </row>
-    <row r="590" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="27"/>
       <c r="B590" s="5"/>
       <c r="C590" s="13"/>
@@ -14230,7 +15409,7 @@
       <c r="N590" s="15"/>
       <c r="O590" s="3"/>
     </row>
-    <row r="591" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="27"/>
       <c r="B591" s="5"/>
       <c r="C591" s="13"/>
@@ -14247,7 +15426,7 @@
       <c r="N591" s="15"/>
       <c r="O591" s="3"/>
     </row>
-    <row r="592" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="27"/>
       <c r="B592" s="5"/>
       <c r="C592" s="13"/>
@@ -14264,7 +15443,7 @@
       <c r="N592" s="15"/>
       <c r="O592" s="3"/>
     </row>
-    <row r="593" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="27"/>
       <c r="B593" s="5"/>
       <c r="C593" s="13"/>
@@ -14281,7 +15460,7 @@
       <c r="N593" s="15"/>
       <c r="O593" s="3"/>
     </row>
-    <row r="594" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="27"/>
       <c r="B594" s="5"/>
       <c r="C594" s="13"/>
@@ -14298,7 +15477,7 @@
       <c r="N594" s="15"/>
       <c r="O594" s="3"/>
     </row>
-    <row r="595" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="27"/>
       <c r="B595" s="5"/>
       <c r="C595" s="13"/>
@@ -14315,7 +15494,7 @@
       <c r="N595" s="15"/>
       <c r="O595" s="3"/>
     </row>
-    <row r="596" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="27"/>
       <c r="B596" s="5"/>
       <c r="C596" s="13"/>
@@ -14332,7 +15511,7 @@
       <c r="N596" s="15"/>
       <c r="O596" s="3"/>
     </row>
-    <row r="597" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="27"/>
       <c r="B597" s="5"/>
       <c r="C597" s="13"/>
@@ -14349,7 +15528,7 @@
       <c r="N597" s="15"/>
       <c r="O597" s="3"/>
     </row>
-    <row r="598" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="27"/>
       <c r="B598" s="5"/>
       <c r="C598" s="13"/>
@@ -14366,7 +15545,7 @@
       <c r="N598" s="15"/>
       <c r="O598" s="3"/>
     </row>
-    <row r="599" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="27"/>
       <c r="B599" s="5"/>
       <c r="C599" s="13"/>
@@ -14383,7 +15562,7 @@
       <c r="N599" s="15"/>
       <c r="O599" s="3"/>
     </row>
-    <row r="600" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="27"/>
       <c r="B600" s="5"/>
       <c r="C600" s="13"/>
@@ -14400,7 +15579,7 @@
       <c r="N600" s="15"/>
       <c r="O600" s="3"/>
     </row>
-    <row r="601" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="27"/>
       <c r="B601" s="5"/>
       <c r="C601" s="13"/>
@@ -14417,7 +15596,7 @@
       <c r="N601" s="15"/>
       <c r="O601" s="3"/>
     </row>
-    <row r="602" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="27"/>
       <c r="B602" s="5"/>
       <c r="C602" s="13"/>
@@ -14434,7 +15613,7 @@
       <c r="N602" s="15"/>
       <c r="O602" s="3"/>
     </row>
-    <row r="603" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="27"/>
       <c r="B603" s="5"/>
       <c r="C603" s="13"/>
@@ -14451,7 +15630,7 @@
       <c r="N603" s="15"/>
       <c r="O603" s="3"/>
     </row>
-    <row r="604" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="27"/>
       <c r="B604" s="5"/>
       <c r="C604" s="13"/>
@@ -14468,7 +15647,7 @@
       <c r="N604" s="15"/>
       <c r="O604" s="3"/>
     </row>
-    <row r="605" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="27"/>
       <c r="B605" s="5"/>
       <c r="C605" s="13"/>
@@ -14485,7 +15664,7 @@
       <c r="N605" s="15"/>
       <c r="O605" s="3"/>
     </row>
-    <row r="606" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="27"/>
       <c r="B606" s="5"/>
       <c r="C606" s="13"/>
@@ -14502,7 +15681,7 @@
       <c r="N606" s="15"/>
       <c r="O606" s="3"/>
     </row>
-    <row r="607" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="27"/>
       <c r="B607" s="5"/>
       <c r="C607" s="13"/>
@@ -14519,7 +15698,7 @@
       <c r="N607" s="15"/>
       <c r="O607" s="3"/>
     </row>
-    <row r="608" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="27"/>
       <c r="B608" s="5"/>
       <c r="C608" s="13"/>
@@ -14536,7 +15715,7 @@
       <c r="N608" s="15"/>
       <c r="O608" s="3"/>
     </row>
-    <row r="609" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="27"/>
       <c r="B609" s="5"/>
       <c r="C609" s="13"/>
@@ -14553,7 +15732,7 @@
       <c r="N609" s="15"/>
       <c r="O609" s="3"/>
     </row>
-    <row r="610" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="27"/>
       <c r="B610" s="5"/>
       <c r="C610" s="13"/>
@@ -14570,7 +15749,7 @@
       <c r="N610" s="15"/>
       <c r="O610" s="3"/>
     </row>
-    <row r="611" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="27"/>
       <c r="B611" s="5"/>
       <c r="C611" s="13"/>
@@ -14587,7 +15766,7 @@
       <c r="N611" s="15"/>
       <c r="O611" s="3"/>
     </row>
-    <row r="612" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="27"/>
       <c r="B612" s="5"/>
       <c r="C612" s="13"/>
@@ -14604,7 +15783,7 @@
       <c r="N612" s="15"/>
       <c r="O612" s="3"/>
     </row>
-    <row r="613" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="27"/>
       <c r="B613" s="5"/>
       <c r="C613" s="13"/>
@@ -14621,7 +15800,7 @@
       <c r="N613" s="15"/>
       <c r="O613" s="3"/>
     </row>
-    <row r="614" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="27"/>
       <c r="B614" s="5"/>
       <c r="C614" s="13"/>
@@ -14638,7 +15817,7 @@
       <c r="N614" s="15"/>
       <c r="O614" s="3"/>
     </row>
-    <row r="615" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="27"/>
       <c r="B615" s="5"/>
       <c r="C615" s="13"/>
@@ -14655,7 +15834,7 @@
       <c r="N615" s="15"/>
       <c r="O615" s="3"/>
     </row>
-    <row r="616" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="27"/>
       <c r="B616" s="5"/>
       <c r="C616" s="13"/>
@@ -14672,7 +15851,7 @@
       <c r="N616" s="15"/>
       <c r="O616" s="3"/>
     </row>
-    <row r="617" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="27"/>
       <c r="B617" s="5"/>
       <c r="C617" s="13"/>
@@ -14689,7 +15868,7 @@
       <c r="N617" s="15"/>
       <c r="O617" s="3"/>
     </row>
-    <row r="618" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="27"/>
       <c r="B618" s="5"/>
       <c r="C618" s="13"/>
@@ -14706,7 +15885,7 @@
       <c r="N618" s="15"/>
       <c r="O618" s="3"/>
     </row>
-    <row r="619" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="27"/>
       <c r="B619" s="5"/>
       <c r="C619" s="13"/>
@@ -14723,7 +15902,7 @@
       <c r="N619" s="15"/>
       <c r="O619" s="3"/>
     </row>
-    <row r="620" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="27"/>
       <c r="B620" s="5"/>
       <c r="C620" s="13"/>
@@ -14740,7 +15919,7 @@
       <c r="N620" s="15"/>
       <c r="O620" s="3"/>
     </row>
-    <row r="621" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="27"/>
       <c r="B621" s="5"/>
       <c r="C621" s="13"/>
@@ -14757,7 +15936,7 @@
       <c r="N621" s="15"/>
       <c r="O621" s="3"/>
     </row>
-    <row r="622" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="27"/>
       <c r="B622" s="5"/>
       <c r="C622" s="13"/>
@@ -14774,7 +15953,7 @@
       <c r="N622" s="15"/>
       <c r="O622" s="3"/>
     </row>
-    <row r="623" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="27"/>
       <c r="B623" s="5"/>
       <c r="C623" s="13"/>
@@ -14791,7 +15970,7 @@
       <c r="N623" s="15"/>
       <c r="O623" s="3"/>
     </row>
-    <row r="624" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="27"/>
       <c r="B624" s="5"/>
       <c r="C624" s="13"/>
@@ -14808,7 +15987,7 @@
       <c r="N624" s="15"/>
       <c r="O624" s="3"/>
     </row>
-    <row r="625" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="27"/>
       <c r="B625" s="5"/>
       <c r="C625" s="13"/>
@@ -14825,7 +16004,7 @@
       <c r="N625" s="15"/>
       <c r="O625" s="3"/>
     </row>
-    <row r="626" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="27"/>
       <c r="B626" s="5"/>
       <c r="C626" s="13"/>
@@ -14842,7 +16021,7 @@
       <c r="N626" s="15"/>
       <c r="O626" s="3"/>
     </row>
-    <row r="627" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="27"/>
       <c r="B627" s="5"/>
       <c r="C627" s="13"/>
@@ -14859,7 +16038,7 @@
       <c r="N627" s="15"/>
       <c r="O627" s="3"/>
     </row>
-    <row r="628" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="27"/>
       <c r="B628" s="5"/>
       <c r="C628" s="13"/>
@@ -14876,7 +16055,7 @@
       <c r="N628" s="15"/>
       <c r="O628" s="3"/>
     </row>
-    <row r="629" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="27"/>
       <c r="B629" s="5"/>
       <c r="C629" s="13"/>
@@ -14893,7 +16072,7 @@
       <c r="N629" s="15"/>
       <c r="O629" s="3"/>
     </row>
-    <row r="630" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="27"/>
       <c r="B630" s="5"/>
       <c r="C630" s="13"/>
@@ -14910,7 +16089,7 @@
       <c r="N630" s="15"/>
       <c r="O630" s="3"/>
     </row>
-    <row r="631" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="27"/>
       <c r="B631" s="5"/>
       <c r="C631" s="13"/>
@@ -14927,7 +16106,7 @@
       <c r="N631" s="15"/>
       <c r="O631" s="3"/>
     </row>
-    <row r="632" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="27"/>
       <c r="B632" s="5"/>
       <c r="C632" s="13"/>
@@ -14944,7 +16123,7 @@
       <c r="N632" s="15"/>
       <c r="O632" s="3"/>
     </row>
-    <row r="633" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="27"/>
       <c r="B633" s="5"/>
       <c r="C633" s="13"/>
@@ -14961,7 +16140,7 @@
       <c r="N633" s="15"/>
       <c r="O633" s="3"/>
     </row>
-    <row r="634" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="27"/>
       <c r="B634" s="5"/>
       <c r="C634" s="13"/>
@@ -14978,360 +16157,360 @@
       <c r="N634" s="15"/>
       <c r="O634" s="3"/>
     </row>
-    <row r="635" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="635" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="636" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="637" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="638" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="639" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="640" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="641" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="642" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="643" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="644" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="645" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="646" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="647" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="648" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -15339,24 +16518,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D684" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D684" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C686" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C686" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -18,12 +18,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="509">
   <si>
     <t>description</t>
   </si>
@@ -1574,6 +1574,21 @@
   </si>
   <si>
     <t>json(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1596,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1852,8 +1867,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2178,8 +2287,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2781,6 +3043,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2788,7 +3332,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="83">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2966,49 +3510,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="32" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="45" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="48" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3441,7 +4030,7 @@
         <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>505</v>
       </c>
       <c r="G2" t="s">
         <v>78</v>
@@ -3521,7 +4110,7 @@
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>502</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -3595,7 +4184,7 @@
         <v>386</v>
       </c>
       <c r="F4" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H4" t="s">
         <v>350</v>
@@ -3666,7 +4255,7 @@
         <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>327</v>
+        <v>507</v>
       </c>
       <c r="H5" t="s">
         <v>347</v>
@@ -3728,7 +4317,7 @@
         <v>387</v>
       </c>
       <c r="F6" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -3784,7 +4373,7 @@
         <v>365</v>
       </c>
       <c r="F7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
@@ -3840,7 +4429,7 @@
         <v>366</v>
       </c>
       <c r="F8" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -3893,7 +4482,7 @@
         <v>305</v>
       </c>
       <c r="F9" t="s">
-        <v>323</v>
+        <v>508</v>
       </c>
       <c r="I9" t="s">
         <v>389</v>
@@ -3934,7 +4523,7 @@
         <v>351</v>
       </c>
       <c r="F10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -3971,6 +4560,9 @@
       <c r="E11" t="s">
         <v>273</v>
       </c>
+      <c r="F11" t="s">
+        <v>322</v>
+      </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
@@ -4003,6 +4595,9 @@
       <c r="E12" t="s">
         <v>262</v>
       </c>
+      <c r="F12" t="s">
+        <v>323</v>
+      </c>
       <c r="I12" t="s">
         <v>80</v>
       </c>
@@ -4032,6 +4627,9 @@
       <c r="E13" t="s">
         <v>315</v>
       </c>
+      <c r="F13" t="s">
+        <v>324</v>
+      </c>
       <c r="I13" t="s">
         <v>81</v>
       </c>
@@ -4236,7 +4834,7 @@
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>224</v>
+        <v>504</v>
       </c>
       <c r="E23" t="s">
         <v>289</v>
@@ -4250,7 +4848,7 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E24" t="s">
         <v>278</v>
@@ -4264,7 +4862,7 @@
         <v>413</v>
       </c>
       <c r="C25" t="s">
-        <v>415</v>
+        <v>225</v>
       </c>
       <c r="E25" t="s">
         <v>75</v>
@@ -4278,7 +4876,7 @@
         <v>226</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>415</v>
       </c>
       <c r="E26" t="s">
         <v>281</v>
@@ -4289,7 +4887,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
         <v>265</v>
@@ -4300,7 +4898,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
         <v>282</v>
@@ -4311,7 +4909,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>283</v>
@@ -4322,7 +4920,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>215</v>
@@ -4333,7 +4931,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>274</v>
@@ -4344,7 +4942,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>284</v>
@@ -4355,7 +4953,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>259</v>
@@ -4365,6 +4963,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
       <c r="E34" t="s">
         <v>329</v>
       </c>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="511">
   <si>
     <t>description</t>
   </si>
@@ -1589,6 +1589,12 @@
   </si>
   <si>
     <t>setPassword(file,password)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
 </sst>
 </file>
@@ -1596,7 +1602,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="87" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1961,8 +1967,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2440,8 +2634,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -3325,6 +3825,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3332,7 +4396,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="113">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3555,49 +4619,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="44" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="75" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="59" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="60" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="62" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3922,7 +5076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5314,7 +6468,7 @@
         <v>428</v>
       </c>
       <c r="U77" t="s">
-        <v>200</v>
+        <v>510</v>
       </c>
     </row>
     <row r="78">
@@ -5322,7 +6476,7 @@
         <v>331</v>
       </c>
       <c r="U78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79">
@@ -5330,7 +6484,7 @@
         <v>269</v>
       </c>
       <c r="U79" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80">
@@ -5338,7 +6492,7 @@
         <v>280</v>
       </c>
       <c r="U80" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81">
@@ -5346,7 +6500,7 @@
         <v>286</v>
       </c>
       <c r="U81" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
@@ -5354,7 +6508,7 @@
         <v>275</v>
       </c>
       <c r="U82" t="s">
-        <v>437</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83">
@@ -5362,7 +6516,7 @@
         <v>270</v>
       </c>
       <c r="U83" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84">
@@ -5370,7 +6524,7 @@
         <v>287</v>
       </c>
       <c r="U84" t="s">
-        <v>203</v>
+        <v>438</v>
       </c>
     </row>
     <row r="85">
@@ -5378,7 +6532,7 @@
         <v>271</v>
       </c>
       <c r="U85" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86">
@@ -5386,7 +6540,7 @@
         <v>272</v>
       </c>
       <c r="U86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
@@ -5394,7 +6548,7 @@
         <v>304</v>
       </c>
       <c r="U87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
@@ -5402,7 +6556,7 @@
         <v>310</v>
       </c>
       <c r="U88" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -5410,7 +6564,7 @@
         <v>294</v>
       </c>
       <c r="U89" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90">
@@ -5418,7 +6572,7 @@
         <v>339</v>
       </c>
       <c r="U90" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
@@ -5426,7 +6580,7 @@
         <v>276</v>
       </c>
       <c r="U91" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92">
@@ -5434,116 +6588,121 @@
         <v>277</v>
       </c>
       <c r="U92" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>441</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>162</v>
+        <v>441</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="512">
   <si>
     <t>description</t>
   </si>
@@ -1595,6 +1595,9 @@
   </si>
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1605,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="87" x14ac:knownFonts="1">
+  <fonts count="102" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2155,8 +2158,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2940,8 +3037,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -4389,6 +4639,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4396,7 +4928,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="128">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4709,49 +5241,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="74" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="75" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5076,7 +5653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6412,7 +6989,7 @@
         <v>303</v>
       </c>
       <c r="U70" t="s">
-        <v>142</v>
+        <v>511</v>
       </c>
     </row>
     <row r="71">
@@ -6420,7 +6997,7 @@
         <v>410</v>
       </c>
       <c r="U71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
@@ -6428,7 +7005,7 @@
         <v>261</v>
       </c>
       <c r="U72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
@@ -6436,7 +7013,7 @@
         <v>343</v>
       </c>
       <c r="U73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
@@ -6444,7 +7021,7 @@
         <v>279</v>
       </c>
       <c r="U74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75">
@@ -6452,7 +7029,7 @@
         <v>285</v>
       </c>
       <c r="U75" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
@@ -6460,7 +7037,7 @@
         <v>290</v>
       </c>
       <c r="U76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77">
@@ -6468,7 +7045,7 @@
         <v>428</v>
       </c>
       <c r="U77" t="s">
-        <v>510</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78">
@@ -6476,7 +7053,7 @@
         <v>331</v>
       </c>
       <c r="U78" t="s">
-        <v>200</v>
+        <v>510</v>
       </c>
     </row>
     <row r="79">
@@ -6484,7 +7061,7 @@
         <v>269</v>
       </c>
       <c r="U79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -6492,7 +7069,7 @@
         <v>280</v>
       </c>
       <c r="U80" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81">
@@ -6500,7 +7077,7 @@
         <v>286</v>
       </c>
       <c r="U81" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82">
@@ -6508,7 +7085,7 @@
         <v>275</v>
       </c>
       <c r="U82" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
@@ -6516,7 +7093,7 @@
         <v>270</v>
       </c>
       <c r="U83" t="s">
-        <v>437</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84">
@@ -6524,7 +7101,7 @@
         <v>287</v>
       </c>
       <c r="U84" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="85">
@@ -6532,7 +7109,7 @@
         <v>271</v>
       </c>
       <c r="U85" t="s">
-        <v>203</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86">
@@ -6540,7 +7117,7 @@
         <v>272</v>
       </c>
       <c r="U86" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87">
@@ -6548,7 +7125,7 @@
         <v>304</v>
       </c>
       <c r="U87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88">
@@ -6556,7 +7133,7 @@
         <v>310</v>
       </c>
       <c r="U88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
@@ -6564,7 +7141,7 @@
         <v>294</v>
       </c>
       <c r="U89" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
@@ -6572,7 +7149,7 @@
         <v>339</v>
       </c>
       <c r="U90" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91">
@@ -6580,7 +7157,7 @@
         <v>276</v>
       </c>
       <c r="U91" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92">
@@ -6588,121 +7165,126 @@
         <v>277</v>
       </c>
       <c r="U92" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>441</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>162</v>
+        <v>441</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3887" uniqueCount="513">
   <si>
     <t>description</t>
   </si>
@@ -1598,6 +1598,9 @@
   </si>
   <si>
     <t>openHttpBasic(url,username,password)</t>
+  </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1608,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="102" x14ac:knownFonts="1">
+  <fonts count="117" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2252,8 +2255,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3190,8 +3287,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4921,6 +5171,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4928,7 +5460,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="143">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5286,49 +5818,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="89" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="90" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="92" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5986,7 +6563,7 @@
         <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="H5" t="s">
         <v>347</v>
@@ -6048,7 +6625,7 @@
         <v>387</v>
       </c>
       <c r="F6" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -6104,7 +6681,7 @@
         <v>365</v>
       </c>
       <c r="F7" t="s">
-        <v>327</v>
+        <v>503</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
@@ -6160,7 +6737,7 @@
         <v>366</v>
       </c>
       <c r="F8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -6213,7 +6790,7 @@
         <v>305</v>
       </c>
       <c r="F9" t="s">
-        <v>508</v>
+        <v>328</v>
       </c>
       <c r="I9" t="s">
         <v>389</v>
@@ -6254,7 +6831,7 @@
         <v>351</v>
       </c>
       <c r="F10" t="s">
-        <v>321</v>
+        <v>508</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -6292,7 +6869,7 @@
         <v>273</v>
       </c>
       <c r="F11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -6327,7 +6904,7 @@
         <v>262</v>
       </c>
       <c r="F12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I12" t="s">
         <v>80</v>
@@ -6359,7 +6936,7 @@
         <v>315</v>
       </c>
       <c r="F13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I13" t="s">
         <v>81</v>
@@ -6389,6 +6966,9 @@
       </c>
       <c r="E14" t="s">
         <v>263</v>
+      </c>
+      <c r="F14" t="s">
+        <v>324</v>
       </c>
       <c r="I14" t="s">
         <v>82</v>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="547">
   <si>
     <t>description</t>
   </si>
@@ -1702,6 +1702,9 @@
   </si>
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
+  <si>
+    <t>deselect(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1712,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1980,8 +1983,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2306,8 +2403,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2909,6 +3159,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2916,7 +3448,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="86">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3106,49 +3638,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="32" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="45" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="48" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3533,7 +4110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4745,7 +5322,7 @@
         <v>267</v>
       </c>
       <c r="U53" t="s">
-        <v>131</v>
+        <v>546</v>
       </c>
     </row>
     <row r="54">
@@ -4753,7 +5330,7 @@
         <v>291</v>
       </c>
       <c r="U54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55">
@@ -4761,7 +5338,7 @@
         <v>292</v>
       </c>
       <c r="U55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56">
@@ -4769,7 +5346,7 @@
         <v>293</v>
       </c>
       <c r="U56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57">
@@ -4777,7 +5354,7 @@
         <v>302</v>
       </c>
       <c r="U57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58">
@@ -4785,7 +5362,7 @@
         <v>311</v>
       </c>
       <c r="U58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59">
@@ -4793,7 +5370,7 @@
         <v>336</v>
       </c>
       <c r="U59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60">
@@ -4801,7 +5378,7 @@
         <v>308</v>
       </c>
       <c r="U60" t="s">
-        <v>439</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61">
@@ -4809,7 +5386,7 @@
         <v>309</v>
       </c>
       <c r="U61" t="s">
-        <v>213</v>
+        <v>439</v>
       </c>
     </row>
     <row r="62">
@@ -4817,7 +5394,7 @@
         <v>368</v>
       </c>
       <c r="U62" t="s">
-        <v>388</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63">
@@ -4825,7 +5402,7 @@
         <v>369</v>
       </c>
       <c r="U63" t="s">
-        <v>445</v>
+        <v>388</v>
       </c>
     </row>
     <row r="64">
@@ -4833,7 +5410,7 @@
         <v>344</v>
       </c>
       <c r="U64" t="s">
-        <v>138</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65">
@@ -4841,7 +5418,7 @@
         <v>312</v>
       </c>
       <c r="U65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66">
@@ -4849,7 +5426,7 @@
         <v>268</v>
       </c>
       <c r="U66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67">
@@ -4857,7 +5434,7 @@
         <v>352</v>
       </c>
       <c r="U67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
@@ -4865,7 +5442,7 @@
         <v>313</v>
       </c>
       <c r="U68" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69">
@@ -4873,7 +5450,7 @@
         <v>409</v>
       </c>
       <c r="U69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70">
@@ -4881,7 +5458,7 @@
         <v>303</v>
       </c>
       <c r="U70" t="s">
-        <v>509</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71">
@@ -4889,7 +5466,7 @@
         <v>410</v>
       </c>
       <c r="U71" t="s">
-        <v>142</v>
+        <v>509</v>
       </c>
     </row>
     <row r="72">
@@ -4897,7 +5474,7 @@
         <v>261</v>
       </c>
       <c r="U72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73">
@@ -4905,7 +5482,7 @@
         <v>343</v>
       </c>
       <c r="U73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74">
@@ -4913,7 +5490,7 @@
         <v>279</v>
       </c>
       <c r="U74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
@@ -4921,7 +5498,7 @@
         <v>285</v>
       </c>
       <c r="U75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -4929,7 +5506,7 @@
         <v>290</v>
       </c>
       <c r="U76" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77">
@@ -4937,7 +5514,7 @@
         <v>428</v>
       </c>
       <c r="U77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78">
@@ -4945,7 +5522,7 @@
         <v>331</v>
       </c>
       <c r="U78" t="s">
-        <v>508</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79">
@@ -4953,7 +5530,7 @@
         <v>269</v>
       </c>
       <c r="U79" t="s">
-        <v>200</v>
+        <v>508</v>
       </c>
     </row>
     <row r="80">
@@ -4961,7 +5538,7 @@
         <v>280</v>
       </c>
       <c r="U80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
@@ -4969,7 +5546,7 @@
         <v>286</v>
       </c>
       <c r="U81" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82">
@@ -4977,7 +5554,7 @@
         <v>275</v>
       </c>
       <c r="U82" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83">
@@ -4985,7 +5562,7 @@
         <v>270</v>
       </c>
       <c r="U83" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84">
@@ -4993,7 +5570,7 @@
         <v>287</v>
       </c>
       <c r="U84" t="s">
-        <v>437</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85">
@@ -5001,7 +5578,7 @@
         <v>271</v>
       </c>
       <c r="U85" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="86">
@@ -5009,7 +5586,7 @@
         <v>272</v>
       </c>
       <c r="U86" t="s">
-        <v>203</v>
+        <v>438</v>
       </c>
     </row>
     <row r="87">
@@ -5017,7 +5594,7 @@
         <v>304</v>
       </c>
       <c r="U87" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88">
@@ -5025,7 +5602,7 @@
         <v>310</v>
       </c>
       <c r="U88" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89">
@@ -5033,7 +5610,7 @@
         <v>294</v>
       </c>
       <c r="U89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90">
@@ -5041,7 +5618,7 @@
         <v>339</v>
       </c>
       <c r="U90" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
@@ -5049,7 +5626,7 @@
         <v>276</v>
       </c>
       <c r="U91" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92">
@@ -5057,126 +5634,131 @@
         <v>277</v>
       </c>
       <c r="U92" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>441</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>162</v>
+        <v>441</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -20,36 +20,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="553">
   <si>
     <t>description</t>
   </si>
@@ -1705,6 +1706,24 @@
   </si>
   <si>
     <t>deselect(locator,text)</t>
+  </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
   </si>
 </sst>
 </file>
@@ -1712,7 +1731,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="73" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2077,8 +2096,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2556,8 +2676,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -3441,6 +3714,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3448,7 +4003,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3683,49 +4238,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="44" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="75" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4110,7 +4713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4129,75 +4732,78 @@
         <v>370</v>
       </c>
       <c r="C1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>346</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>332</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>195</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>238</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>395</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>411</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>412</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>356</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>396</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>53</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>54</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>413</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4209,1556 +4815,1576 @@
         <v>371</v>
       </c>
       <c r="C2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>71</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>504</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>78</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>348</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>314</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>383</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>432</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>416</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>429</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>252</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>216</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>397</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>418</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>419</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>380</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>406</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>96</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>170</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>175</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>182</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>431</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>547</v>
       </c>
       <c r="B3" t="s">
         <v>372</v>
       </c>
       <c r="C3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D3" t="s">
         <v>544</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>364</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>87</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>349</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>340</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>333</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>85</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>430</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>239</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>217</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>398</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>420</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>381</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>407</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>97</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>171</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>176</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>363</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>183</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>373</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>386</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>505</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>350</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>237</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>334</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>240</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>218</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>399</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>421</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>357</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>408</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>353</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>172</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>177</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>183</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>423</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>374</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>545</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>442</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>335</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>510</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>347</v>
       </c>
-      <c r="I5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>550</v>
+      </c>
+      <c r="L5" t="s">
         <v>86</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>241</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>219</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>400</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>422</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>358</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>354</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>173</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>178</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>184</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>424</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>375</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>387</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>506</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>242</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>390</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>401</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>360</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>98</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>446</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>179</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>185</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>425</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>223</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>365</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>502</v>
       </c>
-      <c r="I7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
         <v>314</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>243</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>417</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>402</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>359</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>99</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>447</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>180</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>186</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>426</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>377</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>317</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>366</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>327</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>90</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>244</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>403</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>361</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>100</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>174</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>181</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>187</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>427</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
         <v>378</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>305</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>328</v>
       </c>
-      <c r="I9" t="s">
-        <v>389</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>91</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>245</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>404</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>362</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>208</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>188</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>314</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>351</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>507</v>
       </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>389</v>
+      </c>
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>433</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>246</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>405</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>256</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>189</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" t="s">
         <v>254</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>273</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>321</v>
       </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
         <v>444</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>92</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>247</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>257</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>258</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>318</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>262</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>322</v>
       </c>
-      <c r="I12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>248</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>101</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" t="s">
         <v>340</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>315</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>323</v>
       </c>
-      <c r="I13" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>93</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>253</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>325</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>263</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>324</v>
       </c>
-      <c r="I14" t="s">
-        <v>511</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" t="s">
         <v>43</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>94</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>249</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>102</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>264</v>
       </c>
-      <c r="I15" t="s">
-        <v>82</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>511</v>
+      </c>
+      <c r="N15" t="s">
         <v>95</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>250</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>103</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>395</v>
-      </c>
-      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
         <v>384</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>316</v>
       </c>
-      <c r="I16" t="s">
-        <v>83</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" t="s">
         <v>251</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>74</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>411</v>
-      </c>
-      <c r="C17" t="s">
+        <v>395</v>
+      </c>
+      <c r="D17" t="s">
         <v>385</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>88</v>
       </c>
-      <c r="I17" t="s">
-        <v>379</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>83</v>
+      </c>
+      <c r="V17" t="s">
         <v>104</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>412</v>
-      </c>
-      <c r="C18" t="s">
+        <v>411</v>
+      </c>
+      <c r="D18" t="s">
         <v>414</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>89</v>
       </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>379</v>
+      </c>
+      <c r="V18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>356</v>
-      </c>
-      <c r="C19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D19" t="s">
         <v>59</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>295</v>
       </c>
-      <c r="I19" t="s">
-        <v>391</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>396</v>
-      </c>
-      <c r="C20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D20" t="s">
         <v>60</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>296</v>
       </c>
-      <c r="I20" t="s">
-        <v>84</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>391</v>
+      </c>
+      <c r="V20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
+        <v>396</v>
+      </c>
+      <c r="D21" t="s">
         <v>255</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>297</v>
       </c>
-      <c r="I21" t="s">
-        <v>443</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+      <c r="V21" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
         <v>61</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>298</v>
       </c>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>443</v>
+      </c>
+      <c r="V22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
         <v>320</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>289</v>
       </c>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
         <v>62</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>278</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>413</v>
-      </c>
-      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
         <v>503</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>75</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>413</v>
+      </c>
+      <c r="D26" t="s">
+        <v>224</v>
+      </c>
+      <c r="F26" t="s">
+        <v>281</v>
+      </c>
+      <c r="V26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>226</v>
       </c>
-      <c r="C26" t="s">
-        <v>224</v>
-      </c>
-      <c r="E26" t="s">
-        <v>281</v>
-      </c>
-      <c r="U26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>225</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>265</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>415</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>282</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>63</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>283</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>64</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>215</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>65</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>274</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>66</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>284</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>67</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>259</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>68</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>329</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>69</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>306</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>70</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>260</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>307</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>266</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>77</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>211</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>288</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>299</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>300</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>342</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>341</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>210</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>319</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>338</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>367</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>301</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>355</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" t="s">
+        <v>330</v>
+      </c>
+      <c r="V52" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="52">
-      <c r="E52" t="s">
-        <v>330</v>
-      </c>
-      <c r="U52" t="s">
+    <row r="53">
+      <c r="F53" t="s">
+        <v>267</v>
+      </c>
+      <c r="V53" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="53">
-      <c r="E53" t="s">
-        <v>267</v>
-      </c>
-      <c r="U53" t="s">
+    <row r="54">
+      <c r="F54" t="s">
+        <v>291</v>
+      </c>
+      <c r="V54" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>291</v>
-      </c>
-      <c r="U54" t="s">
+    <row r="55">
+      <c r="F55" t="s">
+        <v>292</v>
+      </c>
+      <c r="V55" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="55">
-      <c r="E55" t="s">
-        <v>292</v>
-      </c>
-      <c r="U55" t="s">
+    <row r="56">
+      <c r="F56" t="s">
+        <v>293</v>
+      </c>
+      <c r="V56" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56">
-      <c r="E56" t="s">
-        <v>293</v>
-      </c>
-      <c r="U56" t="s">
+    <row r="57">
+      <c r="F57" t="s">
+        <v>302</v>
+      </c>
+      <c r="V57" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57">
-      <c r="E57" t="s">
-        <v>302</v>
-      </c>
-      <c r="U57" t="s">
+    <row r="58">
+      <c r="F58" t="s">
+        <v>311</v>
+      </c>
+      <c r="V58" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58">
-      <c r="E58" t="s">
-        <v>311</v>
-      </c>
-      <c r="U58" t="s">
+    <row r="59">
+      <c r="F59" t="s">
+        <v>336</v>
+      </c>
+      <c r="V59" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="59">
-      <c r="E59" t="s">
-        <v>336</v>
-      </c>
-      <c r="U59" t="s">
+    <row r="60">
+      <c r="F60" t="s">
+        <v>308</v>
+      </c>
+      <c r="V60" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="60">
-      <c r="E60" t="s">
-        <v>308</v>
-      </c>
-      <c r="U60" t="s">
+    <row r="61">
+      <c r="F61" t="s">
+        <v>309</v>
+      </c>
+      <c r="V61" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="61">
-      <c r="E61" t="s">
-        <v>309</v>
-      </c>
-      <c r="U61" t="s">
+    <row r="62">
+      <c r="F62" t="s">
+        <v>368</v>
+      </c>
+      <c r="V62" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="62">
-      <c r="E62" t="s">
-        <v>368</v>
-      </c>
-      <c r="U62" t="s">
+    <row r="63">
+      <c r="F63" t="s">
+        <v>369</v>
+      </c>
+      <c r="V63" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="63">
-      <c r="E63" t="s">
-        <v>369</v>
-      </c>
-      <c r="U63" t="s">
+    <row r="64">
+      <c r="F64" t="s">
+        <v>344</v>
+      </c>
+      <c r="V64" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="64">
-      <c r="E64" t="s">
-        <v>344</v>
-      </c>
-      <c r="U64" t="s">
+    <row r="65">
+      <c r="F65" t="s">
+        <v>312</v>
+      </c>
+      <c r="V65" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="65">
-      <c r="E65" t="s">
-        <v>312</v>
-      </c>
-      <c r="U65" t="s">
+    <row r="66">
+      <c r="F66" t="s">
+        <v>268</v>
+      </c>
+      <c r="V66" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66">
-      <c r="E66" t="s">
-        <v>268</v>
-      </c>
-      <c r="U66" t="s">
+    <row r="67">
+      <c r="F67" t="s">
+        <v>352</v>
+      </c>
+      <c r="V67" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="67">
-      <c r="E67" t="s">
-        <v>352</v>
-      </c>
-      <c r="U67" t="s">
+    <row r="68">
+      <c r="F68" t="s">
+        <v>313</v>
+      </c>
+      <c r="V68" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="68">
-      <c r="E68" t="s">
-        <v>313</v>
-      </c>
-      <c r="U68" t="s">
+    <row r="69">
+      <c r="F69" t="s">
+        <v>409</v>
+      </c>
+      <c r="V69" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="69">
-      <c r="E69" t="s">
-        <v>409</v>
-      </c>
-      <c r="U69" t="s">
+    <row r="70">
+      <c r="F70" t="s">
+        <v>303</v>
+      </c>
+      <c r="V70" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="70">
-      <c r="E70" t="s">
-        <v>303</v>
-      </c>
-      <c r="U70" t="s">
+    <row r="71">
+      <c r="F71" t="s">
+        <v>410</v>
+      </c>
+      <c r="V71" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="71">
-      <c r="E71" t="s">
-        <v>410</v>
-      </c>
-      <c r="U71" t="s">
+    <row r="72">
+      <c r="F72" t="s">
+        <v>261</v>
+      </c>
+      <c r="V72" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="72">
-      <c r="E72" t="s">
-        <v>261</v>
-      </c>
-      <c r="U72" t="s">
+    <row r="73">
+      <c r="F73" t="s">
+        <v>343</v>
+      </c>
+      <c r="V73" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="73">
-      <c r="E73" t="s">
-        <v>343</v>
-      </c>
-      <c r="U73" t="s">
+    <row r="74">
+      <c r="F74" t="s">
+        <v>279</v>
+      </c>
+      <c r="V74" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="74">
-      <c r="E74" t="s">
-        <v>279</v>
-      </c>
-      <c r="U74" t="s">
+    <row r="75">
+      <c r="F75" t="s">
+        <v>285</v>
+      </c>
+      <c r="V75" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="75">
-      <c r="E75" t="s">
-        <v>285</v>
-      </c>
-      <c r="U75" t="s">
+    <row r="76">
+      <c r="F76" t="s">
+        <v>290</v>
+      </c>
+      <c r="V76" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="76">
-      <c r="E76" t="s">
-        <v>290</v>
-      </c>
-      <c r="U76" t="s">
+    <row r="77">
+      <c r="F77" t="s">
+        <v>428</v>
+      </c>
+      <c r="V77" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="77">
-      <c r="E77" t="s">
-        <v>428</v>
-      </c>
-      <c r="U77" t="s">
+    <row r="78">
+      <c r="F78" t="s">
+        <v>331</v>
+      </c>
+      <c r="V78" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="78">
-      <c r="E78" t="s">
-        <v>331</v>
-      </c>
-      <c r="U78" t="s">
+    <row r="79">
+      <c r="F79" t="s">
+        <v>269</v>
+      </c>
+      <c r="V79" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="79">
-      <c r="E79" t="s">
-        <v>269</v>
-      </c>
-      <c r="U79" t="s">
+    <row r="80">
+      <c r="F80" t="s">
+        <v>280</v>
+      </c>
+      <c r="V80" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="80">
-      <c r="E80" t="s">
-        <v>280</v>
-      </c>
-      <c r="U80" t="s">
+    <row r="81">
+      <c r="F81" t="s">
+        <v>286</v>
+      </c>
+      <c r="V81" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="81">
-      <c r="E81" t="s">
-        <v>286</v>
-      </c>
-      <c r="U81" t="s">
+    <row r="82">
+      <c r="F82" t="s">
+        <v>275</v>
+      </c>
+      <c r="V82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="82">
-      <c r="E82" t="s">
-        <v>275</v>
-      </c>
-      <c r="U82" t="s">
+    <row r="83">
+      <c r="F83" t="s">
+        <v>270</v>
+      </c>
+      <c r="V83" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="83">
-      <c r="E83" t="s">
-        <v>270</v>
-      </c>
-      <c r="U83" t="s">
+    <row r="84">
+      <c r="F84" t="s">
+        <v>287</v>
+      </c>
+      <c r="V84" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="84">
-      <c r="E84" t="s">
-        <v>287</v>
-      </c>
-      <c r="U84" t="s">
+    <row r="85">
+      <c r="F85" t="s">
+        <v>271</v>
+      </c>
+      <c r="V85" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="85">
-      <c r="E85" t="s">
-        <v>271</v>
-      </c>
-      <c r="U85" t="s">
+    <row r="86">
+      <c r="F86" t="s">
+        <v>272</v>
+      </c>
+      <c r="V86" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="86">
-      <c r="E86" t="s">
-        <v>272</v>
-      </c>
-      <c r="U86" t="s">
+    <row r="87">
+      <c r="F87" t="s">
+        <v>304</v>
+      </c>
+      <c r="V87" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="87">
-      <c r="E87" t="s">
-        <v>304</v>
-      </c>
-      <c r="U87" t="s">
+    <row r="88">
+      <c r="F88" t="s">
+        <v>310</v>
+      </c>
+      <c r="V88" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="88">
-      <c r="E88" t="s">
-        <v>310</v>
-      </c>
-      <c r="U88" t="s">
+    <row r="89">
+      <c r="F89" t="s">
+        <v>294</v>
+      </c>
+      <c r="V89" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="89">
-      <c r="E89" t="s">
-        <v>294</v>
-      </c>
-      <c r="U89" t="s">
+    <row r="90">
+      <c r="F90" t="s">
+        <v>339</v>
+      </c>
+      <c r="V90" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="90">
-      <c r="E90" t="s">
-        <v>339</v>
-      </c>
-      <c r="U90" t="s">
+    <row r="91">
+      <c r="F91" t="s">
+        <v>276</v>
+      </c>
+      <c r="V91" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="91">
-      <c r="E91" t="s">
-        <v>276</v>
-      </c>
-      <c r="U91" t="s">
+    <row r="92">
+      <c r="F92" t="s">
+        <v>277</v>
+      </c>
+      <c r="V92" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="92">
-      <c r="E92" t="s">
-        <v>277</v>
-      </c>
-      <c r="U92" t="s">
+    <row r="93">
+      <c r="V93" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93">
-      <c r="U93" t="s">
+    <row r="94">
+      <c r="V94" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="94">
-      <c r="U94" t="s">
+    <row r="95">
+      <c r="V95" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="95">
-      <c r="U95" t="s">
+    <row r="96">
+      <c r="V96" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="96">
-      <c r="U96" t="s">
+    <row r="97">
+      <c r="V97" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="97">
-      <c r="U97" t="s">
+    <row r="98">
+      <c r="V98" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="98">
-      <c r="U98" t="s">
+    <row r="99">
+      <c r="V99" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="99">
-      <c r="U99" t="s">
+    <row r="100">
+      <c r="V100" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="100">
-      <c r="U100" t="s">
+    <row r="101">
+      <c r="V101" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="101">
-      <c r="U101" t="s">
+    <row r="102">
+      <c r="V102" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="102">
-      <c r="U102" t="s">
+    <row r="103">
+      <c r="V103" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="103">
-      <c r="U103" t="s">
+    <row r="104">
+      <c r="V104" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="104">
-      <c r="U104" t="s">
+    <row r="105">
+      <c r="V105" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="105">
-      <c r="U105" t="s">
+    <row r="106">
+      <c r="V106" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="106">
-      <c r="U106" t="s">
+    <row r="107">
+      <c r="V107" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="107">
-      <c r="U107" t="s">
+    <row r="108">
+      <c r="V108" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="108">
-      <c r="U108" t="s">
+    <row r="109">
+      <c r="V109" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="109">
-      <c r="U109" t="s">
+    <row r="110">
+      <c r="V110" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="110">
-      <c r="U110" t="s">
+    <row r="111">
+      <c r="V111" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="111">
-      <c r="U111" t="s">
+    <row r="112">
+      <c r="V112" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="112">
-      <c r="U112" t="s">
+    <row r="113">
+      <c r="V113" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="113">
-      <c r="U113" t="s">
+    <row r="114">
+      <c r="V114" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="114">
-      <c r="U114" t="s">
+    <row r="115">
+      <c r="V115" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="115">
-      <c r="U115" t="s">
+    <row r="116">
+      <c r="V116" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="116">
-      <c r="U116" t="s">
+    <row r="117">
+      <c r="V117" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="117">
-      <c r="U117" t="s">
+    <row r="118">
+      <c r="V118" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -27,7 +27,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="554">
   <si>
     <t>description</t>
   </si>
@@ -1724,6 +1724,9 @@
   </si>
   <si>
     <t>upload(url,body,fileParams,var)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1734,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="73" x14ac:knownFonts="1">
+  <fonts count="89" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2197,8 +2200,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2829,8 +2933,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -3996,6 +4253,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4003,7 +4542,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="118">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4283,52 +4822,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="59" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="60" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="96" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="63" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="102" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="105" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="123" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="129" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="132" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4833,7 +5420,7 @@
         <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>348</v>
+        <v>553</v>
       </c>
       <c r="J2" t="s">
         <v>314</v>
@@ -4916,7 +5503,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J3" t="s">
         <v>340</v>
@@ -4987,7 +5574,7 @@
         <v>505</v>
       </c>
       <c r="I4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J4" t="s">
         <v>237</v>
@@ -5058,7 +5645,7 @@
         <v>510</v>
       </c>
       <c r="I5" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="J5" t="s">
         <v>550</v>
@@ -5118,6 +5705,9 @@
       </c>
       <c r="G6" t="s">
         <v>506</v>
+      </c>
+      <c r="I6" t="s">
+        <v>347</v>
       </c>
       <c r="J6" t="s">
         <v>71</v>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4158" uniqueCount="558">
   <si>
     <t>description</t>
   </si>
@@ -1727,6 +1727,18 @@
   </si>
   <si>
     <t>colorbit(source,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1746,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="89" x14ac:knownFonts="1">
+  <fonts count="121" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2301,8 +2313,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3086,8 +3300,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4535,6 +5055,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4542,7 +5626,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="150">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4870,52 +5954,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="75" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="76" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="123" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="123" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="79" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="129" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="129" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="132" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="132" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="91" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="92" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="150" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="95" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="156" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="159" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5300,7 +6480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6168,7 +7348,7 @@
         <v>295</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>557</v>
       </c>
       <c r="V19" t="s">
         <v>106</v>
@@ -6185,7 +7365,7 @@
         <v>296</v>
       </c>
       <c r="J20" t="s">
-        <v>391</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>107</v>
@@ -6202,7 +7382,7 @@
         <v>297</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>391</v>
       </c>
       <c r="V21" t="s">
         <v>108</v>
@@ -6219,7 +7399,7 @@
         <v>298</v>
       </c>
       <c r="J22" t="s">
-        <v>443</v>
+        <v>84</v>
       </c>
       <c r="V22" t="s">
         <v>109</v>
@@ -6236,7 +7416,7 @@
         <v>289</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>443</v>
       </c>
       <c r="V23" t="s">
         <v>110</v>
@@ -6253,7 +7433,7 @@
         <v>278</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s">
         <v>111</v>
@@ -6269,6 +7449,9 @@
       <c r="F25" t="s">
         <v>75</v>
       </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
       <c r="V25" t="s">
         <v>112</v>
       </c>
@@ -6303,7 +7486,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>415</v>
+        <v>554</v>
       </c>
       <c r="F28" t="s">
         <v>282</v>
@@ -6314,7 +7497,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>63</v>
+        <v>555</v>
       </c>
       <c r="F29" t="s">
         <v>283</v>
@@ -6325,7 +7508,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>64</v>
+        <v>415</v>
       </c>
       <c r="F30" t="s">
         <v>215</v>
@@ -6336,7 +7519,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
         <v>274</v>
@@ -6347,7 +7530,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
         <v>284</v>
@@ -6358,7 +7541,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F33" t="s">
         <v>259</v>
@@ -6369,7 +7552,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F34" t="s">
         <v>329</v>
@@ -6380,7 +7563,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
         <v>306</v>
@@ -6391,7 +7574,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
         <v>260</v>
@@ -6401,6 +7584,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
       <c r="F37" t="s">
         <v>307</v>
       </c>
@@ -6409,6 +7595,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>70</v>
+      </c>
       <c r="F38" t="s">
         <v>266</v>
       </c>
@@ -6693,7 +7882,7 @@
         <v>343</v>
       </c>
       <c r="V73" t="s">
-        <v>142</v>
+        <v>556</v>
       </c>
     </row>
     <row r="74">
@@ -6701,7 +7890,7 @@
         <v>279</v>
       </c>
       <c r="V74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75">
@@ -6709,7 +7898,7 @@
         <v>285</v>
       </c>
       <c r="V75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76">
@@ -6717,7 +7906,7 @@
         <v>290</v>
       </c>
       <c r="V76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77">
@@ -6725,7 +7914,7 @@
         <v>428</v>
       </c>
       <c r="V77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78">
@@ -6733,7 +7922,7 @@
         <v>331</v>
       </c>
       <c r="V78" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79">
@@ -6741,7 +7930,7 @@
         <v>269</v>
       </c>
       <c r="V79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80">
@@ -6749,7 +7938,7 @@
         <v>280</v>
       </c>
       <c r="V80" t="s">
-        <v>508</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81">
@@ -6757,7 +7946,7 @@
         <v>286</v>
       </c>
       <c r="V81" t="s">
-        <v>200</v>
+        <v>508</v>
       </c>
     </row>
     <row r="82">
@@ -6765,7 +7954,7 @@
         <v>275</v>
       </c>
       <c r="V82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -6773,7 +7962,7 @@
         <v>270</v>
       </c>
       <c r="V83" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84">
@@ -6781,7 +7970,7 @@
         <v>287</v>
       </c>
       <c r="V84" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85">
@@ -6789,7 +7978,7 @@
         <v>271</v>
       </c>
       <c r="V85" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86">
@@ -6797,7 +7986,7 @@
         <v>272</v>
       </c>
       <c r="V86" t="s">
-        <v>437</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87">
@@ -6805,7 +7994,7 @@
         <v>304</v>
       </c>
       <c r="V87" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="88">
@@ -6813,7 +8002,7 @@
         <v>310</v>
       </c>
       <c r="V88" t="s">
-        <v>203</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89">
@@ -6821,7 +8010,7 @@
         <v>294</v>
       </c>
       <c r="V89" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90">
@@ -6829,7 +8018,7 @@
         <v>339</v>
       </c>
       <c r="V90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91">
@@ -6837,7 +8026,7 @@
         <v>276</v>
       </c>
       <c r="V91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92">
@@ -6845,136 +8034,141 @@
         <v>277</v>
       </c>
       <c r="V92" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>441</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>162</v>
+        <v>441</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -26,31 +26,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4158" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4652" uniqueCount="572">
   <si>
     <t>description</t>
   </si>
@@ -1739,6 +1740,48 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1789,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="121" x14ac:knownFonts="1">
+  <fonts count="137" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2515,8 +2558,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3606,8 +3750,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5619,6 +5916,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5626,7 +6205,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="166">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6050,52 +6629,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="107" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="108" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="177" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="111" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="183" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="186" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="204" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="210" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="213" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6480,7 +7107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6529,48 +7156,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>558</v>
+      </c>
+      <c r="N1" t="s">
         <v>195</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>238</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>395</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>411</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>412</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>356</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>396</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>53</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>54</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>413</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6612,48 +7242,51 @@
         <v>432</v>
       </c>
       <c r="M2" t="s">
+        <v>563</v>
+      </c>
+      <c r="N2" t="s">
         <v>416</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>429</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>252</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>216</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>397</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>418</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>419</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>380</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>406</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>96</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>170</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>175</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>182</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>431</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6680,7 +7313,7 @@
         <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>559</v>
       </c>
       <c r="I3" t="s">
         <v>348</v>
@@ -6694,43 +7327,46 @@
       <c r="L3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>564</v>
+      </c>
+      <c r="O3" t="s">
         <v>430</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>239</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>217</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>398</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>420</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>381</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>407</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>97</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>171</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>176</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>363</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>183</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6753,6 +7389,9 @@
       <c r="G4" t="s">
         <v>505</v>
       </c>
+      <c r="H4" t="s">
+        <v>560</v>
+      </c>
       <c r="I4" t="s">
         <v>349</v>
       </c>
@@ -6765,43 +7404,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>565</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>240</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>218</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>399</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>421</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>357</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>408</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>353</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>172</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>177</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>183</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>423</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6833,40 +7475,40 @@
       <c r="L5" t="s">
         <v>86</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>241</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>219</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>400</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>422</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>358</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>354</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>173</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>178</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>184</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>424</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6895,37 +7537,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>242</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>390</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>401</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>360</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>98</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>446</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>179</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>185</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>425</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6951,37 +7593,37 @@
       <c r="L7" t="s">
         <v>314</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>243</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>417</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>402</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>359</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>99</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>447</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>180</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>186</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>426</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>232</v>
       </c>
     </row>
@@ -7007,34 +7649,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>90</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>244</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>403</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>361</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>100</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>174</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>181</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>187</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>427</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>233</v>
       </c>
     </row>
@@ -7060,26 +7702,26 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>91</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>245</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>404</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>362</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>208</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>188</v>
       </c>
-      <c r="AA9" t="s">
-        <v>234</v>
+      <c r="AB9" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="10">
@@ -7101,23 +7743,23 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>433</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>246</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>405</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>256</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>189</v>
       </c>
-      <c r="AA10" t="s">
-        <v>235</v>
+      <c r="AB10" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="11">
@@ -7137,22 +7779,22 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>444</v>
-      </c>
-      <c r="N11" t="s">
+        <v>561</v>
+      </c>
+      <c r="O11" t="s">
         <v>92</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>247</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>257</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>258</v>
       </c>
-      <c r="AA11" t="s">
-        <v>236</v>
+      <c r="AB11" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="12">
@@ -7172,24 +7814,27 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" t="s">
+        <v>444</v>
+      </c>
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>248</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>101</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>190</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>558</v>
       </c>
       <c r="D13" t="s">
         <v>340</v>
@@ -7204,24 +7849,27 @@
         <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" t="s">
+        <v>562</v>
+      </c>
+      <c r="O13" t="s">
         <v>93</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>253</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>325</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>191</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -7236,24 +7884,24 @@
         <v>81</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" t="s">
         <v>94</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>249</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>102</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>58</v>
@@ -7264,22 +7912,25 @@
       <c r="J15" t="s">
         <v>511</v>
       </c>
-      <c r="N15" t="s">
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" t="s">
         <v>95</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>250</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>103</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="D16" t="s">
         <v>384</v>
@@ -7290,19 +7941,22 @@
       <c r="J16" t="s">
         <v>82</v>
       </c>
-      <c r="O16" t="s">
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" t="s">
         <v>251</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>74</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>395</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
         <v>385</v>
@@ -7313,16 +7967,16 @@
       <c r="J17" t="s">
         <v>83</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>104</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="D18" t="s">
         <v>414</v>
@@ -7333,13 +7987,13 @@
       <c r="J18" t="s">
         <v>379</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
@@ -7350,13 +8004,13 @@
       <c r="J19" t="s">
         <v>557</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="D20" t="s">
         <v>60</v>
@@ -7367,13 +8021,13 @@
       <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="D21" t="s">
         <v>255</v>
@@ -7384,13 +8038,13 @@
       <c r="J21" t="s">
         <v>391</v>
       </c>
-      <c r="V21" t="s">
-        <v>108</v>
+      <c r="W21" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>396</v>
       </c>
       <c r="D22" t="s">
         <v>61</v>
@@ -7401,13 +8055,13 @@
       <c r="J22" t="s">
         <v>84</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
         <v>320</v>
@@ -7418,13 +8072,13 @@
       <c r="J23" t="s">
         <v>443</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
         <v>62</v>
@@ -7435,13 +8089,13 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>503</v>
@@ -7452,13 +8106,13 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>413</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
         <v>224</v>
@@ -7466,13 +8120,13 @@
       <c r="F26" t="s">
         <v>281</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="D27" t="s">
         <v>225</v>
@@ -7480,18 +8134,21 @@
       <c r="F27" t="s">
         <v>265</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>226</v>
+      </c>
       <c r="D28" t="s">
         <v>554</v>
       </c>
       <c r="F28" t="s">
         <v>282</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7502,7 +8159,7 @@
       <c r="F29" t="s">
         <v>283</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7513,7 +8170,7 @@
       <c r="F30" t="s">
         <v>215</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>116</v>
       </c>
     </row>
@@ -7524,7 +8181,7 @@
       <c r="F31" t="s">
         <v>274</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7535,7 +8192,7 @@
       <c r="F32" t="s">
         <v>284</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7546,7 +8203,7 @@
       <c r="F33" t="s">
         <v>259</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>119</v>
       </c>
     </row>
@@ -7557,7 +8214,7 @@
       <c r="F34" t="s">
         <v>329</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>209</v>
       </c>
     </row>
@@ -7568,7 +8225,7 @@
       <c r="F35" t="s">
         <v>306</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7579,7 +8236,7 @@
       <c r="F36" t="s">
         <v>260</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7590,7 +8247,7 @@
       <c r="F37" t="s">
         <v>307</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>434</v>
       </c>
     </row>
@@ -7601,7 +8258,7 @@
       <c r="F38" t="s">
         <v>266</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>392</v>
       </c>
     </row>
@@ -7609,7 +8266,7 @@
       <c r="F39" t="s">
         <v>77</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7617,7 +8274,7 @@
       <c r="F40" t="s">
         <v>211</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>122</v>
       </c>
     </row>
@@ -7625,7 +8282,7 @@
       <c r="F41" t="s">
         <v>288</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7633,7 +8290,7 @@
       <c r="F42" t="s">
         <v>299</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -7641,7 +8298,7 @@
       <c r="F43" t="s">
         <v>300</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7649,7 +8306,7 @@
       <c r="F44" t="s">
         <v>342</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -7657,7 +8314,7 @@
       <c r="F45" t="s">
         <v>341</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>440</v>
       </c>
     </row>
@@ -7665,7 +8322,7 @@
       <c r="F46" t="s">
         <v>210</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>212</v>
       </c>
     </row>
@@ -7673,7 +8330,7 @@
       <c r="F47" t="s">
         <v>319</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>76</v>
       </c>
     </row>
@@ -7681,7 +8338,7 @@
       <c r="F48" t="s">
         <v>338</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>127</v>
       </c>
     </row>
@@ -7689,7 +8346,7 @@
       <c r="F49" t="s">
         <v>367</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>128</v>
       </c>
     </row>
@@ -7697,7 +8354,7 @@
       <c r="F50" t="s">
         <v>301</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7705,470 +8362,485 @@
       <c r="F51" t="s">
         <v>355</v>
       </c>
-      <c r="V51" t="s">
-        <v>551</v>
+      <c r="W51" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>330</v>
       </c>
-      <c r="V52" t="s">
-        <v>130</v>
+      <c r="W52" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>267</v>
       </c>
-      <c r="V53" t="s">
-        <v>345</v>
+      <c r="W53" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>291</v>
       </c>
-      <c r="V54" t="s">
-        <v>546</v>
+      <c r="W54" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>292</v>
       </c>
-      <c r="V55" t="s">
-        <v>131</v>
+      <c r="W55" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>293</v>
       </c>
-      <c r="V56" t="s">
-        <v>132</v>
+      <c r="W56" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>302</v>
       </c>
-      <c r="V57" t="s">
-        <v>133</v>
+      <c r="W57" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>311</v>
       </c>
-      <c r="V58" t="s">
-        <v>134</v>
+      <c r="W58" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>336</v>
       </c>
-      <c r="V59" t="s">
-        <v>135</v>
+      <c r="W59" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>308</v>
       </c>
-      <c r="V60" t="s">
-        <v>136</v>
+      <c r="W60" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>309</v>
       </c>
-      <c r="V61" t="s">
-        <v>137</v>
+      <c r="W61" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>368</v>
       </c>
-      <c r="V62" t="s">
-        <v>439</v>
+      <c r="W62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>369</v>
       </c>
-      <c r="V63" t="s">
-        <v>213</v>
+      <c r="W63" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>344</v>
       </c>
-      <c r="V64" t="s">
-        <v>388</v>
+      <c r="W64" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>312</v>
       </c>
-      <c r="V65" t="s">
-        <v>445</v>
+      <c r="W65" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>268</v>
       </c>
-      <c r="V66" t="s">
-        <v>138</v>
+      <c r="W66" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>352</v>
       </c>
-      <c r="V67" t="s">
-        <v>139</v>
+      <c r="W67" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>313</v>
       </c>
-      <c r="V68" t="s">
-        <v>140</v>
+      <c r="W68" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>409</v>
       </c>
-      <c r="V69" t="s">
-        <v>141</v>
+      <c r="W69" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>303</v>
       </c>
-      <c r="V70" t="s">
-        <v>196</v>
+      <c r="W70" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>410</v>
       </c>
-      <c r="V71" t="s">
-        <v>197</v>
+      <c r="W71" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>261</v>
       </c>
-      <c r="V72" t="s">
-        <v>509</v>
+      <c r="W72" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>343</v>
       </c>
-      <c r="V73" t="s">
-        <v>556</v>
+      <c r="W73" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>279</v>
       </c>
-      <c r="V74" t="s">
-        <v>142</v>
+      <c r="W74" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>285</v>
       </c>
-      <c r="V75" t="s">
-        <v>143</v>
+      <c r="W75" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>290</v>
       </c>
-      <c r="V76" t="s">
-        <v>144</v>
+      <c r="W76" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>428</v>
       </c>
-      <c r="V77" t="s">
-        <v>145</v>
+      <c r="W77" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>331</v>
       </c>
-      <c r="V78" t="s">
-        <v>146</v>
+      <c r="W78" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>269</v>
       </c>
-      <c r="V79" t="s">
-        <v>198</v>
+      <c r="W79" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>280</v>
       </c>
-      <c r="V80" t="s">
-        <v>199</v>
+      <c r="W80" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>286</v>
       </c>
-      <c r="V81" t="s">
-        <v>508</v>
+      <c r="W81" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>275</v>
       </c>
-      <c r="V82" t="s">
-        <v>200</v>
+      <c r="W82" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>270</v>
       </c>
-      <c r="V83" t="s">
-        <v>201</v>
+      <c r="W83" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>287</v>
       </c>
-      <c r="V84" t="s">
-        <v>214</v>
+      <c r="W84" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>271</v>
       </c>
-      <c r="V85" t="s">
-        <v>147</v>
+      <c r="W85" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>272</v>
       </c>
-      <c r="V86" t="s">
-        <v>202</v>
+      <c r="W86" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>304</v>
       </c>
-      <c r="V87" t="s">
-        <v>437</v>
+      <c r="W87" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>310</v>
       </c>
-      <c r="V88" t="s">
-        <v>438</v>
+      <c r="W88" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>294</v>
       </c>
-      <c r="V89" t="s">
-        <v>203</v>
+      <c r="W89" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>339</v>
       </c>
-      <c r="V90" t="s">
-        <v>204</v>
+      <c r="W90" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>276</v>
       </c>
-      <c r="V91" t="s">
-        <v>205</v>
+      <c r="W91" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>277</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="W95" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -20,38 +20,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4652" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6177" uniqueCount="589">
   <si>
     <t>description</t>
   </si>
@@ -1782,6 +1783,57 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1841,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="137" x14ac:knownFonts="1">
+  <fonts count="185" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2659,8 +2711,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3903,8 +4258,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -6198,6 +7012,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6205,7 +7865,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="214">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6677,52 +8337,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="123" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="124" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="204" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="204" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="127" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="210" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="210" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="213" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="213" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="139" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="140" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="231" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="143" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="237" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="240" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="155" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="156" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="258" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="158" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="159" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="264" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="267" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="285" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="291" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="294" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7107,7 +8911,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7129,78 +8933,81 @@
         <v>547</v>
       </c>
       <c r="D1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>346</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>332</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>558</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>195</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>238</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>395</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>411</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>412</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>356</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>396</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>53</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>413</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -7215,79 +9022,82 @@
         <v>548</v>
       </c>
       <c r="D2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>504</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>78</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>553</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>314</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>383</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>432</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>563</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>416</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>429</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>252</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>216</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>397</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>418</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>419</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>380</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>406</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>96</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>170</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>175</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>182</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>431</v>
       </c>
-      <c r="AB2" t="s">
-        <v>227</v>
+      <c r="AC2" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="3">
@@ -7301,1546 +9111,1595 @@
         <v>549</v>
       </c>
       <c r="D3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E3" t="s">
         <v>544</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>364</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>87</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>48</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>559</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>348</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>340</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>333</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>85</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>564</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>430</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>239</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>217</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>398</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>420</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>381</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>407</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>97</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>171</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>176</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>363</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>183</v>
       </c>
-      <c r="AB3" t="s">
-        <v>228</v>
+      <c r="AC3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>572</v>
       </c>
       <c r="B4" t="s">
         <v>373</v>
       </c>
       <c r="D4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>72</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>386</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>505</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>560</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>349</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>237</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>334</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>565</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>240</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>218</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>399</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>421</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>357</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>408</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>353</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>172</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>177</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>183</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>423</v>
       </c>
-      <c r="AB4" t="s">
-        <v>229</v>
+      <c r="AC4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>374</v>
       </c>
       <c r="D5" t="s">
+        <v>576</v>
+      </c>
+      <c r="E5" t="s">
         <v>545</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>442</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>335</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>510</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>350</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>550</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>86</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>241</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>219</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>400</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>422</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>358</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>354</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>173</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>178</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>184</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>424</v>
       </c>
-      <c r="AB5" t="s">
-        <v>230</v>
+      <c r="AC5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>375</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>387</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>506</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>347</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>71</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>242</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>390</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>401</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>360</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>98</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>446</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>179</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>185</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>425</v>
       </c>
-      <c r="AB6" t="s">
-        <v>231</v>
+      <c r="AC6" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>223</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>365</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>502</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>314</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>243</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>417</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>402</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>359</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>99</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>447</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>180</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>186</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>426</v>
       </c>
-      <c r="AB7" t="s">
-        <v>232</v>
+      <c r="AC7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>377</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>317</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>366</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>327</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>79</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>90</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>244</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>403</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>361</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>100</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>174</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>181</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>187</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>427</v>
       </c>
-      <c r="AB8" t="s">
-        <v>233</v>
+      <c r="AC8" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>378</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>305</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>328</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>91</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>245</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>404</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>362</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>208</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>188</v>
       </c>
-      <c r="AB9" t="s">
-        <v>570</v>
+      <c r="AC9" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" t="s">
         <v>314</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>351</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>507</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>389</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>433</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>246</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>405</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>256</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>189</v>
       </c>
-      <c r="AB10" t="s">
-        <v>571</v>
+      <c r="AC10" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>332</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>254</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>273</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>321</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>561</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>92</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>247</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>257</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>258</v>
       </c>
-      <c r="AB11" t="s">
-        <v>234</v>
+      <c r="AC11" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E12" t="s">
         <v>318</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>262</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>322</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>444</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>248</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>101</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>190</v>
       </c>
-      <c r="AB12" t="s">
-        <v>235</v>
+      <c r="AC12" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>558</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>340</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>315</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>323</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>80</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>562</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>93</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>253</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>325</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>191</v>
       </c>
-      <c r="AB13" t="s">
-        <v>236</v>
+      <c r="AC13" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" t="s">
+        <v>558</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>263</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>324</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>81</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>94</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>249</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>102</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>192</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>264</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>511</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
-        <v>95</v>
-      </c>
       <c r="P15" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q15" t="s">
         <v>250</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>103</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>193</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
         <v>384</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>316</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>82</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>43</v>
       </c>
       <c r="P16" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q16" t="s">
         <v>251</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>74</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>194</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" t="s">
         <v>385</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>88</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>83</v>
       </c>
-      <c r="W17" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="X17" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA17" t="s">
         <v>552</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>395</v>
-      </c>
-      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
         <v>414</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>89</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>379</v>
       </c>
-      <c r="W18" t="s">
-        <v>105</v>
+      <c r="X18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>411</v>
-      </c>
-      <c r="D19" t="s">
+        <v>395</v>
+      </c>
+      <c r="E19" t="s">
         <v>59</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>295</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>557</v>
       </c>
-      <c r="W19" t="s">
-        <v>106</v>
+      <c r="X19" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>412</v>
-      </c>
-      <c r="D20" t="s">
+        <v>411</v>
+      </c>
+      <c r="E20" t="s">
         <v>60</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>296</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>44</v>
       </c>
-      <c r="W20" t="s">
-        <v>107</v>
+      <c r="X20" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>356</v>
-      </c>
-      <c r="D21" t="s">
+        <v>412</v>
+      </c>
+      <c r="E21" t="s">
         <v>255</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>297</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>391</v>
       </c>
-      <c r="W21" t="s">
-        <v>566</v>
+      <c r="X21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>396</v>
-      </c>
-      <c r="D22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E22" t="s">
         <v>61</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>298</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>84</v>
       </c>
-      <c r="W22" t="s">
-        <v>109</v>
+      <c r="X22" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
+        <v>396</v>
+      </c>
+      <c r="E23" t="s">
         <v>320</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>289</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>443</v>
       </c>
-      <c r="W23" t="s">
-        <v>110</v>
+      <c r="X23" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
         <v>62</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>278</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>45</v>
       </c>
-      <c r="W24" t="s">
-        <v>111</v>
+      <c r="X24" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
         <v>503</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>75</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
-        <v>112</v>
+      <c r="X25" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
         <v>224</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>281</v>
       </c>
-      <c r="W26" t="s">
-        <v>113</v>
+      <c r="X26" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>413</v>
-      </c>
-      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
         <v>225</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>265</v>
       </c>
-      <c r="W27" t="s">
-        <v>326</v>
+      <c r="X27" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>413</v>
+      </c>
+      <c r="E28" t="s">
+        <v>554</v>
+      </c>
+      <c r="G28" t="s">
+        <v>282</v>
+      </c>
+      <c r="X28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>226</v>
       </c>
-      <c r="D28" t="s">
-        <v>554</v>
-      </c>
-      <c r="F28" t="s">
-        <v>282</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="E29" t="s">
+        <v>555</v>
+      </c>
+      <c r="G29" t="s">
+        <v>283</v>
+      </c>
+      <c r="X29" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29">
-      <c r="D29" t="s">
-        <v>555</v>
-      </c>
-      <c r="F29" t="s">
-        <v>283</v>
-      </c>
-      <c r="W29" t="s">
+    <row r="30">
+      <c r="E30" t="s">
+        <v>415</v>
+      </c>
+      <c r="G30" t="s">
+        <v>215</v>
+      </c>
+      <c r="X30" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30">
-      <c r="D30" t="s">
-        <v>415</v>
-      </c>
-      <c r="F30" t="s">
-        <v>215</v>
-      </c>
-      <c r="W30" t="s">
+    <row r="31">
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" t="s">
+        <v>274</v>
+      </c>
+      <c r="X31" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31">
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" t="s">
-        <v>274</v>
-      </c>
-      <c r="W31" t="s">
+    <row r="32">
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" t="s">
+        <v>284</v>
+      </c>
+      <c r="X32" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32">
-      <c r="D32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" t="s">
-        <v>284</v>
-      </c>
-      <c r="W32" t="s">
+    <row r="33">
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" t="s">
+        <v>259</v>
+      </c>
+      <c r="X33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33">
-      <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>259</v>
-      </c>
-      <c r="W33" t="s">
+    <row r="34">
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" t="s">
+        <v>329</v>
+      </c>
+      <c r="X34" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34">
-      <c r="D34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" t="s">
-        <v>329</v>
-      </c>
-      <c r="W34" t="s">
+    <row r="35">
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>306</v>
+      </c>
+      <c r="X35" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="35">
-      <c r="D35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>306</v>
-      </c>
-      <c r="W35" t="s">
+    <row r="36">
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" t="s">
+        <v>260</v>
+      </c>
+      <c r="X36" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36">
-      <c r="D36" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" t="s">
-        <v>260</v>
-      </c>
-      <c r="W36" t="s">
+    <row r="37">
+      <c r="E37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" t="s">
+        <v>307</v>
+      </c>
+      <c r="X37" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="37">
-      <c r="D37" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>307</v>
-      </c>
-      <c r="W37" t="s">
+    <row r="38">
+      <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" t="s">
+        <v>266</v>
+      </c>
+      <c r="X38" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="38">
-      <c r="D38" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" t="s">
-        <v>266</v>
-      </c>
-      <c r="W38" t="s">
+    <row r="39">
+      <c r="G39" t="s">
+        <v>77</v>
+      </c>
+      <c r="X39" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="39">
-      <c r="F39" t="s">
-        <v>77</v>
-      </c>
-      <c r="W39" t="s">
+    <row r="40">
+      <c r="G40" t="s">
+        <v>211</v>
+      </c>
+      <c r="X40" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40">
-      <c r="F40" t="s">
-        <v>211</v>
-      </c>
-      <c r="W40" t="s">
+    <row r="41">
+      <c r="G41" t="s">
+        <v>288</v>
+      </c>
+      <c r="X41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="41">
-      <c r="F41" t="s">
-        <v>288</v>
-      </c>
-      <c r="W41" t="s">
+    <row r="42">
+      <c r="G42" t="s">
+        <v>299</v>
+      </c>
+      <c r="X42" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42">
-      <c r="F42" t="s">
-        <v>299</v>
-      </c>
-      <c r="W42" t="s">
+    <row r="43">
+      <c r="G43" t="s">
+        <v>300</v>
+      </c>
+      <c r="X43" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43">
-      <c r="F43" t="s">
-        <v>300</v>
-      </c>
-      <c r="W43" t="s">
+    <row r="44">
+      <c r="G44" t="s">
+        <v>342</v>
+      </c>
+      <c r="X44" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44">
-      <c r="F44" t="s">
-        <v>342</v>
-      </c>
-      <c r="W44" t="s">
+    <row r="45">
+      <c r="G45" t="s">
+        <v>341</v>
+      </c>
+      <c r="X45" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="45">
-      <c r="F45" t="s">
-        <v>341</v>
-      </c>
-      <c r="W45" t="s">
+    <row r="46">
+      <c r="G46" t="s">
+        <v>210</v>
+      </c>
+      <c r="X46" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="46">
-      <c r="F46" t="s">
-        <v>210</v>
-      </c>
-      <c r="W46" t="s">
+    <row r="47">
+      <c r="G47" t="s">
+        <v>319</v>
+      </c>
+      <c r="X47" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="47">
-      <c r="F47" t="s">
-        <v>319</v>
-      </c>
-      <c r="W47" t="s">
+    <row r="48">
+      <c r="G48" t="s">
+        <v>338</v>
+      </c>
+      <c r="X48" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48">
-      <c r="F48" t="s">
-        <v>338</v>
-      </c>
-      <c r="W48" t="s">
+    <row r="49">
+      <c r="G49" t="s">
+        <v>367</v>
+      </c>
+      <c r="X49" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="49">
-      <c r="F49" t="s">
-        <v>367</v>
-      </c>
-      <c r="W49" t="s">
+    <row r="50">
+      <c r="G50" t="s">
+        <v>301</v>
+      </c>
+      <c r="X50" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50">
-      <c r="F50" t="s">
-        <v>301</v>
-      </c>
-      <c r="W50" t="s">
+    <row r="51">
+      <c r="G51" t="s">
+        <v>355</v>
+      </c>
+      <c r="X51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51">
-      <c r="F51" t="s">
-        <v>355</v>
-      </c>
-      <c r="W51" t="s">
+    <row r="52">
+      <c r="G52" t="s">
+        <v>330</v>
+      </c>
+      <c r="X52" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="52">
-      <c r="F52" t="s">
-        <v>330</v>
-      </c>
-      <c r="W52" t="s">
+    <row r="53">
+      <c r="G53" t="s">
+        <v>267</v>
+      </c>
+      <c r="X53" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="53">
-      <c r="F53" t="s">
-        <v>267</v>
-      </c>
-      <c r="W53" t="s">
+    <row r="54">
+      <c r="G54" t="s">
+        <v>291</v>
+      </c>
+      <c r="X54" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54">
-      <c r="F54" t="s">
-        <v>291</v>
-      </c>
-      <c r="W54" t="s">
+    <row r="55">
+      <c r="G55" t="s">
+        <v>292</v>
+      </c>
+      <c r="X55" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="55">
-      <c r="F55" t="s">
-        <v>292</v>
-      </c>
-      <c r="W55" t="s">
+    <row r="56">
+      <c r="G56" t="s">
+        <v>293</v>
+      </c>
+      <c r="X56" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="56">
-      <c r="F56" t="s">
-        <v>293</v>
-      </c>
-      <c r="W56" t="s">
+    <row r="57">
+      <c r="G57" t="s">
+        <v>302</v>
+      </c>
+      <c r="X57" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="57">
-      <c r="F57" t="s">
-        <v>302</v>
-      </c>
-      <c r="W57" t="s">
+    <row r="58">
+      <c r="G58" t="s">
+        <v>311</v>
+      </c>
+      <c r="X58" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="58">
-      <c r="F58" t="s">
-        <v>311</v>
-      </c>
-      <c r="W58" t="s">
+    <row r="59">
+      <c r="G59" t="s">
+        <v>336</v>
+      </c>
+      <c r="X59" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="59">
-      <c r="F59" t="s">
-        <v>336</v>
-      </c>
-      <c r="W59" t="s">
+    <row r="60">
+      <c r="G60" t="s">
+        <v>308</v>
+      </c>
+      <c r="X60" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60">
-      <c r="F60" t="s">
-        <v>308</v>
-      </c>
-      <c r="W60" t="s">
+    <row r="61">
+      <c r="G61" t="s">
+        <v>309</v>
+      </c>
+      <c r="X61" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="61">
-      <c r="F61" t="s">
-        <v>309</v>
-      </c>
-      <c r="W61" t="s">
+    <row r="62">
+      <c r="G62" t="s">
+        <v>368</v>
+      </c>
+      <c r="X62" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="62">
-      <c r="F62" t="s">
-        <v>368</v>
-      </c>
-      <c r="W62" t="s">
+    <row r="63">
+      <c r="G63" t="s">
+        <v>369</v>
+      </c>
+      <c r="X63" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="63">
-      <c r="F63" t="s">
-        <v>369</v>
-      </c>
-      <c r="W63" t="s">
+    <row r="64">
+      <c r="G64" t="s">
+        <v>344</v>
+      </c>
+      <c r="X64" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="64">
-      <c r="F64" t="s">
-        <v>344</v>
-      </c>
-      <c r="W64" t="s">
+    <row r="65">
+      <c r="G65" t="s">
+        <v>312</v>
+      </c>
+      <c r="X65" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="65">
-      <c r="F65" t="s">
-        <v>312</v>
-      </c>
-      <c r="W65" t="s">
+    <row r="66">
+      <c r="G66" t="s">
+        <v>268</v>
+      </c>
+      <c r="X66" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="66">
-      <c r="F66" t="s">
-        <v>268</v>
-      </c>
-      <c r="W66" t="s">
+    <row r="67">
+      <c r="G67" t="s">
+        <v>352</v>
+      </c>
+      <c r="X67" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="67">
-      <c r="F67" t="s">
-        <v>352</v>
-      </c>
-      <c r="W67" t="s">
+    <row r="68">
+      <c r="G68" t="s">
+        <v>313</v>
+      </c>
+      <c r="X68" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="68">
-      <c r="F68" t="s">
-        <v>313</v>
-      </c>
-      <c r="W68" t="s">
+    <row r="69">
+      <c r="G69" t="s">
+        <v>409</v>
+      </c>
+      <c r="X69" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69">
-      <c r="F69" t="s">
-        <v>409</v>
-      </c>
-      <c r="W69" t="s">
+    <row r="70">
+      <c r="G70" t="s">
+        <v>303</v>
+      </c>
+      <c r="X70" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70">
-      <c r="F70" t="s">
-        <v>303</v>
-      </c>
-      <c r="W70" t="s">
+    <row r="71">
+      <c r="G71" t="s">
+        <v>410</v>
+      </c>
+      <c r="X71" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="71">
-      <c r="F71" t="s">
-        <v>410</v>
-      </c>
-      <c r="W71" t="s">
+    <row r="72">
+      <c r="G72" t="s">
+        <v>261</v>
+      </c>
+      <c r="X72" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="72">
-      <c r="F72" t="s">
-        <v>261</v>
-      </c>
-      <c r="W72" t="s">
+    <row r="73">
+      <c r="G73" t="s">
+        <v>343</v>
+      </c>
+      <c r="X73" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="73">
-      <c r="F73" t="s">
-        <v>343</v>
-      </c>
-      <c r="W73" t="s">
+    <row r="74">
+      <c r="G74" t="s">
+        <v>279</v>
+      </c>
+      <c r="X74" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="74">
-      <c r="F74" t="s">
-        <v>279</v>
-      </c>
-      <c r="W74" t="s">
+    <row r="75">
+      <c r="G75" t="s">
+        <v>285</v>
+      </c>
+      <c r="X75" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="75">
-      <c r="F75" t="s">
-        <v>285</v>
-      </c>
-      <c r="W75" t="s">
+    <row r="76">
+      <c r="G76" t="s">
+        <v>290</v>
+      </c>
+      <c r="X76" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="76">
-      <c r="F76" t="s">
-        <v>290</v>
-      </c>
-      <c r="W76" t="s">
+    <row r="77">
+      <c r="G77" t="s">
+        <v>428</v>
+      </c>
+      <c r="X77" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77">
-      <c r="F77" t="s">
-        <v>428</v>
-      </c>
-      <c r="W77" t="s">
+    <row r="78">
+      <c r="G78" t="s">
+        <v>331</v>
+      </c>
+      <c r="X78" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="78">
-      <c r="F78" t="s">
-        <v>331</v>
-      </c>
-      <c r="W78" t="s">
+    <row r="79">
+      <c r="G79" t="s">
+        <v>269</v>
+      </c>
+      <c r="X79" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="79">
-      <c r="F79" t="s">
-        <v>269</v>
-      </c>
-      <c r="W79" t="s">
+    <row r="80">
+      <c r="G80" t="s">
+        <v>280</v>
+      </c>
+      <c r="X80" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="G81" t="s">
+        <v>286</v>
+      </c>
+      <c r="X81" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="80">
-      <c r="F80" t="s">
-        <v>280</v>
-      </c>
-      <c r="W80" t="s">
+    <row r="82">
+      <c r="G82" t="s">
+        <v>275</v>
+      </c>
+      <c r="X82" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="81">
-      <c r="F81" t="s">
-        <v>286</v>
-      </c>
-      <c r="W81" t="s">
+    <row r="83">
+      <c r="G83" t="s">
+        <v>270</v>
+      </c>
+      <c r="X83" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="82">
-      <c r="F82" t="s">
-        <v>275</v>
-      </c>
-      <c r="W82" t="s">
+    <row r="84">
+      <c r="G84" t="s">
+        <v>287</v>
+      </c>
+      <c r="X84" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="83">
-      <c r="F83" t="s">
-        <v>270</v>
-      </c>
-      <c r="W83" t="s">
+    <row r="85">
+      <c r="G85" t="s">
+        <v>271</v>
+      </c>
+      <c r="X85" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="84">
-      <c r="F84" t="s">
-        <v>287</v>
-      </c>
-      <c r="W84" t="s">
+    <row r="86">
+      <c r="G86" t="s">
+        <v>272</v>
+      </c>
+      <c r="X86" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="85">
-      <c r="F85" t="s">
-        <v>271</v>
-      </c>
-      <c r="W85" t="s">
+    <row r="87">
+      <c r="G87" t="s">
+        <v>304</v>
+      </c>
+      <c r="X87" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="86">
-      <c r="F86" t="s">
-        <v>272</v>
-      </c>
-      <c r="W86" t="s">
+    <row r="88">
+      <c r="G88" t="s">
+        <v>310</v>
+      </c>
+      <c r="X88" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="87">
-      <c r="F87" t="s">
-        <v>304</v>
-      </c>
-      <c r="W87" t="s">
+    <row r="89">
+      <c r="G89" t="s">
+        <v>294</v>
+      </c>
+      <c r="X89" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="88">
-      <c r="F88" t="s">
-        <v>310</v>
-      </c>
-      <c r="W88" t="s">
+    <row r="90">
+      <c r="G90" t="s">
+        <v>339</v>
+      </c>
+      <c r="X90" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="89">
-      <c r="F89" t="s">
-        <v>294</v>
-      </c>
-      <c r="W89" t="s">
+    <row r="91">
+      <c r="G91" t="s">
+        <v>276</v>
+      </c>
+      <c r="X91" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="90">
-      <c r="F90" t="s">
-        <v>339</v>
-      </c>
-      <c r="W90" t="s">
+    <row r="92">
+      <c r="G92" t="s">
+        <v>277</v>
+      </c>
+      <c r="X92" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="91">
-      <c r="F91" t="s">
-        <v>276</v>
-      </c>
-      <c r="W91" t="s">
+    <row r="93">
+      <c r="X93" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="92">
-      <c r="F92" t="s">
-        <v>277</v>
-      </c>
-      <c r="W92" t="s">
+    <row r="94">
+      <c r="X94" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="93">
-      <c r="W93" t="s">
+    <row r="95">
+      <c r="X95" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="94">
-      <c r="W94" t="s">
+    <row r="96">
+      <c r="X96" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="95">
-      <c r="W95" t="s">
+    <row r="97">
+      <c r="X97" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="96">
-      <c r="W96" t="s">
+    <row r="98">
+      <c r="X98" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="97">
-      <c r="W97" t="s">
+    <row r="99">
+      <c r="X99" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="98">
-      <c r="W98" t="s">
+    <row r="100">
+      <c r="X100" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="99">
-      <c r="W99" t="s">
+    <row r="101">
+      <c r="X101" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="100">
-      <c r="W100" t="s">
+    <row r="102">
+      <c r="X102" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="101">
-      <c r="W101" t="s">
+    <row r="103">
+      <c r="X103" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="102">
-      <c r="W102" t="s">
+    <row r="104">
+      <c r="X104" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="103">
-      <c r="W103" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="104">
-      <c r="W104" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="105">
-      <c r="W105" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="106">
-      <c r="W106" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="107">
-      <c r="W107" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="108">
-      <c r="W108" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="109">
-      <c r="W109" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="110">
-      <c r="W110" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="111">
-      <c r="W111" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="112">
-      <c r="W112" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="113">
-      <c r="W113" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="114">
-      <c r="W114" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="115">
-      <c r="W115" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="116">
-      <c r="W116" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="117">
-      <c r="W117" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="118">
-      <c r="W118" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="119">
-      <c r="W119" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="120">
-      <c r="W120" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="121">
-      <c r="W121" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="122">
-      <c r="W122" t="s">
+    <row r="124">
+      <c r="X124" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -21,14 +21,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6177" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6695" uniqueCount="596">
   <si>
     <t>description</t>
   </si>
@@ -1834,6 +1834,27 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1841,7 +1862,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="185" x14ac:knownFonts="1">
+  <fonts count="201" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3014,8 +3035,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4717,8 +4839,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="311">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -7858,6 +8133,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7865,7 +8422,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="230">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8481,52 +9038,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="171" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="172" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="285" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="285" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="174" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="175" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="291" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="291" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="294" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="294" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="312" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="318" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="321" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8911,7 +9516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9341,6 +9946,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>589</v>
+      </c>
       <c r="G6" t="s">
         <v>387</v>
       </c>
@@ -9463,7 +10071,7 @@
         <v>327</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>592</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -9516,7 +10124,7 @@
         <v>328</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -9557,7 +10165,7 @@
         <v>507</v>
       </c>
       <c r="K10" t="s">
-        <v>389</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -9595,7 +10203,7 @@
         <v>321</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>593</v>
       </c>
       <c r="M11" t="s">
         <v>561</v>
@@ -9630,7 +10238,7 @@
         <v>322</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>389</v>
       </c>
       <c r="M12" t="s">
         <v>444</v>
@@ -9665,7 +10273,7 @@
         <v>323</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>562</v>
@@ -9700,7 +10308,7 @@
         <v>324</v>
       </c>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -9732,7 +10340,7 @@
         <v>264</v>
       </c>
       <c r="K15" t="s">
-        <v>511</v>
+        <v>594</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -9764,7 +10372,7 @@
         <v>316</v>
       </c>
       <c r="K16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -9796,7 +10404,7 @@
         <v>88</v>
       </c>
       <c r="K17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s">
         <v>588</v>
@@ -9819,7 +10427,7 @@
         <v>89</v>
       </c>
       <c r="K18" t="s">
-        <v>379</v>
+        <v>511</v>
       </c>
       <c r="X18" t="s">
         <v>104</v>
@@ -9839,7 +10447,7 @@
         <v>295</v>
       </c>
       <c r="K19" t="s">
-        <v>557</v>
+        <v>82</v>
       </c>
       <c r="X19" t="s">
         <v>105</v>
@@ -9859,7 +10467,7 @@
         <v>296</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="X20" t="s">
         <v>106</v>
@@ -9879,7 +10487,7 @@
         <v>297</v>
       </c>
       <c r="K21" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="X21" t="s">
         <v>107</v>
@@ -9899,7 +10507,7 @@
         <v>298</v>
       </c>
       <c r="K22" t="s">
-        <v>84</v>
+        <v>557</v>
       </c>
       <c r="X22" t="s">
         <v>566</v>
@@ -9916,7 +10524,7 @@
         <v>289</v>
       </c>
       <c r="K23" t="s">
-        <v>443</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s">
         <v>109</v>
@@ -9933,7 +10541,7 @@
         <v>278</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="X24" t="s">
         <v>110</v>
@@ -9950,7 +10558,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="X25" t="s">
         <v>111</v>
@@ -9966,6 +10574,9 @@
       <c r="G26" t="s">
         <v>281</v>
       </c>
+      <c r="K26" t="s">
+        <v>443</v>
+      </c>
       <c r="X26" t="s">
         <v>112</v>
       </c>
@@ -9980,6 +10591,9 @@
       <c r="G27" t="s">
         <v>265</v>
       </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
       <c r="X27" t="s">
         <v>113</v>
       </c>
@@ -9994,6 +10608,9 @@
       <c r="G28" t="s">
         <v>282</v>
       </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
       <c r="X28" t="s">
         <v>326</v>
       </c>
@@ -10050,7 +10667,7 @@
         <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>259</v>
+        <v>590</v>
       </c>
       <c r="X33" t="s">
         <v>118</v>
@@ -10061,7 +10678,7 @@
         <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="X34" t="s">
         <v>119</v>
@@ -10072,7 +10689,7 @@
         <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="X35" t="s">
         <v>209</v>
@@ -10083,7 +10700,7 @@
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="X36" t="s">
         <v>120</v>
@@ -10094,7 +10711,7 @@
         <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="X37" t="s">
         <v>337</v>
@@ -10105,7 +10722,7 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="X38" t="s">
         <v>434</v>
@@ -10113,7 +10730,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="X39" t="s">
         <v>392</v>
@@ -10121,7 +10738,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s">
         <v>121</v>
@@ -10129,7 +10746,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>288</v>
+        <v>211</v>
       </c>
       <c r="X41" t="s">
         <v>122</v>
@@ -10137,7 +10754,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="X42" t="s">
         <v>123</v>
@@ -10145,7 +10762,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X43" t="s">
         <v>124</v>
@@ -10153,7 +10770,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="X44" t="s">
         <v>125</v>
@@ -10161,7 +10778,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X45" t="s">
         <v>126</v>
@@ -10169,7 +10786,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
       <c r="X46" t="s">
         <v>440</v>
@@ -10177,7 +10794,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="X47" t="s">
         <v>212</v>
@@ -10185,7 +10802,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="X48" t="s">
         <v>76</v>
@@ -10193,7 +10810,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="X49" t="s">
         <v>127</v>
@@ -10201,7 +10818,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="X50" t="s">
         <v>128</v>
@@ -10209,7 +10826,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="X51" t="s">
         <v>129</v>
@@ -10217,7 +10834,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="X52" t="s">
         <v>567</v>
@@ -10225,7 +10842,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="X53" t="s">
         <v>551</v>
@@ -10233,7 +10850,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="X54" t="s">
         <v>130</v>
@@ -10241,7 +10858,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="X55" t="s">
         <v>345</v>
@@ -10249,7 +10866,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="X56" t="s">
         <v>546</v>
@@ -10257,7 +10874,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="X57" t="s">
         <v>131</v>
@@ -10265,7 +10882,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="X58" t="s">
         <v>132</v>
@@ -10273,7 +10890,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="X59" t="s">
         <v>133</v>
@@ -10281,7 +10898,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="X60" t="s">
         <v>134</v>
@@ -10289,7 +10906,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X61" t="s">
         <v>135</v>
@@ -10297,7 +10914,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="X62" t="s">
         <v>136</v>
@@ -10305,7 +10922,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="X63" t="s">
         <v>137</v>
@@ -10313,7 +10930,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="X64" t="s">
         <v>439</v>
@@ -10321,7 +10938,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="X65" t="s">
         <v>568</v>
@@ -10329,7 +10946,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="X66" t="s">
         <v>213</v>
@@ -10337,7 +10954,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>352</v>
+        <v>268</v>
       </c>
       <c r="X67" t="s">
         <v>388</v>
@@ -10345,7 +10962,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="X68" t="s">
         <v>445</v>
@@ -10353,7 +10970,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="X69" t="s">
         <v>138</v>
@@ -10361,7 +10978,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>303</v>
+        <v>409</v>
       </c>
       <c r="X70" t="s">
         <v>139</v>
@@ -10369,7 +10986,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
       <c r="X71" t="s">
         <v>140</v>
@@ -10377,7 +10994,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>261</v>
+        <v>410</v>
       </c>
       <c r="X72" t="s">
         <v>141</v>
@@ -10385,7 +11002,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>343</v>
+        <v>261</v>
       </c>
       <c r="X73" t="s">
         <v>196</v>
@@ -10393,7 +11010,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>279</v>
+        <v>591</v>
       </c>
       <c r="X74" t="s">
         <v>197</v>
@@ -10401,7 +11018,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="X75" t="s">
         <v>509</v>
@@ -10409,7 +11026,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="X76" t="s">
         <v>556</v>
@@ -10417,7 +11034,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>428</v>
+        <v>285</v>
       </c>
       <c r="X77" t="s">
         <v>142</v>
@@ -10425,7 +11042,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="X78" t="s">
         <v>143</v>
@@ -10433,7 +11050,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>269</v>
+        <v>428</v>
       </c>
       <c r="X79" t="s">
         <v>144</v>
@@ -10441,7 +11058,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="X80" t="s">
         <v>582</v>
@@ -10449,7 +11066,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="X81" t="s">
         <v>145</v>
@@ -10457,7 +11074,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="X82" t="s">
         <v>146</v>
@@ -10465,7 +11082,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="X83" t="s">
         <v>198</v>
@@ -10473,7 +11090,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="X84" t="s">
         <v>569</v>
@@ -10481,7 +11098,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="X85" t="s">
         <v>199</v>
@@ -10489,7 +11106,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="X86" t="s">
         <v>508</v>
@@ -10497,7 +11114,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="X87" t="s">
         <v>200</v>
@@ -10505,7 +11122,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="X88" t="s">
         <v>201</v>
@@ -10513,7 +11130,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="X89" t="s">
         <v>214</v>
@@ -10521,7 +11138,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="X90" t="s">
         <v>147</v>
@@ -10529,7 +11146,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="X91" t="s">
         <v>202</v>
@@ -10537,18 +11154,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="X92" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>276</v>
+      </c>
       <c r="X93" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>277</v>
+      </c>
       <c r="X94" t="s">
         <v>203</v>
       </c>
@@ -10580,126 +11203,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>148</v>
+        <v>595</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>441</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>162</v>
+        <v>441</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6695" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7735" uniqueCount="598">
   <si>
     <t>description</t>
   </si>
@@ -1855,6 +1855,12 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1862,7 +1868,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="201" x14ac:knownFonts="1">
+  <fonts count="233" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3136,8 +3142,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="328">
+  <fills count="388">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4992,8 +5200,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -8415,6 +8963,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8422,7 +9534,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="262">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9086,52 +10198,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="187" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="188" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="312" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="312" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="191" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="318" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="318" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="321" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="321" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="324" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="324" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="203" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="204" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="339" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="206" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="207" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="345" fontId="209" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="348" fontId="210" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="211" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="212" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="357" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="360" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="363" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="366" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="369" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="372" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="375" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="378" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="381" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="381" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="384" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="387" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9516,7 +10724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11208,126 +12416,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>148</v>
+        <v>596</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>149</v>
+        <v>597</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>441</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>163</v>
+        <v>441</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -31,28 +31,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7735" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8791" uniqueCount="605">
   <si>
     <t>description</t>
   </si>
@@ -1861,6 +1862,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +1890,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="233" x14ac:knownFonts="1">
+  <fonts count="265" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3344,8 +3366,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="388">
+  <fills count="448">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5540,8 +5764,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9527,6 +10091,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9534,7 +10662,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="294">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10294,52 +11422,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="357" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="360" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="360" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="363" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="363" fontId="219" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="366" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="366" fontId="220" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="369" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="369" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="372" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="372" fontId="223" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="375" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="375" fontId="225" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="378" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="378" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="381" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="381" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="381" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="381" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="384" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="384" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="387" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="387" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="390" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="393" fontId="235" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="396" fontId="236" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="399" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="238" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="402" fontId="239" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="405" fontId="241" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="408" fontId="242" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="411" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="411" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="399" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="414" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="399" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="417" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="420" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="423" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="426" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="429" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="435" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="438" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="441" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="441" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="444" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10724,7 +11948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10776,51 +12000,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>598</v>
+      </c>
+      <c r="O1" t="s">
         <v>558</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>195</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>238</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>395</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>411</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>412</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>356</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>396</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>413</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -10865,51 +12092,54 @@
         <v>432</v>
       </c>
       <c r="N2" t="s">
+        <v>599</v>
+      </c>
+      <c r="O2" t="s">
         <v>563</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>416</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>429</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>252</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>216</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>397</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>418</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>419</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>380</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>406</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>170</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>175</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>182</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>431</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>577</v>
       </c>
     </row>
@@ -10954,45 +12184,48 @@
         <v>85</v>
       </c>
       <c r="N3" t="s">
+        <v>600</v>
+      </c>
+      <c r="O3" t="s">
         <v>564</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>430</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>239</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>217</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>398</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>420</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>381</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>407</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>97</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>171</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>176</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>363</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>183</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -11034,45 +12267,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>601</v>
+      </c>
+      <c r="O4" t="s">
         <v>565</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>240</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>218</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>399</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>421</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>357</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>408</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>353</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>172</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>177</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>183</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>423</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -11107,40 +12343,43 @@
       <c r="M5" t="s">
         <v>86</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>241</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>219</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>400</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>422</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>358</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>354</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>173</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>178</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>184</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>424</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -11172,37 +12411,40 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>242</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>390</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>401</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>360</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>98</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>446</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>179</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>185</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>425</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -11228,37 +12470,40 @@
       <c r="M7" t="s">
         <v>314</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>243</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>417</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>402</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>359</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>99</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>447</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>180</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>186</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>426</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>231</v>
       </c>
     </row>
@@ -11284,34 +12529,34 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>244</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>403</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>361</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>100</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>174</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>181</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>187</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>427</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>232</v>
       </c>
     </row>
@@ -11337,25 +12582,25 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>245</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>404</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>362</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>208</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>188</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>233</v>
       </c>
     </row>
@@ -11378,22 +12623,22 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>433</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>246</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>405</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>256</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>189</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>570</v>
       </c>
     </row>
@@ -11416,19 +12661,19 @@
       <c r="M11" t="s">
         <v>561</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>92</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>247</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>257</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>258</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>578</v>
       </c>
     </row>
@@ -11451,19 +12696,19 @@
       <c r="M12" t="s">
         <v>444</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>248</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>190</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>579</v>
       </c>
     </row>
@@ -11486,25 +12731,25 @@
       <c r="M13" t="s">
         <v>562</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>93</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>253</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>325</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>191</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>558</v>
+        <v>598</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -11521,25 +12766,25 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>94</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>249</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>192</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>558</v>
       </c>
       <c r="E15" t="s">
         <v>58</v>
@@ -11553,25 +12798,25 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>586</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>250</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>193</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="E16" t="s">
         <v>384</v>
@@ -11585,25 +12830,25 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>587</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>251</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>74</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>194</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>385</v>
@@ -11614,19 +12859,19 @@
       <c r="K17" t="s">
         <v>81</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>588</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>552</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="E18" t="s">
         <v>414</v>
@@ -11637,16 +12882,16 @@
       <c r="K18" t="s">
         <v>511</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>104</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>395</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
         <v>59</v>
@@ -11657,16 +12902,16 @@
       <c r="K19" t="s">
         <v>82</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E20" t="s">
         <v>60</v>
@@ -11677,16 +12922,16 @@
       <c r="K20" t="s">
         <v>83</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>106</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E21" t="s">
         <v>255</v>
@@ -11697,16 +12942,16 @@
       <c r="K21" t="s">
         <v>379</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>107</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="E22" t="s">
         <v>61</v>
@@ -11717,13 +12962,13 @@
       <c r="K22" t="s">
         <v>557</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="E23" t="s">
         <v>320</v>
@@ -11734,13 +12979,13 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>396</v>
       </c>
       <c r="E24" t="s">
         <v>62</v>
@@ -11751,13 +12996,13 @@
       <c r="K24" t="s">
         <v>391</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
         <v>503</v>
@@ -11768,13 +13013,13 @@
       <c r="K25" t="s">
         <v>84</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
         <v>224</v>
@@ -11785,13 +13030,13 @@
       <c r="K26" t="s">
         <v>443</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
         <v>225</v>
@@ -11802,13 +13047,13 @@
       <c r="K27" t="s">
         <v>45</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>413</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>554</v>
@@ -11819,13 +13064,13 @@
       <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
         <v>555</v>
@@ -11833,18 +13078,21 @@
       <c r="G29" t="s">
         <v>283</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>226</v>
+      </c>
       <c r="E30" t="s">
         <v>415</v>
       </c>
       <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>115</v>
       </c>
     </row>
@@ -11855,7 +13103,7 @@
       <c r="G31" t="s">
         <v>274</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>116</v>
       </c>
     </row>
@@ -11866,7 +13114,7 @@
       <c r="G32" t="s">
         <v>284</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>117</v>
       </c>
     </row>
@@ -11877,7 +13125,7 @@
       <c r="G33" t="s">
         <v>590</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>118</v>
       </c>
     </row>
@@ -11888,7 +13136,7 @@
       <c r="G34" t="s">
         <v>259</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>119</v>
       </c>
     </row>
@@ -11899,7 +13147,7 @@
       <c r="G35" t="s">
         <v>329</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>209</v>
       </c>
     </row>
@@ -11910,7 +13158,7 @@
       <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>120</v>
       </c>
     </row>
@@ -11921,7 +13169,7 @@
       <c r="G37" t="s">
         <v>260</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>337</v>
       </c>
     </row>
@@ -11932,7 +13180,7 @@
       <c r="G38" t="s">
         <v>307</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>434</v>
       </c>
     </row>
@@ -11940,7 +13188,7 @@
       <c r="G39" t="s">
         <v>266</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>392</v>
       </c>
     </row>
@@ -11948,7 +13196,7 @@
       <c r="G40" t="s">
         <v>77</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>121</v>
       </c>
     </row>
@@ -11956,7 +13204,7 @@
       <c r="G41" t="s">
         <v>211</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11964,7 +13212,7 @@
       <c r="G42" t="s">
         <v>288</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>123</v>
       </c>
     </row>
@@ -11972,7 +13220,7 @@
       <c r="G43" t="s">
         <v>299</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>124</v>
       </c>
     </row>
@@ -11980,7 +13228,7 @@
       <c r="G44" t="s">
         <v>300</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>125</v>
       </c>
     </row>
@@ -11988,7 +13236,7 @@
       <c r="G45" t="s">
         <v>342</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>126</v>
       </c>
     </row>
@@ -11996,7 +13244,7 @@
       <c r="G46" t="s">
         <v>341</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>440</v>
       </c>
     </row>
@@ -12004,7 +13252,7 @@
       <c r="G47" t="s">
         <v>210</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>212</v>
       </c>
     </row>
@@ -12012,7 +13260,7 @@
       <c r="G48" t="s">
         <v>319</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>76</v>
       </c>
     </row>
@@ -12020,7 +13268,7 @@
       <c r="G49" t="s">
         <v>338</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>127</v>
       </c>
     </row>
@@ -12028,7 +13276,7 @@
       <c r="G50" t="s">
         <v>367</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>128</v>
       </c>
     </row>
@@ -12036,7 +13284,7 @@
       <c r="G51" t="s">
         <v>301</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -12044,7 +13292,7 @@
       <c r="G52" t="s">
         <v>355</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>567</v>
       </c>
     </row>
@@ -12052,7 +13300,7 @@
       <c r="G53" t="s">
         <v>330</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>551</v>
       </c>
     </row>
@@ -12060,7 +13308,7 @@
       <c r="G54" t="s">
         <v>267</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>130</v>
       </c>
     </row>
@@ -12068,7 +13316,7 @@
       <c r="G55" t="s">
         <v>291</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>345</v>
       </c>
     </row>
@@ -12076,7 +13324,7 @@
       <c r="G56" t="s">
         <v>292</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>546</v>
       </c>
     </row>
@@ -12084,7 +13332,7 @@
       <c r="G57" t="s">
         <v>293</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>131</v>
       </c>
     </row>
@@ -12092,7 +13340,7 @@
       <c r="G58" t="s">
         <v>302</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>132</v>
       </c>
     </row>
@@ -12100,7 +13348,7 @@
       <c r="G59" t="s">
         <v>311</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -12108,7 +13356,7 @@
       <c r="G60" t="s">
         <v>336</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -12116,7 +13364,7 @@
       <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -12124,7 +13372,7 @@
       <c r="G62" t="s">
         <v>309</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -12132,7 +13380,7 @@
       <c r="G63" t="s">
         <v>368</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -12140,7 +13388,7 @@
       <c r="G64" t="s">
         <v>369</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>439</v>
       </c>
     </row>
@@ -12148,7 +13396,7 @@
       <c r="G65" t="s">
         <v>344</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>568</v>
       </c>
     </row>
@@ -12156,7 +13404,7 @@
       <c r="G66" t="s">
         <v>312</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>213</v>
       </c>
     </row>
@@ -12164,7 +13412,7 @@
       <c r="G67" t="s">
         <v>268</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>388</v>
       </c>
     </row>
@@ -12172,7 +13420,7 @@
       <c r="G68" t="s">
         <v>352</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>445</v>
       </c>
     </row>
@@ -12180,7 +13428,7 @@
       <c r="G69" t="s">
         <v>313</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -12188,7 +13436,7 @@
       <c r="G70" t="s">
         <v>409</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>139</v>
       </c>
     </row>
@@ -12196,7 +13444,7 @@
       <c r="G71" t="s">
         <v>303</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12204,7 +13452,7 @@
       <c r="G72" t="s">
         <v>410</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -12212,7 +13460,7 @@
       <c r="G73" t="s">
         <v>261</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>196</v>
       </c>
     </row>
@@ -12220,7 +13468,7 @@
       <c r="G74" t="s">
         <v>591</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>197</v>
       </c>
     </row>
@@ -12228,7 +13476,7 @@
       <c r="G75" t="s">
         <v>343</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>509</v>
       </c>
     </row>
@@ -12236,7 +13484,7 @@
       <c r="G76" t="s">
         <v>279</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>556</v>
       </c>
     </row>
@@ -12244,7 +13492,7 @@
       <c r="G77" t="s">
         <v>285</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>142</v>
       </c>
     </row>
@@ -12252,7 +13500,7 @@
       <c r="G78" t="s">
         <v>290</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>143</v>
       </c>
     </row>
@@ -12260,7 +13508,7 @@
       <c r="G79" t="s">
         <v>428</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -12268,7 +13516,7 @@
       <c r="G80" t="s">
         <v>331</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>582</v>
       </c>
     </row>
@@ -12276,7 +13524,7 @@
       <c r="G81" t="s">
         <v>269</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>145</v>
       </c>
     </row>
@@ -12284,7 +13532,7 @@
       <c r="G82" t="s">
         <v>280</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>146</v>
       </c>
     </row>
@@ -12292,7 +13540,7 @@
       <c r="G83" t="s">
         <v>286</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>198</v>
       </c>
     </row>
@@ -12300,7 +13548,7 @@
       <c r="G84" t="s">
         <v>275</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>569</v>
       </c>
     </row>
@@ -12308,7 +13556,7 @@
       <c r="G85" t="s">
         <v>270</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>199</v>
       </c>
     </row>
@@ -12316,7 +13564,7 @@
       <c r="G86" t="s">
         <v>287</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>508</v>
       </c>
     </row>
@@ -12324,7 +13572,7 @@
       <c r="G87" t="s">
         <v>271</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>200</v>
       </c>
     </row>
@@ -12332,7 +13580,7 @@
       <c r="G88" t="s">
         <v>272</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>201</v>
       </c>
     </row>
@@ -12340,7 +13588,7 @@
       <c r="G89" t="s">
         <v>304</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>214</v>
       </c>
     </row>
@@ -12348,7 +13596,7 @@
       <c r="G90" t="s">
         <v>310</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>147</v>
       </c>
     </row>
@@ -12356,7 +13604,7 @@
       <c r="G91" t="s">
         <v>294</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>202</v>
       </c>
     </row>
@@ -12364,7 +13612,7 @@
       <c r="G92" t="s">
         <v>339</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>437</v>
       </c>
     </row>
@@ -12372,7 +13620,7 @@
       <c r="G93" t="s">
         <v>276</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>438</v>
       </c>
     </row>
@@ -12380,172 +13628,172 @@
       <c r="G94" t="s">
         <v>277</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -53,7 +53,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8791" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9854" uniqueCount="609">
   <si>
     <t>description</t>
   </si>
@@ -1883,6 +1883,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1890,7 +1902,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="265" x14ac:knownFonts="1">
+  <fonts count="297" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3568,8 +3580,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="448">
+  <fills count="508">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6104,8 +6318,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="507">
     <border>
       <left/>
       <right/>
@@ -10655,6 +11209,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10662,7 +11780,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="326">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11518,52 +12636,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="417" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="420" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="420" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="423" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="423" fontId="251" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="426" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="426" fontId="252" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="429" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="429" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="254" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="255" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="435" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="435" fontId="257" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="438" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="438" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="441" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="441" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="441" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="441" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="429" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="444" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="444" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="429" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="450" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="453" fontId="267" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="456" fontId="268" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="459" fontId="269" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="271" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="465" fontId="273" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="468" fontId="274" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="471" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="471" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="477" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="480" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="483" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="486" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="489" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="492" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="495" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="498" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="501" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="501" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="507" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12344,7 +13558,7 @@
         <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -12412,7 +13626,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -12471,7 +13685,7 @@
         <v>314</v>
       </c>
       <c r="N7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -12529,6 +13743,9 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
+      <c r="N8" t="s">
+        <v>602</v>
+      </c>
       <c r="Q8" t="s">
         <v>90</v>
       </c>
@@ -12582,6 +13799,9 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
+      <c r="N9" t="s">
+        <v>603</v>
+      </c>
       <c r="Q9" t="s">
         <v>91</v>
       </c>
@@ -12623,6 +13843,9 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
+      <c r="N10" t="s">
+        <v>604</v>
+      </c>
       <c r="Q10" t="s">
         <v>433</v>
       </c>
@@ -13011,7 +14234,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>84</v>
+        <v>608</v>
       </c>
       <c r="Y25" t="s">
         <v>111</v>
@@ -13028,7 +14251,7 @@
         <v>281</v>
       </c>
       <c r="K26" t="s">
-        <v>443</v>
+        <v>84</v>
       </c>
       <c r="Y26" t="s">
         <v>112</v>
@@ -13045,7 +14268,7 @@
         <v>265</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>443</v>
       </c>
       <c r="Y27" t="s">
         <v>113</v>
@@ -13062,7 +14285,7 @@
         <v>282</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s">
         <v>326</v>
@@ -13077,6 +14300,9 @@
       </c>
       <c r="G29" t="s">
         <v>283</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
       </c>
       <c r="Y29" t="s">
         <v>114</v>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -52,8 +52,8 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9854" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10389" uniqueCount="613">
   <si>
     <t>description</t>
   </si>
@@ -1895,6 +1895,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1914,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="297" x14ac:knownFonts="1">
+  <fonts count="313" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3782,8 +3794,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="508">
+  <fills count="538">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6658,8 +6771,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="507">
+  <borders count="535">
     <border>
       <left/>
       <right/>
@@ -11773,6 +12056,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11780,7 +12345,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="342">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12732,52 +13297,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="477" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="480" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="480" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="483" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="483" fontId="283" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="486" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="486" fontId="284" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="489" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="489" fontId="285" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="286" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="492" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="492" fontId="287" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="495" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="495" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="498" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="498" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="501" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="501" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="501" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="501" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="507" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="507" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="510" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="513" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="516" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="519" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="522" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="525" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="528" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="531" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="531" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="519" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="534" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="519" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="537" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13368,7 +13981,7 @@
         <v>549</v>
       </c>
       <c r="D3" t="s">
-        <v>574</v>
+        <v>609</v>
       </c>
       <c r="E3" t="s">
         <v>544</v>
@@ -13451,7 +14064,7 @@
         <v>373</v>
       </c>
       <c r="D4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -13534,7 +14147,7 @@
         <v>374</v>
       </c>
       <c r="D5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E5" t="s">
         <v>545</v>
@@ -13558,7 +14171,7 @@
         <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -13604,6 +14217,9 @@
       <c r="B6" t="s">
         <v>375</v>
       </c>
+      <c r="D6" t="s">
+        <v>576</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -13626,7 +14242,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -13685,7 +14301,7 @@
         <v>314</v>
       </c>
       <c r="N7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -13744,7 +14360,7 @@
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="Q8" t="s">
         <v>90</v>
@@ -13800,7 +14416,7 @@
         <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="Q9" t="s">
         <v>91</v>
@@ -13844,7 +14460,7 @@
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="Q10" t="s">
         <v>433</v>
@@ -13884,6 +14500,9 @@
       <c r="M11" t="s">
         <v>561</v>
       </c>
+      <c r="N11" t="s">
+        <v>603</v>
+      </c>
       <c r="Q11" t="s">
         <v>92</v>
       </c>
@@ -13919,6 +14538,9 @@
       <c r="M12" t="s">
         <v>444</v>
       </c>
+      <c r="N12" t="s">
+        <v>604</v>
+      </c>
       <c r="Q12" t="s">
         <v>41</v>
       </c>
@@ -14234,7 +14856,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="Y25" t="s">
         <v>111</v>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -20,17 +20,17 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -44,12 +44,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10389" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10946" uniqueCount="636">
   <si>
     <t>description</t>
   </si>
@@ -1907,6 +1907,75 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1914,7 +1983,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="313" x14ac:knownFonts="1">
+  <fonts count="329" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3895,8 +3964,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="538">
+  <fills count="565">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6941,8 +7111,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="535">
+  <borders count="567">
     <border>
       <left/>
       <right/>
@@ -12338,6 +12661,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12345,7 +12994,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="342">
+  <cellXfs count="358">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13345,52 +13994,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="507" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="510" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="510" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="298" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="513" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="513" fontId="299" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="516" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="516" fontId="300" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="519" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="519" fontId="301" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="522" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="522" fontId="303" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="525" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="525" fontId="305" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="528" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="528" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="531" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="531" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="531" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="531" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="519" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="519" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="534" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="534" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="519" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="519" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="537" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="540" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="543" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="546" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="549" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="555" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="546" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="558" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="558" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13775,7 +14472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14156,10 +14853,13 @@
         <v>442</v>
       </c>
       <c r="G5" t="s">
-        <v>335</v>
+        <v>614</v>
       </c>
       <c r="H5" t="s">
         <v>510</v>
+      </c>
+      <c r="I5" t="s">
+        <v>619</v>
       </c>
       <c r="J5" t="s">
         <v>350</v>
@@ -14227,7 +14927,7 @@
         <v>589</v>
       </c>
       <c r="G6" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="H6" t="s">
         <v>506</v>
@@ -14289,11 +14989,14 @@
         <v>223</v>
       </c>
       <c r="G7" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="H7" t="s">
         <v>502</v>
       </c>
+      <c r="J7" t="s">
+        <v>620</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -14334,7 +15037,7 @@
         <v>426</v>
       </c>
       <c r="AD7" t="s">
-        <v>231</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8">
@@ -14348,7 +15051,7 @@
         <v>317</v>
       </c>
       <c r="G8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H8" t="s">
         <v>327</v>
@@ -14390,7 +15093,7 @@
         <v>427</v>
       </c>
       <c r="AD8" t="s">
-        <v>232</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9">
@@ -14404,7 +15107,7 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>305</v>
+        <v>366</v>
       </c>
       <c r="H9" t="s">
         <v>328</v>
@@ -14437,7 +15140,7 @@
         <v>188</v>
       </c>
       <c r="AD9" t="s">
-        <v>233</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10">
@@ -14448,7 +15151,7 @@
         <v>314</v>
       </c>
       <c r="G10" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="H10" t="s">
         <v>507</v>
@@ -14478,7 +15181,7 @@
         <v>189</v>
       </c>
       <c r="AD10" t="s">
-        <v>570</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11">
@@ -14489,7 +15192,7 @@
         <v>254</v>
       </c>
       <c r="G11" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="H11" t="s">
         <v>321</v>
@@ -14516,7 +15219,7 @@
         <v>258</v>
       </c>
       <c r="AD11" t="s">
-        <v>578</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12">
@@ -14527,7 +15230,7 @@
         <v>318</v>
       </c>
       <c r="G12" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H12" t="s">
         <v>322</v>
@@ -14536,7 +15239,7 @@
         <v>389</v>
       </c>
       <c r="M12" t="s">
-        <v>444</v>
+        <v>621</v>
       </c>
       <c r="N12" t="s">
         <v>604</v>
@@ -14554,7 +15257,7 @@
         <v>190</v>
       </c>
       <c r="AD12" t="s">
-        <v>579</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13">
@@ -14565,7 +15268,7 @@
         <v>340</v>
       </c>
       <c r="G13" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="H13" t="s">
         <v>323</v>
@@ -14574,7 +15277,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>562</v>
+        <v>444</v>
       </c>
       <c r="Q13" t="s">
         <v>93</v>
@@ -14589,7 +15292,7 @@
         <v>191</v>
       </c>
       <c r="AD13" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14">
@@ -14600,7 +15303,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="H14" t="s">
         <v>324</v>
@@ -14609,7 +15312,7 @@
         <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>562</v>
       </c>
       <c r="Q14" t="s">
         <v>94</v>
@@ -14624,7 +15327,7 @@
         <v>192</v>
       </c>
       <c r="AD14" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15">
@@ -14635,13 +15338,13 @@
         <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K15" t="s">
         <v>594</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
         <v>586</v>
@@ -14656,7 +15359,7 @@
         <v>193</v>
       </c>
       <c r="AD15" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16">
@@ -14667,13 +15370,13 @@
         <v>384</v>
       </c>
       <c r="G16" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="K16" t="s">
         <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>622</v>
       </c>
       <c r="Q16" t="s">
         <v>587</v>
@@ -14688,7 +15391,7 @@
         <v>194</v>
       </c>
       <c r="AD16" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17">
@@ -14699,11 +15402,14 @@
         <v>385</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>316</v>
       </c>
       <c r="K17" t="s">
         <v>81</v>
       </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
       <c r="Y17" t="s">
         <v>588</v>
       </c>
@@ -14711,7 +15417,7 @@
         <v>552</v>
       </c>
       <c r="AD17" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18">
@@ -14722,16 +15428,19 @@
         <v>414</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s">
         <v>511</v>
       </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
       <c r="Y18" t="s">
         <v>104</v>
       </c>
       <c r="AD18" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19">
@@ -14742,7 +15451,7 @@
         <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>295</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
         <v>82</v>
@@ -14751,7 +15460,7 @@
         <v>105</v>
       </c>
       <c r="AD19" t="s">
-        <v>234</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20">
@@ -14762,7 +15471,7 @@
         <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K20" t="s">
         <v>83</v>
@@ -14771,7 +15480,7 @@
         <v>106</v>
       </c>
       <c r="AD20" t="s">
-        <v>235</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21">
@@ -14782,7 +15491,7 @@
         <v>255</v>
       </c>
       <c r="G21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K21" t="s">
         <v>379</v>
@@ -14791,7 +15500,7 @@
         <v>107</v>
       </c>
       <c r="AD21" t="s">
-        <v>236</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22">
@@ -14799,16 +15508,19 @@
         <v>412</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>613</v>
       </c>
       <c r="G22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K22" t="s">
         <v>557</v>
       </c>
       <c r="Y22" t="s">
         <v>566</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="23">
@@ -14816,16 +15528,19 @@
         <v>356</v>
       </c>
       <c r="E23" t="s">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="K23" t="s">
         <v>44</v>
       </c>
       <c r="Y23" t="s">
         <v>109</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="24">
@@ -14833,16 +15548,19 @@
         <v>396</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="G24" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="K24" t="s">
         <v>391</v>
       </c>
       <c r="Y24" t="s">
-        <v>110</v>
+        <v>623</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="25">
@@ -14850,16 +15568,19 @@
         <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>503</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="K25" t="s">
         <v>610</v>
       </c>
       <c r="Y25" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="26">
@@ -14867,16 +15588,19 @@
         <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>224</v>
+        <v>503</v>
       </c>
       <c r="G26" t="s">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s">
         <v>84</v>
       </c>
       <c r="Y26" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="27">
@@ -14884,16 +15608,19 @@
         <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
         <v>443</v>
       </c>
       <c r="Y27" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="28">
@@ -14901,16 +15628,16 @@
         <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>554</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
         <v>45</v>
       </c>
       <c r="Y28" t="s">
-        <v>326</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -14918,16 +15645,16 @@
         <v>413</v>
       </c>
       <c r="E29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
       </c>
       <c r="Y29" t="s">
-        <v>114</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30">
@@ -14935,713 +15662,763 @@
         <v>226</v>
       </c>
       <c r="E30" t="s">
-        <v>415</v>
+        <v>555</v>
       </c>
       <c r="G30" t="s">
-        <v>215</v>
+        <v>283</v>
       </c>
       <c r="Y30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>63</v>
+        <v>415</v>
       </c>
       <c r="G31" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="Y31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="Y32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>590</v>
+        <v>284</v>
       </c>
       <c r="Y33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>259</v>
+        <v>590</v>
       </c>
       <c r="Y34" t="s">
-        <v>119</v>
+        <v>624</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="Y35" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="Y36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="Y37" t="s">
-        <v>337</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
         <v>70</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>307</v>
       </c>
-      <c r="Y38" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="G39" t="s">
-        <v>266</v>
-      </c>
       <c r="Y39" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="Y40" t="s">
-        <v>121</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s">
-        <v>122</v>
+        <v>625</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>288</v>
+        <v>211</v>
       </c>
       <c r="Y42" t="s">
-        <v>123</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>299</v>
+        <v>615</v>
       </c>
       <c r="Y43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Y44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="Y45" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="Y46" t="s">
-        <v>440</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>210</v>
+        <v>342</v>
       </c>
       <c r="Y47" t="s">
-        <v>212</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="Y48" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>338</v>
+        <v>210</v>
       </c>
       <c r="Y49" t="s">
-        <v>127</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="Y50" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="Y51" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="Y52" t="s">
-        <v>567</v>
+        <v>626</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="Y53" t="s">
-        <v>551</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>267</v>
+        <v>355</v>
       </c>
       <c r="Y54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="Y55" t="s">
-        <v>345</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="Y56" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Y57" t="s">
-        <v>131</v>
+        <v>551</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="Y58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>311</v>
+        <v>616</v>
       </c>
       <c r="Y59" t="s">
-        <v>133</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="Y60" t="s">
-        <v>134</v>
+        <v>546</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Y61" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Y62" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="Y63" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>369</v>
+        <v>308</v>
       </c>
       <c r="Y64" t="s">
-        <v>439</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="Y65" t="s">
-        <v>568</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="Y66" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>268</v>
+        <v>369</v>
       </c>
       <c r="Y67" t="s">
-        <v>388</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="Y68" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y69" t="s">
-        <v>138</v>
+        <v>568</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>409</v>
+        <v>268</v>
       </c>
       <c r="Y70" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>303</v>
+        <v>617</v>
       </c>
       <c r="Y71" t="s">
-        <v>140</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>410</v>
+        <v>313</v>
       </c>
       <c r="Y72" t="s">
-        <v>141</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>261</v>
+        <v>409</v>
       </c>
       <c r="Y73" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>591</v>
+        <v>303</v>
       </c>
       <c r="Y74" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>343</v>
+        <v>410</v>
       </c>
       <c r="Y75" t="s">
-        <v>509</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="Y76" t="s">
-        <v>556</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>285</v>
+        <v>591</v>
       </c>
       <c r="Y77" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="Y78" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>428</v>
+        <v>279</v>
       </c>
       <c r="Y79" t="s">
-        <v>144</v>
+        <v>509</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="Y80" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="Y81" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>280</v>
+        <v>428</v>
       </c>
       <c r="Y82" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="Y83" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Y84" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Y85" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y86" t="s">
-        <v>508</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Y87" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>272</v>
+        <v>618</v>
       </c>
       <c r="Y88" t="s">
-        <v>201</v>
+        <v>569</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="Y89" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="Y90" t="s">
-        <v>147</v>
+        <v>508</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="Y91" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>339</v>
+        <v>272</v>
       </c>
       <c r="Y92" t="s">
-        <v>437</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="Y93" t="s">
-        <v>438</v>
+        <v>627</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>277</v>
       </c>
-      <c r="Y94" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="Y96" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="Y97" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>222</v>
+        <v>437</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>207</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>595</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>596</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>597</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>382</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>150</v>
+        <v>595</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>151</v>
+        <v>596</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>153</v>
+        <v>597</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>154</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>441</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>166</v>
+        <v>441</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>168</v>
+        <v>629</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -20,40 +20,41 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10946" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12071" uniqueCount="647">
   <si>
     <t>description</t>
   </si>
@@ -1976,6 +1977,39 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +2017,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="329" x14ac:knownFonts="1">
+  <fonts count="361" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4065,8 +4099,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="565">
+  <fills count="619">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7264,8 +7500,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="567">
+  <borders count="631">
     <border>
       <left/>
       <right/>
@@ -12987,6 +13529,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12994,7 +14188,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="358">
+  <cellXfs count="390">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14042,52 +15236,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="540" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="540" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="543" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="543" fontId="315" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="546" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="546" fontId="316" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="549" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="549" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="318" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="552" fontId="319" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="555" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="555" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="546" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="546" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="558" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="566" fillId="558" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="558" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="566" fillId="558" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="549" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="561" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="549" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="564" fontId="328" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="567" fontId="329" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="330" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="570" fontId="331" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="573" fontId="332" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="576" fontId="333" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="334" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="579" fontId="335" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="336" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="582" fontId="337" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="573" fontId="338" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="585" fontId="339" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="585" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="576" fontId="341" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="588" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="576" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="594" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="597" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="600" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="603" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="609" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="612" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="612" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="603" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="615" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="603" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14472,7 +15762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14497,81 +15787,84 @@
         <v>572</v>
       </c>
       <c r="E1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>346</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>332</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>598</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>558</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>238</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>395</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>411</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>412</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>356</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>396</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>413</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -14589,81 +15882,84 @@
         <v>573</v>
       </c>
       <c r="E2" t="s">
+        <v>637</v>
+      </c>
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>73</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>504</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>553</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>314</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>383</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>432</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>599</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>563</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>416</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>429</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>252</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>216</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>397</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>418</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>419</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>380</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>406</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>170</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>175</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>182</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>431</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>577</v>
       </c>
     </row>
@@ -14680,76 +15976,76 @@
       <c r="D3" t="s">
         <v>609</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>544</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>364</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>87</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>48</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>559</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>348</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>340</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>333</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>600</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>564</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>430</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>239</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>217</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>398</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>420</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>381</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>407</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>171</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>176</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>363</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>183</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -14763,82 +16059,82 @@
       <c r="D4" t="s">
         <v>574</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>72</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>386</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>505</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>560</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>349</v>
       </c>
-      <c r="K4" t="s">
-        <v>237</v>
-      </c>
       <c r="L4" t="s">
+        <v>645</v>
+      </c>
+      <c r="M4" t="s">
         <v>334</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>601</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>565</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>240</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>218</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>399</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>421</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>357</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>408</v>
       </c>
-      <c r="Y4" t="s">
-        <v>353</v>
-      </c>
       <c r="Z4" t="s">
+        <v>646</v>
+      </c>
+      <c r="AA4" t="s">
         <v>172</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>177</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>183</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>423</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>636</v>
       </c>
       <c r="B5" t="s">
         <v>374</v>
@@ -14846,73 +16142,73 @@
       <c r="D5" t="s">
         <v>575</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>545</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>442</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>614</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>510</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>619</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>350</v>
       </c>
-      <c r="K5" t="s">
-        <v>550</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
+        <v>237</v>
+      </c>
+      <c r="N5" t="s">
         <v>86</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>611</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>241</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>219</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>400</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>422</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>358</v>
       </c>
-      <c r="Y5" t="s">
-        <v>354</v>
-      </c>
       <c r="Z5" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA5" t="s">
         <v>173</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>178</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>184</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>424</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>375</v>
@@ -14920,1505 +16216,1519 @@
       <c r="D6" t="s">
         <v>576</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>589</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>335</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>506</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>347</v>
       </c>
-      <c r="K6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
+        <v>550</v>
+      </c>
+      <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>605</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>31</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>242</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>390</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>401</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>360</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>446</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>179</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>185</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>425</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>223</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>387</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>502</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>620</v>
       </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="L7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" t="s">
         <v>314</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>606</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>33</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>243</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>417</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>402</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>359</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>447</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>180</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>186</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>426</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>377</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>317</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>365</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>327</v>
       </c>
-      <c r="K8" t="s">
-        <v>592</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>607</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>90</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>244</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>403</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>361</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>174</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>181</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>187</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>427</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>378</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>366</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>328</v>
       </c>
-      <c r="K9" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="L9" t="s">
+        <v>592</v>
+      </c>
+      <c r="N9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>612</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>91</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>245</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>404</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>362</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>208</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>188</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>346</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>314</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>305</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>507</v>
       </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="L10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>602</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>433</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>246</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>405</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>256</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>189</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" t="s">
+        <v>638</v>
+      </c>
+      <c r="H11" t="s">
         <v>351</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>321</v>
       </c>
-      <c r="K11" t="s">
-        <v>593</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="L11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
         <v>561</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>603</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>92</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>247</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>257</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>258</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>332</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>318</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>273</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>322</v>
       </c>
-      <c r="K12" t="s">
-        <v>389</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="L12" t="s">
+        <v>593</v>
+      </c>
+      <c r="N12" t="s">
         <v>621</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>604</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>41</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>248</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>190</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" t="s">
         <v>340</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>262</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>323</v>
       </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="L13" t="s">
+        <v>389</v>
+      </c>
+      <c r="N13" t="s">
         <v>444</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>93</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>253</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>325</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>191</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>598</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>315</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>324</v>
       </c>
-      <c r="K14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" t="s">
         <v>562</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>94</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>249</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>192</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>558</v>
-      </c>
-      <c r="E15" t="s">
+        <v>598</v>
+      </c>
+      <c r="F15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>263</v>
       </c>
-      <c r="K15" t="s">
-        <v>594</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="L15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>586</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>250</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>193</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" t="s">
+        <v>558</v>
+      </c>
+      <c r="F16" t="s">
         <v>384</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>264</v>
       </c>
-      <c r="K16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="L16" t="s">
+        <v>594</v>
+      </c>
+      <c r="N16" t="s">
         <v>622</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>587</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>251</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>74</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>194</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" t="s">
         <v>385</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>316</v>
       </c>
-      <c r="K17" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="L17" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" t="s">
         <v>40</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>588</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>552</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
         <v>414</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>88</v>
       </c>
-      <c r="K18" t="s">
-        <v>511</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="L18" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" t="s">
         <v>43</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F19" t="s">
+        <v>644</v>
+      </c>
+      <c r="H19" t="s">
         <v>89</v>
       </c>
-      <c r="K19" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="L19" t="s">
+        <v>511</v>
+      </c>
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>395</v>
-      </c>
-      <c r="E20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" t="s">
         <v>295</v>
       </c>
-      <c r="K20" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y20" t="s">
+      <c r="L20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>411</v>
-      </c>
-      <c r="E21" t="s">
-        <v>255</v>
-      </c>
-      <c r="G21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
         <v>296</v>
       </c>
-      <c r="K21" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y21" t="s">
+      <c r="L21" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>412</v>
-      </c>
-      <c r="E22" t="s">
-        <v>613</v>
-      </c>
-      <c r="G22" t="s">
+        <v>411</v>
+      </c>
+      <c r="F22" t="s">
+        <v>255</v>
+      </c>
+      <c r="H22" t="s">
         <v>297</v>
       </c>
-      <c r="K22" t="s">
-        <v>557</v>
-      </c>
-      <c r="Y22" t="s">
+      <c r="L22" t="s">
+        <v>640</v>
+      </c>
+      <c r="Z22" t="s">
         <v>566</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>356</v>
-      </c>
-      <c r="E23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" t="s">
+        <v>412</v>
+      </c>
+      <c r="F23" t="s">
+        <v>613</v>
+      </c>
+      <c r="H23" t="s">
         <v>298</v>
       </c>
-      <c r="K23" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y23" t="s">
+      <c r="L23" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z23" t="s">
         <v>109</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>396</v>
-      </c>
-      <c r="E24" t="s">
-        <v>320</v>
-      </c>
-      <c r="G24" t="s">
+        <v>356</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" t="s">
         <v>289</v>
       </c>
-      <c r="K24" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="L24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z24" t="s">
         <v>623</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F25" t="s">
+        <v>320</v>
+      </c>
+      <c r="H25" t="s">
         <v>278</v>
       </c>
-      <c r="K25" t="s">
-        <v>610</v>
-      </c>
-      <c r="Y25" t="s">
+      <c r="L25" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z25" t="s">
         <v>110</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" t="s">
-        <v>503</v>
-      </c>
-      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s">
         <v>75</v>
       </c>
-      <c r="K26" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y26" t="s">
+      <c r="L26" t="s">
+        <v>610</v>
+      </c>
+      <c r="Z26" t="s">
         <v>111</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" t="s">
-        <v>224</v>
-      </c>
-      <c r="G27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
+        <v>503</v>
+      </c>
+      <c r="H27" t="s">
         <v>281</v>
       </c>
-      <c r="K27" t="s">
-        <v>443</v>
-      </c>
-      <c r="Y27" t="s">
+      <c r="L27" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z27" t="s">
         <v>112</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" t="s">
-        <v>225</v>
-      </c>
-      <c r="G28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="H28" t="s">
         <v>265</v>
       </c>
-      <c r="K28" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y28" t="s">
+      <c r="L28" t="s">
+        <v>443</v>
+      </c>
+      <c r="Z28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>413</v>
-      </c>
-      <c r="E29" t="s">
-        <v>554</v>
-      </c>
-      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>225</v>
+      </c>
+      <c r="H29" t="s">
         <v>282</v>
       </c>
-      <c r="K29" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y29" t="s">
+      <c r="L29" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z29" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>413</v>
+      </c>
+      <c r="F30" t="s">
+        <v>554</v>
+      </c>
+      <c r="H30" t="s">
+        <v>283</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>226</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F31" t="s">
         <v>555</v>
       </c>
-      <c r="G30" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="H31" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" t="s">
         <v>415</v>
       </c>
-      <c r="G31" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="s">
+      <c r="H32" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" t="s">
         <v>63</v>
       </c>
-      <c r="G32" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="s">
+      <c r="H33" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" t="s">
         <v>64</v>
       </c>
-      <c r="G33" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="s">
+      <c r="H34" t="s">
+        <v>590</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="s">
         <v>65</v>
       </c>
-      <c r="G34" t="s">
-        <v>590</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="s">
+      <c r="H35" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" t="s">
         <v>66</v>
       </c>
-      <c r="G35" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="E36" t="s">
+      <c r="H36" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" t="s">
         <v>67</v>
       </c>
-      <c r="G36" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
+      <c r="H37" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" t="s">
         <v>68</v>
       </c>
-      <c r="G37" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
+      <c r="H38" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" t="s">
         <v>69</v>
       </c>
-      <c r="G38" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="s">
+      <c r="H39" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="s">
         <v>70</v>
       </c>
-      <c r="G39" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>266</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>77</v>
       </c>
-      <c r="Y41" t="s">
-        <v>625</v>
+      <c r="Z41" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>211</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>615</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>288</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>299</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>300</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>342</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>341</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>210</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>319</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>338</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>367</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>301</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>355</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>330</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>267</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>291</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>292</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>616</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>293</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>302</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>311</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>336</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>308</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>309</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>368</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>369</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>344</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>312</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>268</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>617</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>313</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>409</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>303</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>410</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>261</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>591</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>343</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>279</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>285</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>290</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>428</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>331</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>269</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>280</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>286</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>275</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>618</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>270</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>287</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>271</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>272</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>304</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>310</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>294</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>339</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>276</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>277</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -20,13 +20,13 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12071" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13201" uniqueCount="650">
   <si>
     <t>description</t>
   </si>
@@ -2010,6 +2010,15 @@
   </si>
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -2017,7 +2026,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="361" x14ac:knownFonts="1">
+  <fonts count="393" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4301,8 +4310,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="619">
+  <fills count="673">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7806,8 +8017,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="631">
+  <borders count="695">
     <border>
       <left/>
       <right/>
@@ -14181,6 +14698,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14188,7 +15357,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="390">
+  <cellXfs count="422">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15332,52 +16501,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="594" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="594" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="346" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="597" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="597" fontId="347" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="600" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="600" fontId="348" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="603" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="603" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="350" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="606" fontId="351" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="609" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="622" fillId="609" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="600" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="612" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="612" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="612" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="612" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="603" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="603" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="615" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="615" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="603" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="603" fontId="359" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="618" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="621" fontId="361" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="362" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="624" fontId="363" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="627" fontId="364" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="650" fillId="630" fontId="365" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="366" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="633" fontId="367" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="368" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="636" fontId="369" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="627" fontId="370" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="639" fontId="371" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="639" fontId="372" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="630" fontId="373" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="642" fontId="374" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="630" fontId="375" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="645" fontId="376" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="648" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="651" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="654" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="657" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="660" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="663" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="654" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="666" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="666" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="657" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="669" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="657" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15762,7 +17027,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16228,6 +17493,9 @@
       <c r="I6" t="s">
         <v>506</v>
       </c>
+      <c r="J6" t="s">
+        <v>647</v>
+      </c>
       <c r="K6" t="s">
         <v>347</v>
       </c>
@@ -16744,7 +18012,7 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>644</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
@@ -16764,7 +18032,7 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
@@ -16784,7 +18052,7 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
@@ -16804,7 +18072,7 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>613</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
@@ -16824,7 +18092,7 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>613</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
@@ -16844,7 +18112,7 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>320</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
@@ -16864,7 +18132,7 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>320</v>
+        <v>62</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
@@ -16884,7 +18152,7 @@
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>503</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
@@ -16904,7 +18172,7 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>503</v>
+        <v>224</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
@@ -16924,7 +18192,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
@@ -16941,7 +18209,7 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>554</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
@@ -16958,7 +18226,7 @@
         <v>413</v>
       </c>
       <c r="F30" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
@@ -16975,7 +18243,7 @@
         <v>226</v>
       </c>
       <c r="F31" t="s">
-        <v>555</v>
+        <v>415</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
@@ -16986,7 +18254,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>415</v>
+        <v>63</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
@@ -16997,7 +18265,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
@@ -17008,7 +18276,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>590</v>
@@ -17019,7 +18287,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
@@ -17030,7 +18298,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
@@ -17041,7 +18309,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
@@ -17052,7 +18320,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
@@ -17063,7 +18331,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
@@ -17073,9 +18341,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>70</v>
-      </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>
@@ -17549,186 +18814,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>438</v>
+        <v>648</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>203</v>
+        <v>649</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>204</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>595</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>643</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>148</v>
+        <v>643</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>149</v>
+        <v>597</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>441</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>629</v>
+        <v>441</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>164</v>
+        <v>629</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13201" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13766" uniqueCount="650">
   <si>
     <t>description</t>
   </si>
@@ -2026,7 +2026,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="393" x14ac:knownFonts="1">
+  <fonts count="409" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4512,8 +4512,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="673">
+  <fills count="700">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8323,8 +8424,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="695">
+  <borders count="727">
     <border>
       <left/>
       <right/>
@@ -15350,6 +15604,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -15357,7 +15937,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="422">
+  <cellXfs count="438">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16597,52 +17177,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="645" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="648" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="648" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="651" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="651" fontId="379" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="654" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="678" fillId="654" fontId="380" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="657" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="657" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="382" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="660" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="660" fontId="383" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="663" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="663" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="654" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="654" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="666" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="666" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="666" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="666" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="657" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="657" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="669" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="669" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="657" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="657" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="672" fontId="392" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="678" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="681" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="693" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="693" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="696" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="699" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/artifact/script/web-06.xlsx
+++ b/artifact/script/web-06.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13766" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14896" uniqueCount="650">
   <si>
     <t>description</t>
   </si>
@@ -2026,7 +2026,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="409" x14ac:knownFonts="1">
+  <fonts count="441" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4613,8 +4613,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="700">
+  <fills count="754">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8577,8 +8779,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="727">
+  <borders count="791">
     <border>
       <left/>
       <right/>
@@ -15930,6 +16438,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -15937,7 +17097,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="438">
+  <cellXfs count="470">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17225,52 +18385,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="672" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="678" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="706" fillId="678" fontId="395" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="681" fontId="396" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="684" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="398" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="687" fontId="399" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="400" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="690" fontId="401" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="681" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="681" fontId="402" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="693" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="693" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="693" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="693" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="684" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="696" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="696" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="684" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="699" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="699" fontId="408" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="734" fillId="702" fontId="409" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="410" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="705" fontId="411" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="708" fontId="412" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="711" fontId="413" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="414" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="714" fontId="415" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="416" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="717" fontId="417" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="708" fontId="418" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="720" fontId="419" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="720" fontId="420" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="711" fontId="421" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="723" fontId="422" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="711" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="726" fontId="424" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="729" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="732" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="735" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="738" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="741" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="744" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="735" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="747" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="747" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="750" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="753" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
